--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -765,6 +765,9 @@
 </t>
   </si>
   <si>
+    <t>TODO</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour représenter le code officiel géographique (COG) de la commune dans laquelle le lieu est situé.</t>
   </si>
   <si>
@@ -792,9 +795,6 @@
   <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-period}
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeFermeture + datePrevisionnelleReouverture + </t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour définir les période d'ouverture et de fermeture de l'organisation interne</t>
@@ -6128,10 +6128,10 @@
         <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6199,13 +6199,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>180</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>70</v>
@@ -6227,13 +6227,13 @@
         <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6301,13 +6301,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>180</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>70</v>
@@ -6329,10 +6329,10 @@
         <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>249</v>
@@ -6434,7 +6434,7 @@
         <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>195</v>
@@ -10332,7 +10332,7 @@
         <v>258</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>260</v>
@@ -19388,7 +19388,7 @@
         <v>275</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>414</v>
+        <v>239</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>415</v>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="876">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -797,6 +797,9 @@
 </t>
   </si>
   <si>
+    <t>typeFermeture (EG + OI) + datePrevisionnelleReouverture (OI)</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour définir les période d'ouverture et de fermeture de l'organisation interne</t>
   </si>
   <si>
@@ -804,6 +807,9 @@
   </si>
   <si>
     <t>openingClosingDate</t>
+  </si>
+  <si>
+    <t>dateOuverture (EJ + OI) + dateFermeture (EJ + EG + OI)</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -1239,9 +1245,6 @@
     <t>numADELI</t>
   </si>
   <si>
-    <t xml:space="preserve">numADELI : </t>
-  </si>
-  <si>
     <t>Organization.identifier:numADELI.id</t>
   </si>
   <si>
@@ -1280,9 +1283,6 @@
     <t>identifierEG</t>
   </si>
   <si>
-    <t xml:space="preserve">identifiantEG : </t>
-  </si>
-  <si>
     <t>Organization.identifier:identifierEG.id</t>
   </si>
   <si>
@@ -2321,16 +2321,6 @@
   </si>
   <si>
     <t>A numbered box located in a post station.</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:ror-organization-address-line-iso-21090-adxp-locality</t>
-  </si>
-  <si>
-    <t>ror-organization-address-line-iso-21090-adxp-locality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
-</t>
   </si>
   <si>
     <t>Organization.address.line.value</t>
@@ -3085,7 +3075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ241"/>
+  <dimension ref="A1:AJ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3094,9 +3084,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="83.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="49.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="45.6484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6317,7 +6307,7 @@
         <v>71</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>70</v>
@@ -6332,10 +6322,10 @@
         <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6403,13 +6393,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>180</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>70</v>
@@ -6434,7 +6424,7 @@
         <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>195</v>
@@ -6505,10 +6495,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6534,16 +6524,16 @@
         <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>70</v>
@@ -6592,7 +6582,7 @@
         <v>104</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>71</v>
@@ -6609,10 +6599,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6635,17 +6625,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>70</v>
@@ -6682,7 +6672,7 @@
         <v>70</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
@@ -6692,7 +6682,7 @@
         <v>104</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>71</v>
@@ -6701,7 +6691,7 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>90</v>
@@ -6709,10 +6699,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6809,10 +6799,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6911,10 +6901,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6940,16 +6930,16 @@
         <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>70</v>
@@ -6977,10 +6967,10 @@
         <v>150</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>70</v>
@@ -6998,7 +6988,7 @@
         <v>70</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>71</v>
@@ -7015,10 +7005,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7041,19 +7031,19 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>70</v>
@@ -7081,10 +7071,10 @@
         <v>135</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>70</v>
@@ -7102,7 +7092,7 @@
         <v>70</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>71</v>
@@ -7119,10 +7109,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7148,16 +7138,16 @@
         <v>119</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>70</v>
@@ -7170,7 +7160,7 @@
         <v>70</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>70</v>
@@ -7206,7 +7196,7 @@
         <v>70</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>71</v>
@@ -7223,10 +7213,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7252,13 +7242,13 @@
         <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7272,7 +7262,7 @@
         <v>70</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>70</v>
@@ -7308,7 +7298,7 @@
         <v>70</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>71</v>
@@ -7325,10 +7315,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7351,16 +7341,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7410,7 +7400,7 @@
         <v>70</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>71</v>
@@ -7422,15 +7412,15 @@
         <v>89</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7453,16 +7443,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7512,7 +7502,7 @@
         <v>70</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>71</v>
@@ -7524,18 +7514,18 @@
         <v>89</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>70</v>
@@ -7557,17 +7547,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>70</v>
@@ -7616,7 +7606,7 @@
         <v>70</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>71</v>
@@ -7625,7 +7615,7 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>90</v>
@@ -7633,10 +7623,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7733,10 +7723,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7835,10 +7825,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7864,16 +7854,16 @@
         <v>158</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>70</v>
@@ -7901,10 +7891,10 @@
         <v>150</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>70</v>
@@ -7922,7 +7912,7 @@
         <v>70</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>71</v>
@@ -7939,10 +7929,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7965,19 +7955,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>70</v>
@@ -7987,7 +7977,7 @@
         <v>70</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>70</v>
@@ -8005,10 +7995,10 @@
         <v>135</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>70</v>
@@ -8026,7 +8016,7 @@
         <v>70</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>71</v>
@@ -8043,10 +8033,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8072,16 +8062,16 @@
         <v>119</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>70</v>
@@ -8094,7 +8084,7 @@
         <v>70</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>70</v>
@@ -8130,7 +8120,7 @@
         <v>70</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>71</v>
@@ -8147,10 +8137,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8176,13 +8166,13 @@
         <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8196,7 +8186,7 @@
         <v>70</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>70</v>
@@ -8232,7 +8222,7 @@
         <v>70</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>71</v>
@@ -8249,10 +8239,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8275,16 +8265,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8334,7 +8324,7 @@
         <v>70</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>71</v>
@@ -8346,15 +8336,15 @@
         <v>89</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8377,16 +8367,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8436,7 +8426,7 @@
         <v>70</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>71</v>
@@ -8448,18 +8438,18 @@
         <v>89</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>70</v>
@@ -8481,17 +8471,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>70</v>
@@ -8540,7 +8530,7 @@
         <v>70</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>71</v>
@@ -8549,7 +8539,7 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>90</v>
@@ -8557,10 +8547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8657,10 +8647,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8759,10 +8749,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8788,16 +8778,16 @@
         <v>158</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>70</v>
@@ -8825,10 +8815,10 @@
         <v>150</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>70</v>
@@ -8846,7 +8836,7 @@
         <v>70</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>71</v>
@@ -8863,10 +8853,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8889,19 +8879,19 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>70</v>
@@ -8911,7 +8901,7 @@
         <v>70</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>70</v>
@@ -8929,10 +8919,10 @@
         <v>135</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>70</v>
@@ -8950,7 +8940,7 @@
         <v>70</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>71</v>
@@ -8967,10 +8957,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8996,16 +8986,16 @@
         <v>119</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>70</v>
@@ -9018,7 +9008,7 @@
         <v>70</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>70</v>
@@ -9054,7 +9044,7 @@
         <v>70</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>71</v>
@@ -9071,10 +9061,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9100,13 +9090,13 @@
         <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9120,7 +9110,7 @@
         <v>70</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>70</v>
@@ -9156,7 +9146,7 @@
         <v>70</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>71</v>
@@ -9173,10 +9163,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9199,16 +9189,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9258,7 +9248,7 @@
         <v>70</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>71</v>
@@ -9270,15 +9260,15 @@
         <v>89</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9301,16 +9291,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9360,7 +9350,7 @@
         <v>70</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>71</v>
@@ -9372,18 +9362,18 @@
         <v>89</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>70</v>
@@ -9405,17 +9395,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>70</v>
@@ -9464,7 +9454,7 @@
         <v>70</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>71</v>
@@ -9473,7 +9463,7 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>90</v>
@@ -9481,10 +9471,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9581,10 +9571,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9683,10 +9673,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9712,16 +9702,16 @@
         <v>158</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>70</v>
@@ -9749,10 +9739,10 @@
         <v>150</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>70</v>
@@ -9770,7 +9760,7 @@
         <v>70</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>71</v>
@@ -9787,10 +9777,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9813,19 +9803,19 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>70</v>
@@ -9835,7 +9825,7 @@
         <v>70</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>70</v>
@@ -9853,10 +9843,10 @@
         <v>135</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>70</v>
@@ -9874,7 +9864,7 @@
         <v>70</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>71</v>
@@ -9891,10 +9881,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9920,16 +9910,16 @@
         <v>119</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>70</v>
@@ -9942,7 +9932,7 @@
         <v>70</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>70</v>
@@ -9978,7 +9968,7 @@
         <v>70</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>71</v>
@@ -9995,10 +9985,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10024,13 +10014,13 @@
         <v>92</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10044,7 +10034,7 @@
         <v>70</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>70</v>
@@ -10080,7 +10070,7 @@
         <v>70</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>71</v>
@@ -10097,10 +10087,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10123,16 +10113,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10182,7 +10172,7 @@
         <v>70</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>71</v>
@@ -10194,15 +10184,15 @@
         <v>89</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10225,16 +10215,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10284,7 +10274,7 @@
         <v>70</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>71</v>
@@ -10296,18 +10286,18 @@
         <v>89</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>70</v>
@@ -10329,17 +10319,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>239</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>70</v>
@@ -10388,7 +10378,7 @@
         <v>70</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>71</v>
@@ -10397,7 +10387,7 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>90</v>
@@ -10405,10 +10395,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10505,10 +10495,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10607,10 +10597,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10636,16 +10626,16 @@
         <v>158</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>70</v>
@@ -10673,10 +10663,10 @@
         <v>150</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>70</v>
@@ -10694,7 +10684,7 @@
         <v>70</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>71</v>
@@ -10711,10 +10701,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10737,19 +10727,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>70</v>
@@ -10759,7 +10749,7 @@
         <v>70</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>70</v>
@@ -10777,10 +10767,10 @@
         <v>135</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>70</v>
@@ -10798,7 +10788,7 @@
         <v>70</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>71</v>
@@ -10815,10 +10805,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10844,16 +10834,16 @@
         <v>119</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>70</v>
@@ -10866,7 +10856,7 @@
         <v>70</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>70</v>
@@ -10902,7 +10892,7 @@
         <v>70</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>71</v>
@@ -10919,10 +10909,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10948,13 +10938,13 @@
         <v>92</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10968,7 +10958,7 @@
         <v>70</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>70</v>
@@ -11004,7 +10994,7 @@
         <v>70</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>71</v>
@@ -11021,10 +11011,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11047,16 +11037,16 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11106,7 +11096,7 @@
         <v>70</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>71</v>
@@ -11118,15 +11108,15 @@
         <v>89</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11149,16 +11139,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11208,7 +11198,7 @@
         <v>70</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>71</v>
@@ -11220,18 +11210,18 @@
         <v>89</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>70</v>
@@ -11253,17 +11243,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>70</v>
@@ -11312,7 +11302,7 @@
         <v>70</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>71</v>
@@ -11321,7 +11311,7 @@
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>90</v>
@@ -11329,10 +11319,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11429,10 +11419,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11531,10 +11521,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11560,16 +11550,16 @@
         <v>158</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>70</v>
@@ -11597,10 +11587,10 @@
         <v>150</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>70</v>
@@ -11618,7 +11608,7 @@
         <v>70</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>71</v>
@@ -11635,10 +11625,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11661,19 +11651,19 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>70</v>
@@ -11683,7 +11673,7 @@
         <v>70</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>70</v>
@@ -11701,10 +11691,10 @@
         <v>135</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>70</v>
@@ -11722,7 +11712,7 @@
         <v>70</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>71</v>
@@ -11739,10 +11729,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11768,16 +11758,16 @@
         <v>119</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>70</v>
@@ -11790,7 +11780,7 @@
         <v>70</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>70</v>
@@ -11826,7 +11816,7 @@
         <v>70</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>71</v>
@@ -11843,10 +11833,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11872,13 +11862,13 @@
         <v>92</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11892,7 +11882,7 @@
         <v>70</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>70</v>
@@ -11928,7 +11918,7 @@
         <v>70</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>71</v>
@@ -11945,10 +11935,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11971,16 +11961,16 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12030,7 +12020,7 @@
         <v>70</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>71</v>
@@ -12042,15 +12032,15 @@
         <v>89</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12073,16 +12063,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12132,7 +12122,7 @@
         <v>70</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>71</v>
@@ -12144,18 +12134,18 @@
         <v>89</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>70</v>
@@ -12177,17 +12167,17 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>70</v>
@@ -12236,7 +12226,7 @@
         <v>70</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>71</v>
@@ -12245,7 +12235,7 @@
         <v>72</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>90</v>
@@ -12253,10 +12243,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12353,10 +12343,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12455,10 +12445,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12484,16 +12474,16 @@
         <v>158</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>70</v>
@@ -12521,10 +12511,10 @@
         <v>150</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>70</v>
@@ -12542,7 +12532,7 @@
         <v>70</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>71</v>
@@ -12559,10 +12549,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12585,19 +12575,19 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>70</v>
@@ -12607,7 +12597,7 @@
         <v>70</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>70</v>
@@ -12625,10 +12615,10 @@
         <v>135</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>70</v>
@@ -12646,7 +12636,7 @@
         <v>70</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>71</v>
@@ -12663,10 +12653,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12692,16 +12682,16 @@
         <v>119</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>70</v>
@@ -12714,7 +12704,7 @@
         <v>70</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>70</v>
@@ -12750,7 +12740,7 @@
         <v>70</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>71</v>
@@ -12767,10 +12757,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12796,13 +12786,13 @@
         <v>92</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12816,7 +12806,7 @@
         <v>70</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>70</v>
@@ -12852,7 +12842,7 @@
         <v>70</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>71</v>
@@ -12869,10 +12859,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12895,16 +12885,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12954,7 +12944,7 @@
         <v>70</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>71</v>
@@ -12966,15 +12956,15 @@
         <v>89</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12997,16 +12987,16 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13056,7 +13046,7 @@
         <v>70</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>71</v>
@@ -13068,18 +13058,18 @@
         <v>89</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>70</v>
@@ -13101,17 +13091,17 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>70</v>
@@ -13160,7 +13150,7 @@
         <v>70</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>71</v>
@@ -13169,7 +13159,7 @@
         <v>72</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>90</v>
@@ -13177,10 +13167,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13277,10 +13267,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13379,10 +13369,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13408,16 +13398,16 @@
         <v>158</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>70</v>
@@ -13445,10 +13435,10 @@
         <v>150</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>70</v>
@@ -13466,7 +13456,7 @@
         <v>70</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>71</v>
@@ -13483,10 +13473,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13509,19 +13499,19 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>70</v>
@@ -13531,7 +13521,7 @@
         <v>70</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>70</v>
@@ -13549,10 +13539,10 @@
         <v>135</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>70</v>
@@ -13570,7 +13560,7 @@
         <v>70</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>71</v>
@@ -13587,10 +13577,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13616,16 +13606,16 @@
         <v>119</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>70</v>
@@ -13638,7 +13628,7 @@
         <v>70</v>
       </c>
       <c r="T103" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U103" t="s" s="2">
         <v>70</v>
@@ -13674,7 +13664,7 @@
         <v>70</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>71</v>
@@ -13691,10 +13681,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13720,13 +13710,13 @@
         <v>92</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13740,7 +13730,7 @@
         <v>70</v>
       </c>
       <c r="T104" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U104" t="s" s="2">
         <v>70</v>
@@ -13776,7 +13766,7 @@
         <v>70</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>71</v>
@@ -13793,10 +13783,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13819,16 +13809,16 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13878,7 +13868,7 @@
         <v>70</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>71</v>
@@ -13890,15 +13880,15 @@
         <v>89</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13921,16 +13911,16 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13980,7 +13970,7 @@
         <v>70</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>71</v>
@@ -13992,18 +13982,18 @@
         <v>89</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>70</v>
@@ -14025,17 +14015,17 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>395</v>
+        <v>239</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>70</v>
@@ -14084,7 +14074,7 @@
         <v>70</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>71</v>
@@ -14093,7 +14083,7 @@
         <v>72</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>90</v>
@@ -14104,7 +14094,7 @@
         <v>396</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14204,7 +14194,7 @@
         <v>397</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14306,7 +14296,7 @@
         <v>398</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14332,16 +14322,16 @@
         <v>158</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>70</v>
@@ -14369,10 +14359,10 @@
         <v>150</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>70</v>
@@ -14390,7 +14380,7 @@
         <v>70</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>71</v>
@@ -14410,7 +14400,7 @@
         <v>399</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14433,19 +14423,19 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>70</v>
@@ -14473,10 +14463,10 @@
         <v>135</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>70</v>
@@ -14494,7 +14484,7 @@
         <v>70</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>71</v>
@@ -14514,7 +14504,7 @@
         <v>401</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14540,16 +14530,16 @@
         <v>119</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>70</v>
@@ -14562,7 +14552,7 @@
         <v>70</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>70</v>
@@ -14598,7 +14588,7 @@
         <v>70</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>71</v>
@@ -14618,7 +14608,7 @@
         <v>402</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14644,13 +14634,13 @@
         <v>92</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14664,7 +14654,7 @@
         <v>70</v>
       </c>
       <c r="T113" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U113" t="s" s="2">
         <v>70</v>
@@ -14700,7 +14690,7 @@
         <v>70</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>71</v>
@@ -14720,7 +14710,7 @@
         <v>403</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14743,16 +14733,16 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14802,7 +14792,7 @@
         <v>70</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>71</v>
@@ -14814,7 +14804,7 @@
         <v>89</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115">
@@ -14822,7 +14812,7 @@
         <v>404</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14845,16 +14835,16 @@
         <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -14904,7 +14894,7 @@
         <v>70</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>71</v>
@@ -14916,7 +14906,7 @@
         <v>89</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116">
@@ -15053,7 +15043,7 @@
         <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>414</v>
@@ -15157,7 +15147,7 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L118" t="s" s="2">
         <v>414</v>
@@ -16393,7 +16383,7 @@
         <v>78</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>414</v>
@@ -17629,7 +17619,7 @@
         <v>78</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L142" t="s" s="2">
         <v>414</v>
@@ -18865,7 +18855,7 @@
         <v>78</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>516</v>
@@ -18969,7 +18959,7 @@
         <v>78</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>520</v>
@@ -19073,7 +19063,7 @@
         <v>78</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>524</v>
@@ -19177,7 +19167,7 @@
         <v>78</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>528</v>
@@ -19281,7 +19271,7 @@
         <v>78</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L158" t="s" s="2">
         <v>532</v>
@@ -19385,7 +19375,7 @@
         <v>78</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>239</v>
@@ -19557,7 +19547,7 @@
         <v>77</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>90</v>
@@ -20517,7 +20507,7 @@
         <v>78</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L170" t="s" s="2">
         <v>589</v>
@@ -20588,7 +20578,7 @@
         <v>89</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171">
@@ -23946,11 +23936,9 @@
         <v>731</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="C204" t="s" s="2">
-        <v>732</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
         <v>70</v>
       </c>
@@ -23971,13 +23959,13 @@
         <v>70</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>733</v>
+        <v>92</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>643</v>
+        <v>732</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24001,7 +23989,7 @@
         <v>70</v>
       </c>
       <c r="W204" t="s" s="2">
-        <v>70</v>
+        <v>733</v>
       </c>
       <c r="X204" t="s" s="2">
         <v>70</v>
@@ -24028,31 +24016,31 @@
         <v>70</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>105</v>
+        <v>734</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>70</v>
+        <v>736</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
@@ -24068,18 +24056,20 @@
         <v>70</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="N205" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>70</v>
@@ -24092,7 +24082,7 @@
         <v>70</v>
       </c>
       <c r="T205" t="s" s="2">
-        <v>70</v>
+        <v>739</v>
       </c>
       <c r="U205" t="s" s="2">
         <v>70</v>
@@ -24101,7 +24091,7 @@
         <v>70</v>
       </c>
       <c r="W205" t="s" s="2">
-        <v>736</v>
+        <v>70</v>
       </c>
       <c r="X205" t="s" s="2">
         <v>70</v>
@@ -24128,7 +24118,7 @@
         <v>70</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>71</v>
@@ -24137,22 +24127,22 @@
         <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
@@ -24174,13 +24164,13 @@
         <v>92</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>457</v>
+        <v>745</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -24194,7 +24184,7 @@
         <v>70</v>
       </c>
       <c r="T206" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="U206" t="s" s="2">
         <v>70</v>
@@ -24230,7 +24220,7 @@
         <v>70</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>71</v>
@@ -24247,14 +24237,14 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
@@ -24276,13 +24266,13 @@
         <v>92</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>748</v>
+        <v>457</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -24296,7 +24286,7 @@
         <v>70</v>
       </c>
       <c r="T207" t="s" s="2">
-        <v>749</v>
+        <v>70</v>
       </c>
       <c r="U207" t="s" s="2">
         <v>70</v>
@@ -24332,7 +24322,7 @@
         <v>70</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>71</v>
@@ -24349,14 +24339,14 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
@@ -24378,10 +24368,10 @@
         <v>92</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N208" t="s" s="2">
         <v>457</v>
@@ -24398,7 +24388,7 @@
         <v>70</v>
       </c>
       <c r="T208" t="s" s="2">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="U208" t="s" s="2">
         <v>70</v>
@@ -24434,7 +24424,7 @@
         <v>70</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>71</v>
@@ -24451,14 +24441,14 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
-        <v>757</v>
+        <v>70</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
@@ -24480,13 +24470,13 @@
         <v>92</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>457</v>
+        <v>762</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -24500,7 +24490,7 @@
         <v>70</v>
       </c>
       <c r="T209" t="s" s="2">
-        <v>760</v>
+        <v>70</v>
       </c>
       <c r="U209" t="s" s="2">
         <v>70</v>
@@ -24536,7 +24526,7 @@
         <v>70</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>71</v>
@@ -24553,10 +24543,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24579,18 +24569,20 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="O210" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="O210" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="P210" t="s" s="2">
         <v>70</v>
       </c>
@@ -24602,7 +24594,7 @@
         <v>70</v>
       </c>
       <c r="T210" t="s" s="2">
-        <v>70</v>
+        <v>768</v>
       </c>
       <c r="U210" t="s" s="2">
         <v>70</v>
@@ -24638,7 +24630,7 @@
         <v>70</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>71</v>
@@ -24650,15 +24642,15 @@
         <v>89</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>90</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24681,19 +24673,19 @@
         <v>78</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>297</v>
+        <v>771</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>591</v>
+        <v>774</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>70</v>
@@ -24706,7 +24698,7 @@
         <v>70</v>
       </c>
       <c r="T211" t="s" s="2">
-        <v>771</v>
+        <v>70</v>
       </c>
       <c r="U211" t="s" s="2">
         <v>70</v>
@@ -24742,7 +24734,7 @@
         <v>70</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>71</v>
@@ -24754,15 +24746,15 @@
         <v>89</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24782,23 +24774,19 @@
         <v>70</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>774</v>
+        <v>92</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>775</v>
+        <v>93</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>778</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>70</v>
       </c>
@@ -24846,7 +24834,7 @@
         <v>70</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>773</v>
+        <v>95</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>71</v>
@@ -24855,29 +24843,29 @@
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>309</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>70</v>
@@ -24889,15 +24877,17 @@
         <v>70</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N213" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>70</v>
@@ -24934,50 +24924,50 @@
         <v>70</v>
       </c>
       <c r="AB213" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC213" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD213" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>70</v>
@@ -24986,19 +24976,19 @@
         <v>70</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>99</v>
+        <v>779</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>100</v>
+        <v>780</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>101</v>
+        <v>781</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -25036,39 +25026,39 @@
         <v>70</v>
       </c>
       <c r="AB214" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD214" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>105</v>
+        <v>782</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>89</v>
+        <v>783</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25091,16 +25081,16 @@
         <v>78</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -25126,13 +25116,13 @@
         <v>70</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>70</v>
+        <v>423</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>70</v>
@@ -25150,7 +25140,7 @@
         <v>70</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>71</v>
@@ -25159,7 +25149,7 @@
         <v>77</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>786</v>
+        <v>89</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>90</v>
@@ -25167,10 +25157,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25193,16 +25183,16 @@
         <v>78</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -25228,13 +25218,13 @@
         <v>70</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>791</v>
+        <v>70</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>423</v>
+        <v>70</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>70</v>
@@ -25252,7 +25242,7 @@
         <v>70</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>71</v>
@@ -25269,10 +25259,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25295,16 +25285,16 @@
         <v>78</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>258</v>
+        <v>92</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -25354,7 +25344,7 @@
         <v>70</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>71</v>
@@ -25371,10 +25361,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25385,7 +25375,7 @@
         <v>71</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>70</v>
@@ -25394,21 +25384,23 @@
         <v>70</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>92</v>
+        <v>801</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="P218" t="s" s="2">
         <v>70</v>
       </c>
@@ -25456,13 +25448,13 @@
         <v>70</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>89</v>
@@ -25473,10 +25465,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25487,7 +25479,7 @@
         <v>71</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>70</v>
@@ -25499,20 +25491,16 @@
         <v>70</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>804</v>
+        <v>92</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>805</v>
+        <v>93</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>808</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>70</v>
       </c>
@@ -25560,38 +25548,38 @@
         <v>70</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>803</v>
+        <v>95</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H220" t="s" s="2">
         <v>70</v>
@@ -25603,15 +25591,17 @@
         <v>70</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N220" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>70</v>
@@ -25648,50 +25638,52 @@
         <v>70</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD220" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="C221" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>809</v>
+      </c>
       <c r="D221" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>70</v>
@@ -25703,17 +25695,15 @@
         <v>70</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>98</v>
+        <v>810</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>99</v>
+        <v>811</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="N221" s="2"/>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
         <v>70</v>
@@ -25750,16 +25740,16 @@
         <v>70</v>
       </c>
       <c r="AB221" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD221" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>105</v>
@@ -25779,13 +25769,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>70</v>
@@ -25807,13 +25797,13 @@
         <v>70</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -25881,13 +25871,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>70</v>
@@ -25909,13 +25899,13 @@
         <v>70</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -25983,44 +25973,46 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="C224" t="s" s="2">
-        <v>822</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>70</v>
+        <v>824</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I224" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>823</v>
+        <v>98</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P224" t="s" s="2">
         <v>70</v>
       </c>
@@ -26068,7 +26060,7 @@
         <v>70</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>105</v>
+        <v>827</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>71</v>
@@ -26085,45 +26077,45 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
-        <v>827</v>
+        <v>70</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>101</v>
+        <v>831</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>255</v>
+        <v>832</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>70</v>
@@ -26148,13 +26140,11 @@
         <v>70</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y225" s="2"/>
       <c r="Z225" t="s" s="2">
-        <v>70</v>
+        <v>833</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>70</v>
@@ -26172,27 +26162,27 @@
         <v>70</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26215,19 +26205,19 @@
         <v>70</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>275</v>
+        <v>835</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="O226" t="s" s="2">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>70</v>
@@ -26252,11 +26242,13 @@
         <v>70</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y226" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z226" t="s" s="2">
-        <v>836</v>
+        <v>70</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>70</v>
@@ -26274,7 +26266,7 @@
         <v>70</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>71</v>
@@ -26291,10 +26283,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26305,7 +26297,7 @@
         <v>71</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>70</v>
@@ -26317,19 +26309,17 @@
         <v>70</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>838</v>
+        <v>548</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>839</v>
+        <v>549</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="N227" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N227" s="2"/>
+      <c r="O227" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>842</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>70</v>
@@ -26378,19 +26368,19 @@
         <v>70</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>90</v>
+        <v>842</v>
       </c>
     </row>
     <row r="228">
@@ -26409,7 +26399,7 @@
         <v>71</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>70</v>
@@ -26421,18 +26411,16 @@
         <v>70</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>548</v>
+        <v>92</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>549</v>
+        <v>93</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>550</v>
+        <v>94</v>
       </c>
       <c r="N228" s="2"/>
-      <c r="O228" t="s" s="2">
-        <v>844</v>
-      </c>
+      <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
         <v>70</v>
       </c>
@@ -26480,27 +26468,27 @@
         <v>70</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>843</v>
+        <v>95</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>845</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26508,10 +26496,10 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>71</v>
+        <v>845</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>70</v>
@@ -26523,13 +26511,13 @@
         <v>70</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -26568,50 +26556,52 @@
         <v>70</v>
       </c>
       <c r="AB229" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC229" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD229" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="C230" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="D230" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>848</v>
+        <v>71</v>
       </c>
       <c r="G230" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
         <v>70</v>
@@ -26623,15 +26613,17 @@
         <v>70</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>98</v>
+        <v>559</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>181</v>
+        <v>560</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N230" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>70</v>
@@ -26668,16 +26660,16 @@
         <v>70</v>
       </c>
       <c r="AB230" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD230" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>105</v>
@@ -26697,20 +26689,20 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>558</v>
+        <v>848</v>
       </c>
       <c r="D231" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>77</v>
@@ -26725,17 +26717,15 @@
         <v>70</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>559</v>
+        <v>849</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>560</v>
+        <v>850</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>70</v>
@@ -26801,20 +26791,20 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>77</v>
@@ -26829,13 +26819,13 @@
         <v>70</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -26903,20 +26893,20 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>77</v>
@@ -26931,13 +26921,13 @@
         <v>70</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -27005,14 +26995,12 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="C234" t="s" s="2">
-        <v>861</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
         <v>70</v>
       </c>
@@ -27030,18 +27018,20 @@
         <v>70</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>862</v>
+        <v>158</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>863</v>
+        <v>562</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="N234" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
         <v>70</v>
@@ -27066,13 +27056,13 @@
         <v>70</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>70</v>
+        <v>564</v>
       </c>
       <c r="Z234" t="s" s="2">
-        <v>70</v>
+        <v>565</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>70</v>
@@ -27090,27 +27080,27 @@
         <v>70</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>105</v>
+        <v>566</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>89</v>
+        <v>567</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27133,18 +27123,20 @@
         <v>78</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>562</v>
+        <v>864</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O235" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="P235" t="s" s="2">
         <v>70</v>
       </c>
@@ -27168,13 +27160,13 @@
         <v>70</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>564</v>
+        <v>70</v>
       </c>
       <c r="Z235" t="s" s="2">
-        <v>565</v>
+        <v>70</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>70</v>
@@ -27192,7 +27184,7 @@
         <v>70</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>71</v>
@@ -27201,7 +27193,7 @@
         <v>77</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>567</v>
+        <v>89</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>90</v>
@@ -27209,10 +27201,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27220,7 +27212,7 @@
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>77</v>
@@ -27229,25 +27221,25 @@
         <v>70</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J236" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>867</v>
+        <v>575</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>70</v>
@@ -27272,13 +27264,13 @@
         <v>70</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>70</v>
+        <v>579</v>
       </c>
       <c r="Z236" t="s" s="2">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>70</v>
@@ -27296,7 +27288,7 @@
         <v>70</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>71</v>
@@ -27313,10 +27305,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27333,26 +27325,24 @@
         <v>70</v>
       </c>
       <c r="I237" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J237" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>158</v>
+        <v>583</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
         <v>70</v>
       </c>
@@ -27376,13 +27366,13 @@
         <v>70</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>579</v>
+        <v>70</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>70</v>
@@ -27400,7 +27390,7 @@
         <v>70</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>71</v>
@@ -27417,10 +27407,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27443,16 +27433,16 @@
         <v>78</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>583</v>
+        <v>299</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -27502,7 +27492,7 @@
         <v>70</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>71</v>
@@ -27514,15 +27504,15 @@
         <v>89</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>90</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27542,21 +27532,23 @@
         <v>70</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>297</v>
+        <v>594</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>589</v>
+        <v>869</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O239" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>870</v>
+      </c>
       <c r="P239" t="s" s="2">
         <v>70</v>
       </c>
@@ -27604,7 +27596,7 @@
         <v>70</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>592</v>
+        <v>868</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>71</v>
@@ -27616,7 +27608,7 @@
         <v>89</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>302</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
@@ -27635,7 +27627,7 @@
         <v>71</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H240" t="s" s="2">
         <v>70</v>
@@ -27647,19 +27639,19 @@
         <v>70</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>594</v>
+        <v>872</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>596</v>
+        <v>874</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>597</v>
+        <v>774</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>70</v>
@@ -27714,117 +27706,13 @@
         <v>71</v>
       </c>
       <c r="AH240" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI240" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="C241" s="2"/>
-      <c r="D241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>878</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q241" s="2"/>
-      <c r="R241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI241" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ241" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10298" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10265" uniqueCount="949">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2155,23 +2155,10 @@
 </t>
   </si>
   <si>
+    <t>Eloignement calculé</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-geolocation</t>
-  </si>
-  <si>
-    <t>ror-geolocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-geolocation}
-</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -3264,7 +3251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ318"/>
+  <dimension ref="A1:AJ317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -30033,10 +30020,10 @@
         <v>692</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>431</v>
+        <v>693</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -30104,14 +30091,12 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="C262" t="s" s="2">
         <v>695</v>
       </c>
+      <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
         <v>70</v>
       </c>
@@ -30126,16 +30111,16 @@
         <v>70</v>
       </c>
       <c r="I262" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>697</v>
@@ -30143,7 +30128,9 @@
       <c r="N262" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="O262" s="2"/>
+      <c r="O262" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P262" t="s" s="2">
         <v>70</v>
       </c>
@@ -30155,7 +30142,7 @@
         <v>70</v>
       </c>
       <c r="T262" t="s" s="2">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="U262" t="s" s="2">
         <v>70</v>
@@ -30167,13 +30154,13 @@
         <v>70</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>70</v>
+        <v>701</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>70</v>
+        <v>702</v>
       </c>
       <c r="AA262" t="s" s="2">
         <v>70</v>
@@ -30191,27 +30178,27 @@
         <v>70</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>105</v>
+        <v>703</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI262" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -30228,7 +30215,7 @@
         <v>70</v>
       </c>
       <c r="I263" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J263" t="s" s="2">
         <v>78</v>
@@ -30237,17 +30224,15 @@
         <v>158</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="O263" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
         <v>70</v>
       </c>
@@ -30259,7 +30244,7 @@
         <v>70</v>
       </c>
       <c r="T263" t="s" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="U263" t="s" s="2">
         <v>70</v>
@@ -30274,10 +30259,10 @@
         <v>150</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="Z263" t="s" s="2">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="AA263" t="s" s="2">
         <v>70</v>
@@ -30295,7 +30280,7 @@
         <v>70</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>71</v>
@@ -30312,10 +30297,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -30338,18 +30323,20 @@
         <v>78</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="O264" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="O264" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="P264" t="s" s="2">
         <v>70</v>
       </c>
@@ -30361,7 +30348,7 @@
         <v>70</v>
       </c>
       <c r="T264" t="s" s="2">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="U264" t="s" s="2">
         <v>70</v>
@@ -30373,13 +30360,13 @@
         <v>70</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>713</v>
+        <v>70</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>714</v>
+        <v>70</v>
       </c>
       <c r="AA264" t="s" s="2">
         <v>70</v>
@@ -30397,7 +30384,7 @@
         <v>70</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>71</v>
@@ -30414,10 +30401,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30428,7 +30415,7 @@
         <v>71</v>
       </c>
       <c r="G265" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H265" t="s" s="2">
         <v>70</v>
@@ -30443,17 +30430,15 @@
         <v>92</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>720</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
         <v>70</v>
       </c>
@@ -30465,7 +30450,7 @@
         <v>70</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>70</v>
@@ -30501,13 +30486,13 @@
         <v>70</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH265" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI265" t="s" s="2">
         <v>89</v>
@@ -30518,10 +30503,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30532,7 +30517,7 @@
         <v>71</v>
       </c>
       <c r="G266" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
         <v>70</v>
@@ -30541,20 +30526,18 @@
         <v>70</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K266" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>724</v>
+        <v>93</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N266" s="2"/>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
         <v>70</v>
@@ -30567,7 +30550,7 @@
         <v>70</v>
       </c>
       <c r="T266" t="s" s="2">
-        <v>726</v>
+        <v>70</v>
       </c>
       <c r="U266" t="s" s="2">
         <v>70</v>
@@ -30603,38 +30586,38 @@
         <v>70</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>727</v>
+        <v>95</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH266" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G267" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H267" t="s" s="2">
         <v>70</v>
@@ -30646,15 +30629,17 @@
         <v>70</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N267" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
         <v>70</v>
@@ -30691,50 +30676,52 @@
         <v>70</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC267" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD267" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH267" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C268" s="2"/>
+        <v>725</v>
+      </c>
+      <c r="C268" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="D268" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G268" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H268" t="s" s="2">
         <v>70</v>
@@ -30746,17 +30733,15 @@
         <v>70</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>98</v>
+        <v>728</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>99</v>
+        <v>729</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
         <v>70</v>
@@ -30793,16 +30778,16 @@
         <v>70</v>
       </c>
       <c r="AB268" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC268" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD268" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>105</v>
@@ -30822,13 +30807,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D269" t="s" s="2">
         <v>70</v>
@@ -30850,13 +30835,13 @@
         <v>70</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -30924,13 +30909,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D270" t="s" s="2">
         <v>70</v>
@@ -30952,13 +30937,13 @@
         <v>70</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -31026,13 +31011,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>70</v>
@@ -31054,13 +31039,13 @@
         <v>70</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -31128,13 +31113,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>70</v>
@@ -31156,13 +31141,13 @@
         <v>70</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -31230,14 +31215,12 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C273" t="s" s="2">
-        <v>751</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
         <v>70</v>
       </c>
@@ -31258,13 +31241,13 @@
         <v>70</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>752</v>
+        <v>92</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>753</v>
+        <v>93</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>754</v>
+        <v>94</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -31315,38 +31298,38 @@
         <v>70</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH273" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ273" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G274" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H274" t="s" s="2">
         <v>70</v>
@@ -31358,15 +31341,17 @@
         <v>70</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N274" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N274" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O274" s="2"/>
       <c r="P274" t="s" s="2">
         <v>70</v>
@@ -31403,50 +31388,50 @@
         <v>70</v>
       </c>
       <c r="AB274" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC274" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD274" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH274" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G275" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H275" t="s" s="2">
         <v>70</v>
@@ -31458,16 +31443,16 @@
         <v>70</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>101</v>
+        <v>676</v>
       </c>
       <c r="O275" s="2"/>
       <c r="P275" t="s" s="2">
@@ -31475,7 +31460,7 @@
       </c>
       <c r="Q275" s="2"/>
       <c r="R275" t="s" s="2">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="S275" t="s" s="2">
         <v>70</v>
@@ -31505,39 +31490,39 @@
         <v>70</v>
       </c>
       <c r="AB275" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC275" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD275" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>105</v>
+        <v>678</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH275" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ275" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B276" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="B276" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31545,7 +31530,7 @@
       </c>
       <c r="E276" s="2"/>
       <c r="F276" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G276" t="s" s="2">
         <v>77</v>
@@ -31560,24 +31545,22 @@
         <v>70</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>676</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="N276" s="2"/>
       <c r="O276" s="2"/>
       <c r="P276" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q276" s="2"/>
       <c r="R276" t="s" s="2">
-        <v>761</v>
+        <v>70</v>
       </c>
       <c r="S276" t="s" s="2">
         <v>70</v>
@@ -31607,47 +31590,47 @@
         <v>70</v>
       </c>
       <c r="AB276" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC276" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="AC276" s="2"/>
       <c r="AD276" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>70</v>
+        <v>685</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="C277" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="C277" t="s" s="2">
+        <v>761</v>
+      </c>
       <c r="D277" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G277" t="s" s="2">
         <v>77</v>
@@ -31695,26 +31678,26 @@
         <v>70</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y277" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y277" s="2"/>
       <c r="Z277" t="s" s="2">
-        <v>70</v>
+        <v>762</v>
       </c>
       <c r="AA277" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB277" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AC277" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC277" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD277" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>685</v>
+        <v>70</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>686</v>
@@ -31734,20 +31717,20 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="C278" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="B278" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="C278" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="D278" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G278" t="s" s="2">
         <v>77</v>
@@ -31762,13 +31745,13 @@
         <v>70</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>92</v>
+        <v>765</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -31795,11 +31778,13 @@
         <v>70</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y278" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y278" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z278" t="s" s="2">
-        <v>766</v>
+        <v>70</v>
       </c>
       <c r="AA278" t="s" s="2">
         <v>70</v>
@@ -31817,30 +31802,30 @@
         <v>70</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>686</v>
+        <v>105</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH278" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI278" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ278" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D279" t="s" s="2">
         <v>70</v>
@@ -31862,13 +31847,13 @@
         <v>70</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="L279" t="s" s="2">
         <v>770</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -31936,13 +31921,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="C280" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="B280" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C280" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="D280" t="s" s="2">
         <v>70</v>
@@ -31964,13 +31949,13 @@
         <v>70</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="L280" t="s" s="2">
         <v>774</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -32038,14 +32023,12 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C281" t="s" s="2">
         <v>776</v>
       </c>
+      <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
         <v>70</v>
       </c>
@@ -32066,13 +32049,13 @@
         <v>70</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="L281" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="M281" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
@@ -32096,7 +32079,7 @@
         <v>70</v>
       </c>
       <c r="W281" t="s" s="2">
-        <v>70</v>
+        <v>778</v>
       </c>
       <c r="X281" t="s" s="2">
         <v>70</v>
@@ -32123,19 +32106,19 @@
         <v>70</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>105</v>
+        <v>779</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ281" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282">
@@ -32147,7 +32130,7 @@
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
-        <v>70</v>
+        <v>781</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" t="s" s="2">
@@ -32163,18 +32146,20 @@
         <v>70</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K282" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="N282" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="N282" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O282" s="2"/>
       <c r="P282" t="s" s="2">
         <v>70</v>
@@ -32187,7 +32172,7 @@
         <v>70</v>
       </c>
       <c r="T282" t="s" s="2">
-        <v>70</v>
+        <v>784</v>
       </c>
       <c r="U282" t="s" s="2">
         <v>70</v>
@@ -32196,7 +32181,7 @@
         <v>70</v>
       </c>
       <c r="W282" t="s" s="2">
-        <v>782</v>
+        <v>70</v>
       </c>
       <c r="X282" t="s" s="2">
         <v>70</v>
@@ -32223,7 +32208,7 @@
         <v>70</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>71</v>
@@ -32232,22 +32217,22 @@
         <v>77</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" t="s" s="2">
@@ -32269,13 +32254,13 @@
         <v>92</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>355</v>
+        <v>790</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
@@ -32289,7 +32274,7 @@
         <v>70</v>
       </c>
       <c r="T283" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="U283" t="s" s="2">
         <v>70</v>
@@ -32325,7 +32310,7 @@
         <v>70</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>71</v>
@@ -32342,14 +32327,14 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" t="s" s="2">
@@ -32371,13 +32356,13 @@
         <v>92</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>794</v>
+        <v>355</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
@@ -32391,7 +32376,7 @@
         <v>70</v>
       </c>
       <c r="T284" t="s" s="2">
-        <v>795</v>
+        <v>70</v>
       </c>
       <c r="U284" t="s" s="2">
         <v>70</v>
@@ -32427,7 +32412,7 @@
         <v>70</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>71</v>
@@ -32444,14 +32429,14 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -32473,10 +32458,10 @@
         <v>92</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N285" t="s" s="2">
         <v>355</v>
@@ -32493,7 +32478,7 @@
         <v>70</v>
       </c>
       <c r="T285" t="s" s="2">
-        <v>70</v>
+        <v>802</v>
       </c>
       <c r="U285" t="s" s="2">
         <v>70</v>
@@ -32529,7 +32514,7 @@
         <v>70</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>71</v>
@@ -32546,14 +32531,14 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
-        <v>803</v>
+        <v>70</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
@@ -32575,13 +32560,13 @@
         <v>92</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>355</v>
+        <v>807</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -32595,7 +32580,7 @@
         <v>70</v>
       </c>
       <c r="T286" t="s" s="2">
-        <v>806</v>
+        <v>70</v>
       </c>
       <c r="U286" t="s" s="2">
         <v>70</v>
@@ -32631,7 +32616,7 @@
         <v>70</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>71</v>
@@ -32648,10 +32633,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -32674,18 +32659,20 @@
         <v>78</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="O287" s="2"/>
+        <v>812</v>
+      </c>
+      <c r="O287" t="s" s="2">
+        <v>813</v>
+      </c>
       <c r="P287" t="s" s="2">
         <v>70</v>
       </c>
@@ -32697,7 +32684,7 @@
         <v>70</v>
       </c>
       <c r="T287" t="s" s="2">
-        <v>70</v>
+        <v>814</v>
       </c>
       <c r="U287" t="s" s="2">
         <v>70</v>
@@ -32733,7 +32720,7 @@
         <v>70</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>71</v>
@@ -32745,15 +32732,15 @@
         <v>89</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32776,19 +32763,19 @@
         <v>78</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>303</v>
+        <v>817</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="O288" t="s" s="2">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>70</v>
@@ -32801,7 +32788,7 @@
         <v>70</v>
       </c>
       <c r="T288" t="s" s="2">
-        <v>818</v>
+        <v>70</v>
       </c>
       <c r="U288" t="s" s="2">
         <v>70</v>
@@ -32837,7 +32824,7 @@
         <v>70</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>71</v>
@@ -32849,15 +32836,15 @@
         <v>89</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32877,23 +32864,19 @@
         <v>70</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>821</v>
+        <v>92</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>822</v>
+        <v>93</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>825</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N289" s="2"/>
+      <c r="O289" s="2"/>
       <c r="P289" t="s" s="2">
         <v>70</v>
       </c>
@@ -32941,7 +32924,7 @@
         <v>70</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>820</v>
+        <v>95</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>71</v>
@@ -32950,29 +32933,29 @@
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>315</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G290" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H290" t="s" s="2">
         <v>70</v>
@@ -32984,15 +32967,17 @@
         <v>70</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N290" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N290" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O290" s="2"/>
       <c r="P290" t="s" s="2">
         <v>70</v>
@@ -33029,50 +33014,50 @@
         <v>70</v>
       </c>
       <c r="AB290" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC290" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD290" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E291" s="2"/>
       <c r="F291" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G291" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H291" t="s" s="2">
         <v>70</v>
@@ -33081,19 +33066,19 @@
         <v>70</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>99</v>
+        <v>825</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>100</v>
+        <v>826</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>101</v>
+        <v>827</v>
       </c>
       <c r="O291" s="2"/>
       <c r="P291" t="s" s="2">
@@ -33131,39 +33116,39 @@
         <v>70</v>
       </c>
       <c r="AB291" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC291" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD291" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>105</v>
+        <v>828</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH291" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI291" t="s" s="2">
-        <v>89</v>
+        <v>829</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -33186,16 +33171,16 @@
         <v>78</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -33221,13 +33206,13 @@
         <v>70</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>70</v>
+        <v>834</v>
       </c>
       <c r="Z292" t="s" s="2">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="AA292" t="s" s="2">
         <v>70</v>
@@ -33245,7 +33230,7 @@
         <v>70</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>71</v>
@@ -33254,7 +33239,7 @@
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>833</v>
+        <v>89</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>90</v>
@@ -33262,10 +33247,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -33288,16 +33273,16 @@
         <v>78</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
@@ -33323,13 +33308,13 @@
         <v>70</v>
       </c>
       <c r="X293" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>838</v>
+        <v>70</v>
       </c>
       <c r="Z293" t="s" s="2">
-        <v>557</v>
+        <v>70</v>
       </c>
       <c r="AA293" t="s" s="2">
         <v>70</v>
@@ -33347,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>71</v>
@@ -33364,10 +33349,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33390,16 +33375,16 @@
         <v>78</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
@@ -33449,7 +33434,7 @@
         <v>70</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>71</v>
@@ -33466,10 +33451,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33480,7 +33465,7 @@
         <v>71</v>
       </c>
       <c r="G295" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H295" t="s" s="2">
         <v>70</v>
@@ -33489,21 +33474,23 @@
         <v>70</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>92</v>
+        <v>847</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="O295" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="O295" t="s" s="2">
+        <v>851</v>
+      </c>
       <c r="P295" t="s" s="2">
         <v>70</v>
       </c>
@@ -33551,13 +33538,13 @@
         <v>70</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH295" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI295" t="s" s="2">
         <v>89</v>
@@ -33568,10 +33555,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -33582,7 +33569,7 @@
         <v>71</v>
       </c>
       <c r="G296" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H296" t="s" s="2">
         <v>70</v>
@@ -33594,20 +33581,16 @@
         <v>70</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>851</v>
+        <v>92</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>852</v>
+        <v>93</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="N296" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>855</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N296" s="2"/>
+      <c r="O296" s="2"/>
       <c r="P296" t="s" s="2">
         <v>70</v>
       </c>
@@ -33655,38 +33638,38 @@
         <v>70</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>850</v>
+        <v>95</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH296" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI296" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ296" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G297" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H297" t="s" s="2">
         <v>70</v>
@@ -33698,15 +33681,17 @@
         <v>70</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N297" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O297" s="2"/>
       <c r="P297" t="s" s="2">
         <v>70</v>
@@ -33743,50 +33728,52 @@
         <v>70</v>
       </c>
       <c r="AB297" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC297" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD297" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH297" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI297" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="C298" s="2"/>
+        <v>853</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>855</v>
+      </c>
       <c r="D298" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E298" s="2"/>
       <c r="F298" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G298" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>70</v>
@@ -33798,17 +33785,15 @@
         <v>70</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>98</v>
+        <v>856</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>99</v>
+        <v>857</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="N298" s="2"/>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
         <v>70</v>
@@ -33845,16 +33830,16 @@
         <v>70</v>
       </c>
       <c r="AB298" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC298" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD298" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>105</v>
@@ -33874,13 +33859,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D299" t="s" s="2">
         <v>70</v>
@@ -33902,13 +33887,13 @@
         <v>70</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
@@ -33976,13 +33961,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D300" t="s" s="2">
         <v>70</v>
@@ -34004,13 +33989,13 @@
         <v>70</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
@@ -34078,35 +34063,33 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="C301" t="s" s="2">
         <v>869</v>
       </c>
+      <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
-        <v>70</v>
+        <v>870</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G301" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H301" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I301" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>870</v>
+        <v>98</v>
       </c>
       <c r="L301" t="s" s="2">
         <v>871</v>
@@ -34114,8 +34097,12 @@
       <c r="M301" t="s" s="2">
         <v>872</v>
       </c>
-      <c r="N301" s="2"/>
-      <c r="O301" s="2"/>
+      <c r="N301" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O301" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P301" t="s" s="2">
         <v>70</v>
       </c>
@@ -34163,7 +34150,7 @@
         <v>70</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>105</v>
+        <v>873</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>71</v>
@@ -34180,33 +34167,33 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
-        <v>874</v>
+        <v>70</v>
       </c>
       <c r="E302" s="2"/>
       <c r="F302" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G302" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H302" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I302" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="L302" t="s" s="2">
         <v>875</v>
@@ -34215,10 +34202,10 @@
         <v>876</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>101</v>
+        <v>877</v>
       </c>
       <c r="O302" t="s" s="2">
-        <v>261</v>
+        <v>878</v>
       </c>
       <c r="P302" t="s" s="2">
         <v>70</v>
@@ -34243,13 +34230,11 @@
         <v>70</v>
       </c>
       <c r="X302" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y302" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y302" s="2"/>
       <c r="Z302" t="s" s="2">
-        <v>70</v>
+        <v>879</v>
       </c>
       <c r="AA302" t="s" s="2">
         <v>70</v>
@@ -34267,27 +34252,27 @@
         <v>70</v>
       </c>
       <c r="AF302" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AG302" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH302" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI302" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34310,19 +34295,19 @@
         <v>70</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>281</v>
+        <v>881</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="P303" t="s" s="2">
         <v>70</v>
@@ -34347,11 +34332,13 @@
         <v>70</v>
       </c>
       <c r="X303" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y303" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y303" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z303" t="s" s="2">
-        <v>883</v>
+        <v>70</v>
       </c>
       <c r="AA303" t="s" s="2">
         <v>70</v>
@@ -34369,7 +34356,7 @@
         <v>70</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>71</v>
@@ -34386,10 +34373,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34400,7 +34387,7 @@
         <v>71</v>
       </c>
       <c r="G304" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H304" t="s" s="2">
         <v>70</v>
@@ -34412,19 +34399,17 @@
         <v>70</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>885</v>
+        <v>648</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>886</v>
+        <v>649</v>
       </c>
       <c r="M304" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N304" s="2"/>
+      <c r="O304" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="O304" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="P304" t="s" s="2">
         <v>70</v>
@@ -34473,27 +34458,27 @@
         <v>70</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH304" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI304" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ304" t="s" s="2">
-        <v>90</v>
+        <v>888</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34504,7 +34489,7 @@
         <v>71</v>
       </c>
       <c r="G305" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H305" t="s" s="2">
         <v>70</v>
@@ -34516,18 +34501,16 @@
         <v>70</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>648</v>
+        <v>92</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>649</v>
+        <v>93</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>650</v>
+        <v>94</v>
       </c>
       <c r="N305" s="2"/>
-      <c r="O305" t="s" s="2">
-        <v>891</v>
-      </c>
+      <c r="O305" s="2"/>
       <c r="P305" t="s" s="2">
         <v>70</v>
       </c>
@@ -34575,27 +34558,27 @@
         <v>70</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>890</v>
+        <v>95</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH305" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ305" t="s" s="2">
-        <v>892</v>
+        <v>70</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -34603,10 +34586,10 @@
       </c>
       <c r="E306" s="2"/>
       <c r="F306" t="s" s="2">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="G306" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H306" t="s" s="2">
         <v>70</v>
@@ -34618,13 +34601,13 @@
         <v>70</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
@@ -34663,50 +34646,52 @@
         <v>70</v>
       </c>
       <c r="AB306" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC306" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD306" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="C307" s="2"/>
+        <v>890</v>
+      </c>
+      <c r="C307" t="s" s="2">
+        <v>892</v>
+      </c>
       <c r="D307" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E307" s="2"/>
       <c r="F307" t="s" s="2">
-        <v>421</v>
+        <v>71</v>
       </c>
       <c r="G307" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H307" t="s" s="2">
         <v>70</v>
@@ -34718,15 +34703,17 @@
         <v>70</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>98</v>
+        <v>893</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>181</v>
+        <v>894</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N307" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N307" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O307" s="2"/>
       <c r="P307" t="s" s="2">
         <v>70</v>
@@ -34763,16 +34750,16 @@
         <v>70</v>
       </c>
       <c r="AB307" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD307" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>105</v>
@@ -34795,17 +34782,17 @@
         <v>895</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C308" t="s" s="2">
         <v>896</v>
       </c>
       <c r="D308" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E308" s="2"/>
       <c r="F308" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G308" t="s" s="2">
         <v>77</v>
@@ -34826,11 +34813,9 @@
         <v>898</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="N308" s="2"/>
       <c r="O308" s="2"/>
       <c r="P308" t="s" s="2">
         <v>70</v>
@@ -34896,20 +34881,20 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D309" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G309" t="s" s="2">
         <v>77</v>
@@ -34924,13 +34909,13 @@
         <v>70</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
@@ -34998,20 +34983,20 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D310" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G310" t="s" s="2">
         <v>77</v>
@@ -35026,13 +35011,13 @@
         <v>70</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
@@ -35100,14 +35085,12 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="C311" t="s" s="2">
         <v>910</v>
       </c>
+      <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
         <v>70</v>
       </c>
@@ -35125,18 +35108,20 @@
         <v>70</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="L311" t="s" s="2">
+      <c r="M311" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="M311" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="N311" s="2"/>
+      <c r="N311" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
         <v>70</v>
@@ -35161,13 +35146,13 @@
         <v>70</v>
       </c>
       <c r="X311" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>70</v>
+        <v>913</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>70</v>
+        <v>914</v>
       </c>
       <c r="AA311" t="s" s="2">
         <v>70</v>
@@ -35185,27 +35170,27 @@
         <v>70</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>105</v>
+        <v>915</v>
       </c>
       <c r="AG311" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH311" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>89</v>
+        <v>916</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -35228,18 +35213,20 @@
         <v>78</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O312" s="2"/>
+        <v>920</v>
+      </c>
+      <c r="O312" t="s" s="2">
+        <v>921</v>
+      </c>
       <c r="P312" t="s" s="2">
         <v>70</v>
       </c>
@@ -35263,13 +35250,13 @@
         <v>70</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>917</v>
+        <v>70</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>918</v>
+        <v>70</v>
       </c>
       <c r="AA312" t="s" s="2">
         <v>70</v>
@@ -35287,7 +35274,7 @@
         <v>70</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>71</v>
@@ -35296,7 +35283,7 @@
         <v>77</v>
       </c>
       <c r="AI312" t="s" s="2">
-        <v>920</v>
+        <v>89</v>
       </c>
       <c r="AJ312" t="s" s="2">
         <v>90</v>
@@ -35304,10 +35291,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -35315,7 +35302,7 @@
       </c>
       <c r="E313" s="2"/>
       <c r="F313" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G313" t="s" s="2">
         <v>77</v>
@@ -35324,25 +35311,25 @@
         <v>70</v>
       </c>
       <c r="I313" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J313" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="P313" t="s" s="2">
         <v>70</v>
@@ -35367,13 +35354,13 @@
         <v>70</v>
       </c>
       <c r="X313" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y313" t="s" s="2">
-        <v>70</v>
+        <v>928</v>
       </c>
       <c r="Z313" t="s" s="2">
-        <v>70</v>
+        <v>929</v>
       </c>
       <c r="AA313" t="s" s="2">
         <v>70</v>
@@ -35391,7 +35378,7 @@
         <v>70</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>71</v>
@@ -35408,10 +35395,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -35428,26 +35415,24 @@
         <v>70</v>
       </c>
       <c r="I314" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J314" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>158</v>
+        <v>932</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>931</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="O314" s="2"/>
       <c r="P314" t="s" s="2">
         <v>70</v>
       </c>
@@ -35471,13 +35456,13 @@
         <v>70</v>
       </c>
       <c r="X314" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>932</v>
+        <v>70</v>
       </c>
       <c r="Z314" t="s" s="2">
-        <v>933</v>
+        <v>70</v>
       </c>
       <c r="AA314" t="s" s="2">
         <v>70</v>
@@ -35495,7 +35480,7 @@
         <v>70</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>71</v>
@@ -35512,10 +35497,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -35538,16 +35523,16 @@
         <v>78</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>936</v>
+        <v>303</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>939</v>
+        <v>812</v>
       </c>
       <c r="O315" s="2"/>
       <c r="P315" t="s" s="2">
@@ -35609,7 +35594,7 @@
         <v>89</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
     </row>
     <row r="316">
@@ -35637,21 +35622,23 @@
         <v>70</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>303</v>
+        <v>656</v>
       </c>
       <c r="L316" t="s" s="2">
         <v>942</v>
       </c>
       <c r="M316" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O316" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="N316" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="O316" s="2"/>
       <c r="P316" t="s" s="2">
         <v>70</v>
       </c>
@@ -35699,7 +35686,7 @@
         <v>70</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="AG316" t="s" s="2">
         <v>71</v>
@@ -35711,15 +35698,15 @@
         <v>89</v>
       </c>
       <c r="AJ316" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -35730,7 +35717,7 @@
         <v>71</v>
       </c>
       <c r="G317" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H317" t="s" s="2">
         <v>70</v>
@@ -35742,19 +35729,19 @@
         <v>70</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>656</v>
+        <v>945</v>
       </c>
       <c r="L317" t="s" s="2">
         <v>946</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>658</v>
+        <v>947</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>659</v>
+        <v>820</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="P317" t="s" s="2">
         <v>70</v>
@@ -35803,122 +35790,18 @@
         <v>70</v>
       </c>
       <c r="AF317" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AG317" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH317" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI317" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ317" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="B318" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="C318" s="2"/>
-      <c r="D318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E318" s="2"/>
-      <c r="F318" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G318" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K318" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="L318" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="M318" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="O318" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="P318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q318" s="2"/>
-      <c r="R318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF318" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="AG318" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH318" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI318" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ318" t="s" s="2">
         <v>315</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10035" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10326" uniqueCount="960">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1646,6 +1646,36 @@
   </si>
   <si>
     <t>Organization.identifier:numADELI.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG</t>
+  </si>
+  <si>
+    <t>identifierEG</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifierEG.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -3256,7 +3286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ310"/>
+  <dimension ref="A1:AJ319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -22387,9 +22417,11 @@
         <v>528</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C187" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D187" t="s" s="2">
         <v>70</v>
       </c>
@@ -22404,32 +22436,28 @@
         <v>70</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>529</v>
+        <v>275</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>532</v>
+        <v>277</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="Q187" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="Q187" s="2"/>
       <c r="R187" t="s" s="2">
         <v>70</v>
       </c>
@@ -22473,16 +22501,16 @@
         <v>70</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>528</v>
+        <v>273</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>90</v>
@@ -22490,10 +22518,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>534</v>
+        <v>280</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -22501,10 +22529,10 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>476</v>
+        <v>71</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>70</v>
@@ -22513,23 +22541,19 @@
         <v>70</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>535</v>
+        <v>93</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>70</v>
       </c>
@@ -22553,62 +22577,62 @@
         <v>70</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>539</v>
+        <v>70</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>540</v>
+        <v>70</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AC188" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>534</v>
+        <v>95</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>70</v>
@@ -22617,23 +22641,21 @@
         <v>70</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>535</v>
+        <v>99</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>536</v>
+        <v>100</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>70</v>
       </c>
@@ -22657,31 +22679,31 @@
         <v>70</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>539</v>
+        <v>70</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>544</v>
+        <v>70</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB189" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC189" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD189" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>534</v>
+        <v>105</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>71</v>
@@ -22693,15 +22715,15 @@
         <v>89</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>546</v>
+        <v>282</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22718,22 +22740,26 @@
         <v>70</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P190" t="s" s="2">
         <v>70</v>
       </c>
@@ -22757,13 +22783,13 @@
         <v>70</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="AA190" t="s" s="2">
         <v>70</v>
@@ -22781,7 +22807,7 @@
         <v>70</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>71</v>
@@ -22790,29 +22816,29 @@
         <v>77</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>548</v>
+        <v>290</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>70</v>
@@ -22821,21 +22847,23 @@
         <v>70</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O191" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O191" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P191" t="s" s="2">
         <v>70</v>
       </c>
@@ -22859,51 +22887,51 @@
         <v>70</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB191" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC191" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD191" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI191" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>550</v>
+        <v>299</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22926,19 +22954,19 @@
         <v>78</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>70</v>
@@ -22951,7 +22979,7 @@
         <v>70</v>
       </c>
       <c r="T192" t="s" s="2">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="U192" t="s" s="2">
         <v>70</v>
@@ -22987,13 +23015,13 @@
         <v>70</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI192" t="s" s="2">
         <v>89</v>
@@ -23004,10 +23032,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>552</v>
+        <v>306</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23015,7 +23043,7 @@
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>77</v>
@@ -23027,18 +23055,20 @@
         <v>70</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N193" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>70</v>
@@ -23051,7 +23081,7 @@
         <v>70</v>
       </c>
       <c r="T193" t="s" s="2">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="U193" t="s" s="2">
         <v>70</v>
@@ -23087,7 +23117,7 @@
         <v>70</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>71</v>
@@ -23096,29 +23126,29 @@
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>554</v>
+        <v>312</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>70</v>
@@ -23127,19 +23157,19 @@
         <v>70</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -23177,39 +23207,39 @@
         <v>70</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC194" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD194" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI194" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>106</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>556</v>
+        <v>319</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23217,7 +23247,7 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>77</v>
@@ -23232,32 +23262,30 @@
         <v>78</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>557</v>
+        <v>70</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T195" t="s" s="2">
-        <v>557</v>
+        <v>70</v>
       </c>
       <c r="U195" t="s" s="2">
         <v>70</v>
@@ -23293,7 +23321,7 @@
         <v>70</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>71</v>
@@ -23305,15 +23333,15 @@
         <v>89</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>90</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23330,28 +23358,32 @@
         <v>70</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>357</v>
+        <v>539</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>358</v>
+        <v>540</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O196" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P196" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="Q196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="R196" t="s" s="2">
         <v>70</v>
       </c>
@@ -23395,7 +23427,7 @@
         <v>70</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>360</v>
+        <v>538</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>71</v>
@@ -23412,10 +23444,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23423,10 +23455,10 @@
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
-        <v>71</v>
+        <v>476</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>70</v>
@@ -23438,19 +23470,19 @@
         <v>78</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>363</v>
+        <v>545</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>366</v>
+        <v>548</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>70</v>
@@ -23475,37 +23507,35 @@
         <v>70</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="AC197" s="2"/>
       <c r="AD197" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>368</v>
+        <v>544</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>89</v>
@@ -23516,12 +23546,14 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C198" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="D198" t="s" s="2">
         <v>70</v>
       </c>
@@ -23542,19 +23574,19 @@
         <v>78</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>371</v>
+        <v>545</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>373</v>
+        <v>548</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>70</v>
@@ -23579,13 +23611,13 @@
         <v>70</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>70</v>
+        <v>554</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>70</v>
@@ -23603,13 +23635,13 @@
         <v>70</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>374</v>
+        <v>544</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>89</v>
@@ -23620,10 +23652,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23643,23 +23675,19 @@
         <v>70</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
         <v>70</v>
       </c>
@@ -23707,7 +23735,7 @@
         <v>70</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>71</v>
@@ -23716,29 +23744,29 @@
         <v>77</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>70</v>
@@ -23747,23 +23775,21 @@
         <v>70</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>70</v>
       </c>
@@ -23799,49 +23825,47 @@
         <v>70</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC200" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD200" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C201" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>77</v>
@@ -23856,19 +23880,19 @@
         <v>78</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>535</v>
+        <v>339</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>536</v>
+        <v>340</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>538</v>
+        <v>342</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>70</v>
@@ -23893,13 +23917,13 @@
         <v>70</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>570</v>
+        <v>70</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>571</v>
+        <v>70</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>70</v>
@@ -23917,7 +23941,7 @@
         <v>70</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>534</v>
+        <v>343</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>71</v>
@@ -23934,10 +23958,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24034,10 +24058,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -24136,10 +24160,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24162,32 +24186,32 @@
         <v>78</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>70</v>
+        <v>567</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T204" t="s" s="2">
-        <v>70</v>
+        <v>567</v>
       </c>
       <c r="U204" t="s" s="2">
         <v>70</v>
@@ -24223,13 +24247,13 @@
         <v>70</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>89</v>
@@ -24240,10 +24264,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24263,18 +24287,20 @@
         <v>70</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N205" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>70</v>
@@ -24323,7 +24349,7 @@
         <v>70</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>71</v>
@@ -24332,29 +24358,29 @@
         <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>70</v>
@@ -24363,21 +24389,23 @@
         <v>70</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O206" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P206" t="s" s="2">
         <v>70</v>
       </c>
@@ -24413,39 +24441,39 @@
         <v>70</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD206" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>105</v>
+        <v>368</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24453,7 +24481,7 @@
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>77</v>
@@ -24468,32 +24496,32 @@
         <v>78</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>578</v>
+        <v>371</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>578</v>
+        <v>372</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>579</v>
+        <v>70</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T207" t="s" s="2">
-        <v>579</v>
+        <v>70</v>
       </c>
       <c r="U207" t="s" s="2">
         <v>70</v>
@@ -24529,7 +24557,7 @@
         <v>70</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>71</v>
@@ -24546,10 +24574,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24572,18 +24600,20 @@
         <v>78</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O208" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P208" t="s" s="2">
         <v>70</v>
       </c>
@@ -24631,7 +24661,7 @@
         <v>70</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>71</v>
@@ -24648,10 +24678,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24674,19 +24704,19 @@
         <v>78</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>70</v>
@@ -24735,7 +24765,7 @@
         <v>70</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>71</v>
@@ -24752,12 +24782,14 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C210" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="D210" t="s" s="2">
         <v>70</v>
       </c>
@@ -24778,19 +24810,19 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>371</v>
+        <v>545</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>373</v>
+        <v>548</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>70</v>
@@ -24815,13 +24847,13 @@
         <v>70</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>70</v>
+        <v>581</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>70</v>
@@ -24839,13 +24871,13 @@
         <v>70</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>374</v>
+        <v>544</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>89</v>
@@ -24856,10 +24888,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24879,23 +24911,19 @@
         <v>70</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>70</v>
       </c>
@@ -24943,7 +24971,7 @@
         <v>70</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>71</v>
@@ -24952,29 +24980,29 @@
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>70</v>
@@ -24983,23 +25011,21 @@
         <v>70</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>70</v>
       </c>
@@ -25035,49 +25061,47 @@
         <v>70</v>
       </c>
       <c r="AB212" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD212" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C213" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>77</v>
@@ -25092,19 +25116,19 @@
         <v>78</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>535</v>
+        <v>339</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>536</v>
+        <v>340</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>538</v>
+        <v>342</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>70</v>
@@ -25129,13 +25153,13 @@
         <v>70</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>587</v>
+        <v>70</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>588</v>
+        <v>70</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>70</v>
@@ -25153,7 +25177,7 @@
         <v>70</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>534</v>
+        <v>343</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>71</v>
@@ -25170,10 +25194,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25270,10 +25294,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25372,10 +25396,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25398,32 +25422,32 @@
         <v>78</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>339</v>
+        <v>588</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>340</v>
+        <v>588</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>70</v>
+        <v>589</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>70</v>
+        <v>589</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>70</v>
@@ -25459,13 +25483,13 @@
         <v>70</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>89</v>
@@ -25476,10 +25500,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25499,18 +25523,20 @@
         <v>70</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K217" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N217" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
         <v>70</v>
@@ -25559,7 +25585,7 @@
         <v>70</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>71</v>
@@ -25568,29 +25594,29 @@
         <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>70</v>
@@ -25599,21 +25625,23 @@
         <v>70</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P218" t="s" s="2">
         <v>70</v>
       </c>
@@ -25649,39 +25677,39 @@
         <v>70</v>
       </c>
       <c r="AB218" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC218" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD218" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>105</v>
+        <v>368</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25689,7 +25717,7 @@
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G219" t="s" s="2">
         <v>77</v>
@@ -25704,26 +25732,26 @@
         <v>78</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>595</v>
+        <v>371</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>595</v>
+        <v>372</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>596</v>
+        <v>70</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>70</v>
@@ -25765,7 +25793,7 @@
         <v>70</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>71</v>
@@ -25782,10 +25810,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25808,18 +25836,20 @@
         <v>78</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>70</v>
       </c>
@@ -25867,7 +25897,7 @@
         <v>70</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>71</v>
@@ -25884,10 +25914,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25910,19 +25940,19 @@
         <v>78</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>70</v>
@@ -25971,7 +26001,7 @@
         <v>70</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>71</v>
@@ -25988,12 +26018,14 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C222" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="D222" t="s" s="2">
         <v>70</v>
       </c>
@@ -26014,19 +26046,19 @@
         <v>78</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>371</v>
+        <v>545</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>372</v>
+        <v>546</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>373</v>
+        <v>548</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>70</v>
@@ -26051,13 +26083,13 @@
         <v>70</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>70</v>
+        <v>597</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>70</v>
+        <v>598</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>70</v>
@@ -26075,13 +26107,13 @@
         <v>70</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>374</v>
+        <v>544</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>89</v>
@@ -26092,10 +26124,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26115,23 +26147,19 @@
         <v>70</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
         <v>70</v>
       </c>
@@ -26179,7 +26207,7 @@
         <v>70</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>71</v>
@@ -26188,29 +26216,29 @@
         <v>77</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>70</v>
@@ -26219,23 +26247,21 @@
         <v>70</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
         <v>70</v>
       </c>
@@ -26271,43 +26297,41 @@
         <v>70</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI224" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C225" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
         <v>70</v>
       </c>
@@ -26328,19 +26352,19 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>604</v>
+        <v>339</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>536</v>
+        <v>340</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>538</v>
+        <v>342</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>70</v>
@@ -26365,11 +26389,13 @@
         <v>70</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y225" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z225" t="s" s="2">
-        <v>605</v>
+        <v>70</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>70</v>
@@ -26387,7 +26413,7 @@
         <v>70</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>534</v>
+        <v>343</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>71</v>
@@ -26404,14 +26430,12 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C226" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
         <v>70</v>
       </c>
@@ -26429,23 +26453,19 @@
         <v>70</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>608</v>
+        <v>93</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>70</v>
       </c>
@@ -26469,11 +26489,13 @@
         <v>70</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y226" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z226" t="s" s="2">
-        <v>609</v>
+        <v>70</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>70</v>
@@ -26491,40 +26513,38 @@
         <v>70</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>534</v>
+        <v>95</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C227" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>70</v>
@@ -26533,23 +26553,21 @@
         <v>70</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>612</v>
+        <v>99</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>536</v>
+        <v>100</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
         <v>70</v>
       </c>
@@ -26573,29 +26591,31 @@
         <v>70</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y227" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z227" t="s" s="2">
-        <v>613</v>
+        <v>70</v>
       </c>
       <c r="AA227" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB227" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD227" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>534</v>
+        <v>105</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>71</v>
@@ -26607,25 +26627,23 @@
         <v>89</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C228" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>77</v>
@@ -26640,26 +26658,26 @@
         <v>78</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>537</v>
+        <v>352</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>538</v>
+        <v>353</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>70</v>
+        <v>606</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>70</v>
@@ -26677,11 +26695,13 @@
         <v>70</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y228" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z228" t="s" s="2">
-        <v>617</v>
+        <v>70</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>70</v>
@@ -26699,13 +26719,13 @@
         <v>70</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>534</v>
+        <v>354</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>89</v>
@@ -26716,20 +26736,18 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C229" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>77</v>
@@ -26744,20 +26762,18 @@
         <v>78</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>620</v>
+        <v>357</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>536</v>
+        <v>358</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
         <v>70</v>
       </c>
@@ -26781,11 +26797,13 @@
         <v>70</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y229" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z229" t="s" s="2">
-        <v>621</v>
+        <v>70</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>70</v>
@@ -26803,13 +26821,13 @@
         <v>70</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
         <v>89</v>
@@ -26820,14 +26838,12 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C230" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
         <v>70</v>
       </c>
@@ -26848,19 +26864,19 @@
         <v>78</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>535</v>
+        <v>363</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>536</v>
+        <v>364</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>537</v>
+        <v>365</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>538</v>
+        <v>366</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>70</v>
@@ -26885,13 +26901,13 @@
         <v>70</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>539</v>
+        <v>70</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>540</v>
+        <v>70</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>70</v>
@@ -26909,13 +26925,13 @@
         <v>70</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>534</v>
+        <v>368</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
         <v>89</v>
@@ -26926,10 +26942,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26937,7 +26953,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>77</v>
@@ -26955,16 +26971,16 @@
         <v>92</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>626</v>
+        <v>372</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>627</v>
+        <v>365</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>628</v>
+        <v>373</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>70</v>
@@ -27013,7 +27029,7 @@
         <v>70</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>71</v>
@@ -27022,7 +27038,7 @@
         <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>90</v>
@@ -27030,10 +27046,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27053,22 +27069,22 @@
         <v>70</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>630</v>
+        <v>378</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>631</v>
+        <v>379</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>632</v>
+        <v>380</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>633</v>
+        <v>381</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>70</v>
@@ -27117,13 +27133,13 @@
         <v>70</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>629</v>
+        <v>382</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>89</v>
@@ -27134,10 +27150,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>634</v>
+        <v>577</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27148,7 +27164,7 @@
         <v>71</v>
       </c>
       <c r="G233" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>70</v>
@@ -27157,22 +27173,22 @@
         <v>70</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>635</v>
+        <v>92</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>636</v>
+        <v>385</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>637</v>
+        <v>386</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>638</v>
+        <v>387</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>639</v>
+        <v>388</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>70</v>
@@ -27221,35 +27237,37 @@
         <v>70</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>634</v>
+        <v>389</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>640</v>
+        <v>89</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>641</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="D234" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>77</v>
@@ -27261,19 +27279,23 @@
         <v>70</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>93</v>
+        <v>614</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O234" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P234" t="s" s="2">
         <v>70</v>
       </c>
@@ -27297,13 +27319,11 @@
         <v>70</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y234" s="2"/>
       <c r="Z234" t="s" s="2">
-        <v>70</v>
+        <v>615</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>70</v>
@@ -27321,38 +27341,40 @@
         <v>70</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>95</v>
+        <v>544</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="C235" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="D235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>70</v>
@@ -27361,19 +27383,23 @@
         <v>70</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>182</v>
+        <v>618</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P235" t="s" s="2">
         <v>70</v>
       </c>
@@ -27397,31 +27423,29 @@
         <v>70</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y235" s="2"/>
       <c r="Z235" t="s" s="2">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB235" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>71</v>
@@ -27433,25 +27457,25 @@
         <v>89</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>643</v>
+        <v>544</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="D236" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>77</v>
@@ -27463,21 +27487,23 @@
         <v>70</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>646</v>
+        <v>291</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>189</v>
+        <v>546</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O236" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P236" t="s" s="2">
         <v>70</v>
       </c>
@@ -27501,13 +27527,11 @@
         <v>70</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y236" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y236" s="2"/>
       <c r="Z236" t="s" s="2">
-        <v>70</v>
+        <v>623</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>70</v>
@@ -27525,7 +27549,7 @@
         <v>70</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>71</v>
@@ -27537,25 +27561,25 @@
         <v>89</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>643</v>
+        <v>544</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>77</v>
@@ -27567,19 +27591,23 @@
         <v>70</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>650</v>
+        <v>291</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P237" t="s" s="2">
         <v>70</v>
       </c>
@@ -27603,13 +27631,11 @@
         <v>70</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y237" s="2"/>
       <c r="Z237" t="s" s="2">
-        <v>70</v>
+        <v>627</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>70</v>
@@ -27627,7 +27653,7 @@
         <v>70</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>71</v>
@@ -27639,25 +27665,25 @@
         <v>89</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>643</v>
+        <v>544</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G238" t="s" s="2">
         <v>77</v>
@@ -27669,19 +27695,23 @@
         <v>70</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>655</v>
+        <v>291</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P238" t="s" s="2">
         <v>70</v>
       </c>
@@ -27705,13 +27735,11 @@
         <v>70</v>
       </c>
       <c r="X238" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y238" s="2"/>
       <c r="Z238" t="s" s="2">
-        <v>70</v>
+        <v>631</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>70</v>
@@ -27729,7 +27757,7 @@
         <v>70</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>71</v>
@@ -27741,25 +27769,25 @@
         <v>89</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>643</v>
+        <v>544</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="D239" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>77</v>
@@ -27771,19 +27799,23 @@
         <v>70</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>660</v>
+        <v>291</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>661</v>
+        <v>545</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P239" t="s" s="2">
         <v>70</v>
       </c>
@@ -27807,13 +27839,13 @@
         <v>70</v>
       </c>
       <c r="X239" t="s" s="2">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>70</v>
@@ -27831,7 +27863,7 @@
         <v>70</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>71</v>
@@ -27843,15 +27875,15 @@
         <v>89</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27874,18 +27906,20 @@
         <v>78</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O240" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="P240" t="s" s="2">
         <v>70</v>
       </c>
@@ -27909,13 +27943,13 @@
         <v>70</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>666</v>
+        <v>70</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>667</v>
+        <v>70</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>70</v>
@@ -27933,7 +27967,7 @@
         <v>70</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>71</v>
@@ -27942,7 +27976,7 @@
         <v>77</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>669</v>
+        <v>279</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>90</v>
@@ -27950,10 +27984,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27961,7 +27995,7 @@
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>77</v>
@@ -27973,22 +28007,22 @@
         <v>70</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>70</v>
@@ -28037,13 +28071,13 @@
         <v>70</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>89</v>
@@ -28054,10 +28088,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28068,31 +28102,31 @@
         <v>71</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I242" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>158</v>
+        <v>645</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="P242" t="s" s="2">
         <v>70</v>
@@ -28117,13 +28151,13 @@
         <v>70</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>681</v>
+        <v>70</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>682</v>
+        <v>70</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>70</v>
@@ -28141,27 +28175,27 @@
         <v>70</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>683</v>
+        <v>644</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>89</v>
+        <v>650</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28181,20 +28215,18 @@
         <v>70</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>685</v>
+        <v>92</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>686</v>
+        <v>93</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>688</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N243" s="2"/>
       <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
         <v>70</v>
@@ -28243,7 +28275,7 @@
         <v>70</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>689</v>
+        <v>95</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>71</v>
@@ -28252,18 +28284,18 @@
         <v>77</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ243" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>690</v>
+        <v>653</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>690</v>
+        <v>653</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28271,10 +28303,10 @@
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>70</v>
@@ -28283,20 +28315,18 @@
         <v>70</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>691</v>
+        <v>182</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>693</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
         <v>70</v>
@@ -28333,50 +28363,52 @@
         <v>70</v>
       </c>
       <c r="AB244" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC244" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD244" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>694</v>
+        <v>105</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>318</v>
+        <v>106</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>695</v>
+        <v>654</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C245" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="D245" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>70</v>
@@ -28388,20 +28420,18 @@
         <v>70</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>698</v>
+        <v>189</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="O245" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
         <v>70</v>
       </c>
@@ -28449,7 +28479,7 @@
         <v>70</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>695</v>
+        <v>105</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>71</v>
@@ -28458,26 +28488,28 @@
         <v>72</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>701</v>
+        <v>89</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>702</v>
+        <v>106</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C246" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="D246" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>77</v>
@@ -28492,13 +28524,13 @@
         <v>70</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>92</v>
+        <v>660</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>93</v>
+        <v>661</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>94</v>
+        <v>662</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -28549,38 +28581,40 @@
         <v>70</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="C247" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="D247" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>70</v>
@@ -28592,17 +28626,15 @@
         <v>70</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>98</v>
+        <v>665</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>99</v>
+        <v>666</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="N247" s="2"/>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
         <v>70</v>
@@ -28639,16 +28671,16 @@
         <v>70</v>
       </c>
       <c r="AB247" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC247" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD247" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>105</v>
@@ -28668,20 +28700,20 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>705</v>
+        <v>668</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>77</v>
@@ -28696,13 +28728,13 @@
         <v>70</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>188</v>
+        <v>671</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>189</v>
+        <v>672</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -28770,10 +28802,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>708</v>
+        <v>673</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28781,7 +28813,7 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>77</v>
@@ -28793,18 +28825,20 @@
         <v>70</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>93</v>
+        <v>674</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N249" s="2"/>
+        <v>675</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O249" s="2"/>
       <c r="P249" t="s" s="2">
         <v>70</v>
@@ -28829,13 +28863,13 @@
         <v>70</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>70</v>
+        <v>676</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>70</v>
+        <v>677</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>70</v>
@@ -28853,7 +28887,7 @@
         <v>70</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>95</v>
+        <v>678</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>71</v>
@@ -28862,18 +28896,18 @@
         <v>77</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>70</v>
+        <v>679</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28881,10 +28915,10 @@
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G250" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H250" t="s" s="2">
         <v>70</v>
@@ -28893,19 +28927,23 @@
         <v>70</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>182</v>
+        <v>681</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
+        <v>682</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="O250" t="s" s="2">
+        <v>684</v>
+      </c>
       <c r="P250" t="s" s="2">
         <v>70</v>
       </c>
@@ -28941,39 +28979,39 @@
         <v>70</v>
       </c>
       <c r="AB250" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC250" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD250" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>105</v>
+        <v>685</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -28981,7 +29019,7 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>77</v>
@@ -28990,30 +29028,32 @@
         <v>70</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="O251" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="O251" t="s" s="2">
+        <v>690</v>
+      </c>
       <c r="P251" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>717</v>
+        <v>70</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>70</v>
@@ -29031,13 +29071,13 @@
         <v>70</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>70</v>
+        <v>691</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>70</v>
+        <v>692</v>
       </c>
       <c r="AA251" t="s" s="2">
         <v>70</v>
@@ -29055,27 +29095,27 @@
         <v>70</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29095,18 +29135,20 @@
         <v>70</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>131</v>
+        <v>695</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="N252" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="N252" t="s" s="2">
+        <v>698</v>
+      </c>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
         <v>70</v>
@@ -29131,27 +29173,31 @@
         <v>70</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y252" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y252" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z252" t="s" s="2">
-        <v>723</v>
+        <v>70</v>
       </c>
       <c r="AA252" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB252" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="AC252" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD252" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>725</v>
+        <v>70</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>71</v>
@@ -29168,14 +29214,12 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="C253" t="s" s="2">
-        <v>728</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
         <v>70</v>
       </c>
@@ -29193,18 +29237,20 @@
         <v>70</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="N253" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="N253" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="O253" s="2"/>
       <c r="P253" t="s" s="2">
         <v>70</v>
@@ -29229,11 +29275,13 @@
         <v>70</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y253" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y253" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z253" t="s" s="2">
-        <v>729</v>
+        <v>70</v>
       </c>
       <c r="AA253" t="s" s="2">
         <v>70</v>
@@ -29251,7 +29299,7 @@
         <v>70</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>71</v>
@@ -29263,19 +29311,17 @@
         <v>89</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>90</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="C254" t="s" s="2">
-        <v>731</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
         <v>70</v>
       </c>
@@ -29284,7 +29330,7 @@
         <v>71</v>
       </c>
       <c r="G254" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H254" t="s" s="2">
         <v>70</v>
@@ -29296,16 +29342,20 @@
         <v>70</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="N254" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="O254" t="s" s="2">
+        <v>710</v>
+      </c>
       <c r="P254" t="s" s="2">
         <v>70</v>
       </c>
@@ -29353,7 +29403,7 @@
         <v>70</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>105</v>
+        <v>705</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>71</v>
@@ -29362,18 +29412,18 @@
         <v>72</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>89</v>
+        <v>711</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>106</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29390,26 +29440,22 @@
         <v>70</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>736</v>
+        <v>93</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="O255" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
         <v>70</v>
       </c>
@@ -29421,7 +29467,7 @@
         <v>70</v>
       </c>
       <c r="T255" t="s" s="2">
-        <v>740</v>
+        <v>70</v>
       </c>
       <c r="U255" t="s" s="2">
         <v>70</v>
@@ -29433,13 +29479,13 @@
         <v>70</v>
       </c>
       <c r="X255" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>741</v>
+        <v>70</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>742</v>
+        <v>70</v>
       </c>
       <c r="AA255" t="s" s="2">
         <v>70</v>
@@ -29457,7 +29503,7 @@
         <v>70</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>743</v>
+        <v>95</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>71</v>
@@ -29466,29 +29512,29 @@
         <v>77</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>70</v>
@@ -29497,19 +29543,19 @@
         <v>70</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>745</v>
+        <v>99</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>746</v>
+        <v>100</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>747</v>
+        <v>101</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" t="s" s="2">
@@ -29523,7 +29569,7 @@
         <v>70</v>
       </c>
       <c r="T256" t="s" s="2">
-        <v>748</v>
+        <v>70</v>
       </c>
       <c r="U256" t="s" s="2">
         <v>70</v>
@@ -29535,53 +29581,55 @@
         <v>70</v>
       </c>
       <c r="X256" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>749</v>
+        <v>70</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>750</v>
+        <v>70</v>
       </c>
       <c r="AA256" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC256" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD256" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>751</v>
+        <v>105</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH256" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI256" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="C257" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="C257" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="D257" t="s" s="2">
         <v>70</v>
       </c>
@@ -29599,23 +29647,19 @@
         <v>70</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>92</v>
+        <v>717</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>753</v>
+        <v>188</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="O257" t="s" s="2">
-        <v>756</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
         <v>70</v>
       </c>
@@ -29627,7 +29671,7 @@
         <v>70</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>757</v>
+        <v>70</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>70</v>
@@ -29663,27 +29707,27 @@
         <v>70</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>758</v>
+        <v>105</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH257" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI257" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29694,7 +29738,7 @@
         <v>71</v>
       </c>
       <c r="G258" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H258" t="s" s="2">
         <v>70</v>
@@ -29703,20 +29747,18 @@
         <v>70</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K258" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>760</v>
+        <v>93</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N258" s="2"/>
       <c r="O258" s="2"/>
       <c r="P258" t="s" s="2">
         <v>70</v>
@@ -29729,7 +29771,7 @@
         <v>70</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>762</v>
+        <v>70</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>70</v>
@@ -29765,27 +29807,27 @@
         <v>70</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>763</v>
+        <v>95</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH258" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>764</v>
+        <v>721</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29796,7 +29838,7 @@
         <v>71</v>
       </c>
       <c r="G259" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H259" t="s" s="2">
         <v>70</v>
@@ -29808,13 +29850,13 @@
         <v>70</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -29853,50 +29895,50 @@
         <v>70</v>
       </c>
       <c r="AB259" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC259" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD259" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH259" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H260" t="s" s="2">
         <v>70</v>
@@ -29908,16 +29950,16 @@
         <v>70</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>99</v>
+        <v>724</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>100</v>
+        <v>725</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>101</v>
+        <v>726</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
@@ -29925,7 +29967,7 @@
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="S260" t="s" s="2">
         <v>70</v>
@@ -29955,43 +29997,41 @@
         <v>70</v>
       </c>
       <c r="AB260" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC260" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD260" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>105</v>
+        <v>728</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>766</v>
+        <v>729</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="C261" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
         <v>70</v>
       </c>
@@ -30012,13 +30052,13 @@
         <v>70</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>768</v>
+        <v>131</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>769</v>
+        <v>731</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>770</v>
+        <v>732</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -30045,54 +30085,50 @@
         <v>70</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y261" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y261" s="2"/>
       <c r="Z261" t="s" s="2">
-        <v>70</v>
+        <v>733</v>
       </c>
       <c r="AA261" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB261" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC261" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="AC261" s="2"/>
       <c r="AD261" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>70</v>
+        <v>735</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>105</v>
+        <v>736</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="D262" t="s" s="2">
         <v>70</v>
@@ -30114,13 +30150,13 @@
         <v>70</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>773</v>
+        <v>131</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>774</v>
+        <v>731</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>775</v>
+        <v>732</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -30147,13 +30183,11 @@
         <v>70</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y262" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y262" s="2"/>
       <c r="Z262" t="s" s="2">
-        <v>70</v>
+        <v>739</v>
       </c>
       <c r="AA262" t="s" s="2">
         <v>70</v>
@@ -30171,30 +30205,30 @@
         <v>70</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>105</v>
+        <v>736</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI262" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="D263" t="s" s="2">
         <v>70</v>
@@ -30216,13 +30250,13 @@
         <v>70</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -30290,14 +30324,12 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="C264" t="s" s="2">
-        <v>782</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
         <v>70</v>
       </c>
@@ -30312,22 +30344,26 @@
         <v>70</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>783</v>
+        <v>158</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>784</v>
+        <v>746</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="N264" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="O264" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="P264" t="s" s="2">
         <v>70</v>
       </c>
@@ -30339,7 +30375,7 @@
         <v>70</v>
       </c>
       <c r="T264" t="s" s="2">
-        <v>70</v>
+        <v>750</v>
       </c>
       <c r="U264" t="s" s="2">
         <v>70</v>
@@ -30351,13 +30387,13 @@
         <v>70</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>70</v>
+        <v>751</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>70</v>
+        <v>752</v>
       </c>
       <c r="AA264" t="s" s="2">
         <v>70</v>
@@ -30375,31 +30411,29 @@
         <v>70</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>105</v>
+        <v>753</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH264" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ264" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="C265" t="s" s="2">
-        <v>787</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
         <v>70</v>
       </c>
@@ -30417,18 +30451,20 @@
         <v>70</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>788</v>
+        <v>158</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N265" s="2"/>
+        <v>756</v>
+      </c>
+      <c r="N265" t="s" s="2">
+        <v>757</v>
+      </c>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
         <v>70</v>
@@ -30441,7 +30477,7 @@
         <v>70</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>70</v>
+        <v>758</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>70</v>
@@ -30453,13 +30489,13 @@
         <v>70</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>70</v>
+        <v>759</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>70</v>
+        <v>760</v>
       </c>
       <c r="AA265" t="s" s="2">
         <v>70</v>
@@ -30477,27 +30513,27 @@
         <v>70</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>105</v>
+        <v>761</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH265" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI265" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>792</v>
+        <v>762</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30517,19 +30553,23 @@
         <v>70</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K266" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>93</v>
+        <v>763</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="N266" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O266" t="s" s="2">
+        <v>766</v>
+      </c>
       <c r="P266" t="s" s="2">
         <v>70</v>
       </c>
@@ -30541,7 +30581,7 @@
         <v>70</v>
       </c>
       <c r="T266" t="s" s="2">
-        <v>70</v>
+        <v>767</v>
       </c>
       <c r="U266" t="s" s="2">
         <v>70</v>
@@ -30577,7 +30617,7 @@
         <v>70</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>95</v>
+        <v>768</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>71</v>
@@ -30586,22 +30626,22 @@
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" t="s" s="2">
@@ -30617,19 +30657,19 @@
         <v>70</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>99</v>
+        <v>770</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>100</v>
+        <v>771</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
@@ -30643,7 +30683,7 @@
         <v>70</v>
       </c>
       <c r="T267" t="s" s="2">
-        <v>70</v>
+        <v>772</v>
       </c>
       <c r="U267" t="s" s="2">
         <v>70</v>
@@ -30667,19 +30707,19 @@
         <v>70</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC267" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD267" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>105</v>
+        <v>773</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>71</v>
@@ -30691,15 +30731,15 @@
         <v>89</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30707,7 +30747,7 @@
       </c>
       <c r="E268" s="2"/>
       <c r="F268" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G268" t="s" s="2">
         <v>77</v>
@@ -30722,24 +30762,22 @@
         <v>70</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>714</v>
+        <v>93</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q268" s="2"/>
       <c r="R268" t="s" s="2">
-        <v>797</v>
+        <v>70</v>
       </c>
       <c r="S268" t="s" s="2">
         <v>70</v>
@@ -30781,10 +30819,10 @@
         <v>70</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>718</v>
+        <v>95</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
@@ -30798,21 +30836,21 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>799</v>
+        <v>775</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G269" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H269" t="s" s="2">
         <v>70</v>
@@ -30824,15 +30862,17 @@
         <v>70</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>721</v>
+        <v>99</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="N269" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N269" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
         <v>70</v>
@@ -30869,47 +30909,49 @@
         <v>70</v>
       </c>
       <c r="AB269" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="AC269" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AC269" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AD269" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>725</v>
+        <v>104</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>726</v>
+        <v>105</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH269" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI269" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>799</v>
+        <v>775</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="D270" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G270" t="s" s="2">
         <v>77</v>
@@ -30924,13 +30966,13 @@
         <v>70</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>92</v>
+        <v>778</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>721</v>
+        <v>779</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>722</v>
+        <v>780</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -30957,11 +30999,13 @@
         <v>70</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y270" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y270" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z270" t="s" s="2">
-        <v>802</v>
+        <v>70</v>
       </c>
       <c r="AA270" t="s" s="2">
         <v>70</v>
@@ -30979,30 +31023,30 @@
         <v>70</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>726</v>
+        <v>105</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH270" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI270" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>70</v>
@@ -31024,13 +31068,13 @@
         <v>70</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -31098,13 +31142,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>70</v>
@@ -31126,13 +31170,13 @@
         <v>70</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -31200,13 +31244,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>70</v>
@@ -31228,13 +31272,13 @@
         <v>70</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -31302,12 +31346,14 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="C274" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="C274" t="s" s="2">
+        <v>797</v>
+      </c>
       <c r="D274" t="s" s="2">
         <v>70</v>
       </c>
@@ -31328,13 +31374,13 @@
         <v>70</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>92</v>
+        <v>798</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
@@ -31358,7 +31404,7 @@
         <v>70</v>
       </c>
       <c r="W274" t="s" s="2">
-        <v>818</v>
+        <v>70</v>
       </c>
       <c r="X274" t="s" s="2">
         <v>70</v>
@@ -31385,31 +31431,31 @@
         <v>70</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>819</v>
+        <v>105</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH274" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
-        <v>821</v>
+        <v>70</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" t="s" s="2">
@@ -31425,20 +31471,18 @@
         <v>70</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K275" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>822</v>
+        <v>93</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N275" s="2"/>
       <c r="O275" s="2"/>
       <c r="P275" t="s" s="2">
         <v>70</v>
@@ -31451,7 +31495,7 @@
         <v>70</v>
       </c>
       <c r="T275" t="s" s="2">
-        <v>824</v>
+        <v>70</v>
       </c>
       <c r="U275" t="s" s="2">
         <v>70</v>
@@ -31487,7 +31531,7 @@
         <v>70</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>825</v>
+        <v>95</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>71</v>
@@ -31496,29 +31540,29 @@
         <v>77</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ275" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
-        <v>827</v>
+        <v>97</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G276" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H276" t="s" s="2">
         <v>70</v>
@@ -31527,19 +31571,19 @@
         <v>70</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>828</v>
+        <v>99</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>829</v>
+        <v>100</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>830</v>
+        <v>101</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" t="s" s="2">
@@ -31553,7 +31597,7 @@
         <v>70</v>
       </c>
       <c r="T276" t="s" s="2">
-        <v>831</v>
+        <v>70</v>
       </c>
       <c r="U276" t="s" s="2">
         <v>70</v>
@@ -31577,47 +31621,47 @@
         <v>70</v>
       </c>
       <c r="AB276" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC276" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD276" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>832</v>
+        <v>105</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
-        <v>834</v>
+        <v>70</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G277" t="s" s="2">
         <v>77</v>
@@ -31629,19 +31673,19 @@
         <v>70</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>835</v>
+        <v>724</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>836</v>
+        <v>725</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>365</v>
+        <v>726</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" t="s" s="2">
@@ -31649,7 +31693,7 @@
       </c>
       <c r="Q277" s="2"/>
       <c r="R277" t="s" s="2">
-        <v>70</v>
+        <v>807</v>
       </c>
       <c r="S277" t="s" s="2">
         <v>70</v>
@@ -31691,31 +31735,31 @@
         <v>70</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>837</v>
+        <v>728</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ277" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
-        <v>839</v>
+        <v>70</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" t="s" s="2">
@@ -31731,20 +31775,18 @@
         <v>70</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K278" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>840</v>
+        <v>731</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N278" s="2"/>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
         <v>70</v>
@@ -31757,7 +31799,7 @@
         <v>70</v>
       </c>
       <c r="T278" t="s" s="2">
-        <v>842</v>
+        <v>70</v>
       </c>
       <c r="U278" t="s" s="2">
         <v>70</v>
@@ -31781,19 +31823,17 @@
         <v>70</v>
       </c>
       <c r="AB278" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC278" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="AC278" s="2"/>
       <c r="AD278" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>70</v>
+        <v>735</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>843</v>
+        <v>736</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>71</v>
@@ -31810,18 +31850,20 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="C279" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="D279" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G279" t="s" s="2">
         <v>77</v>
@@ -31833,20 +31875,18 @@
         <v>70</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K279" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>845</v>
+        <v>731</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="N279" t="s" s="2">
-        <v>847</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N279" s="2"/>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
         <v>70</v>
@@ -31871,13 +31911,11 @@
         <v>70</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y279" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y279" s="2"/>
       <c r="Z279" t="s" s="2">
-        <v>70</v>
+        <v>812</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>70</v>
@@ -31895,7 +31933,7 @@
         <v>70</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>848</v>
+        <v>736</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>71</v>
@@ -31912,12 +31950,14 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="C280" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="D280" t="s" s="2">
         <v>70</v>
       </c>
@@ -31935,23 +31975,19 @@
         <v>70</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>313</v>
+        <v>815</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>850</v>
+        <v>816</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O280" t="s" s="2">
-        <v>852</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="N280" s="2"/>
+      <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
         <v>70</v>
       </c>
@@ -31963,7 +31999,7 @@
         <v>70</v>
       </c>
       <c r="T280" t="s" s="2">
-        <v>853</v>
+        <v>70</v>
       </c>
       <c r="U280" t="s" s="2">
         <v>70</v>
@@ -31999,29 +32035,31 @@
         <v>70</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>854</v>
+        <v>105</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH280" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI280" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ280" t="s" s="2">
-        <v>318</v>
+        <v>106</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>855</v>
+        <v>818</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="C281" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>819</v>
+      </c>
       <c r="D281" t="s" s="2">
         <v>70</v>
       </c>
@@ -32039,23 +32077,19 @@
         <v>70</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>856</v>
+        <v>815</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>857</v>
+        <v>820</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="O281" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="N281" s="2"/>
+      <c r="O281" s="2"/>
       <c r="P281" t="s" s="2">
         <v>70</v>
       </c>
@@ -32103,29 +32137,31 @@
         <v>70</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>855</v>
+        <v>105</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ281" t="s" s="2">
-        <v>325</v>
+        <v>106</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="C282" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>822</v>
+      </c>
       <c r="D282" t="s" s="2">
         <v>70</v>
       </c>
@@ -32146,13 +32182,13 @@
         <v>70</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>92</v>
+        <v>823</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>93</v>
+        <v>824</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>94</v>
+        <v>825</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -32203,38 +32239,38 @@
         <v>70</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>862</v>
+        <v>826</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>862</v>
+        <v>826</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G283" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
         <v>70</v>
@@ -32246,17 +32282,15 @@
         <v>70</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>99</v>
+        <v>827</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="N283" s="2"/>
       <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
         <v>70</v>
@@ -32278,7 +32312,7 @@
         <v>70</v>
       </c>
       <c r="W283" t="s" s="2">
-        <v>70</v>
+        <v>828</v>
       </c>
       <c r="X283" t="s" s="2">
         <v>70</v>
@@ -32293,43 +32327,43 @@
         <v>70</v>
       </c>
       <c r="AB283" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC283" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD283" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>105</v>
+        <v>829</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH283" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ283" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
-        <v>70</v>
+        <v>831</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" t="s" s="2">
@@ -32351,13 +32385,13 @@
         <v>92</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>866</v>
+        <v>365</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
@@ -32371,7 +32405,7 @@
         <v>70</v>
       </c>
       <c r="T284" t="s" s="2">
-        <v>70</v>
+        <v>834</v>
       </c>
       <c r="U284" t="s" s="2">
         <v>70</v>
@@ -32407,7 +32441,7 @@
         <v>70</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>71</v>
@@ -32416,7 +32450,7 @@
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>868</v>
+        <v>89</v>
       </c>
       <c r="AJ284" t="s" s="2">
         <v>90</v>
@@ -32424,14 +32458,14 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>70</v>
+        <v>837</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -32450,16 +32484,16 @@
         <v>78</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" t="s" s="2">
@@ -32473,7 +32507,7 @@
         <v>70</v>
       </c>
       <c r="T285" t="s" s="2">
-        <v>70</v>
+        <v>841</v>
       </c>
       <c r="U285" t="s" s="2">
         <v>70</v>
@@ -32485,13 +32519,13 @@
         <v>70</v>
       </c>
       <c r="X285" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>873</v>
+        <v>70</v>
       </c>
       <c r="Z285" t="s" s="2">
-        <v>544</v>
+        <v>70</v>
       </c>
       <c r="AA285" t="s" s="2">
         <v>70</v>
@@ -32509,7 +32543,7 @@
         <v>70</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>71</v>
@@ -32526,14 +32560,14 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
-        <v>70</v>
+        <v>844</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
@@ -32552,16 +32586,16 @@
         <v>78</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>876</v>
+        <v>845</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>877</v>
+        <v>846</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>878</v>
+        <v>365</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -32611,7 +32645,7 @@
         <v>70</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>71</v>
@@ -32628,14 +32662,14 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>70</v>
+        <v>849</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -32657,13 +32691,13 @@
         <v>92</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>881</v>
+        <v>850</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>882</v>
+        <v>851</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>883</v>
+        <v>365</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" t="s" s="2">
@@ -32677,7 +32711,7 @@
         <v>70</v>
       </c>
       <c r="T287" t="s" s="2">
-        <v>70</v>
+        <v>852</v>
       </c>
       <c r="U287" t="s" s="2">
         <v>70</v>
@@ -32713,7 +32747,7 @@
         <v>70</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>884</v>
+        <v>853</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>71</v>
@@ -32730,10 +32764,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32744,7 +32778,7 @@
         <v>71</v>
       </c>
       <c r="G288" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
         <v>70</v>
@@ -32753,23 +32787,21 @@
         <v>70</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>886</v>
+        <v>92</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>887</v>
+        <v>855</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>888</v>
+        <v>856</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="O288" t="s" s="2">
-        <v>890</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="O288" s="2"/>
       <c r="P288" t="s" s="2">
         <v>70</v>
       </c>
@@ -32817,13 +32849,13 @@
         <v>70</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH288" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI288" t="s" s="2">
         <v>89</v>
@@ -32834,10 +32866,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>891</v>
+        <v>859</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>891</v>
+        <v>859</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32857,19 +32889,23 @@
         <v>70</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>93</v>
+        <v>860</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
+        <v>861</v>
+      </c>
+      <c r="N289" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="O289" t="s" s="2">
+        <v>862</v>
+      </c>
       <c r="P289" t="s" s="2">
         <v>70</v>
       </c>
@@ -32881,7 +32917,7 @@
         <v>70</v>
       </c>
       <c r="T289" t="s" s="2">
-        <v>70</v>
+        <v>863</v>
       </c>
       <c r="U289" t="s" s="2">
         <v>70</v>
@@ -32917,7 +32953,7 @@
         <v>70</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>71</v>
@@ -32926,29 +32962,29 @@
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>70</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G290" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H290" t="s" s="2">
         <v>70</v>
@@ -32957,21 +32993,23 @@
         <v>70</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>98</v>
+        <v>866</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>99</v>
+        <v>867</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>100</v>
+        <v>868</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O290" s="2"/>
+        <v>869</v>
+      </c>
+      <c r="O290" t="s" s="2">
+        <v>870</v>
+      </c>
       <c r="P290" t="s" s="2">
         <v>70</v>
       </c>
@@ -33007,43 +33045,41 @@
         <v>70</v>
       </c>
       <c r="AB290" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC290" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD290" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>105</v>
+        <v>865</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="C291" t="s" s="2">
-        <v>894</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
         <v>70</v>
       </c>
@@ -33064,13 +33100,13 @@
         <v>70</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>895</v>
+        <v>92</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>896</v>
+        <v>93</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>897</v>
+        <v>94</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -33121,40 +33157,38 @@
         <v>70</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH291" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI291" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="C292" t="s" s="2">
-        <v>899</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G292" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H292" t="s" s="2">
         <v>70</v>
@@ -33166,15 +33200,17 @@
         <v>70</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>900</v>
+        <v>98</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>901</v>
+        <v>99</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="N292" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N292" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
         <v>70</v>
@@ -33211,16 +33247,16 @@
         <v>70</v>
       </c>
       <c r="AB292" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC292" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD292" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>105</v>
@@ -33240,14 +33276,12 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="C293" t="s" s="2">
-        <v>904</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
         <v>70</v>
       </c>
@@ -33265,18 +33299,20 @@
         <v>70</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>905</v>
+        <v>92</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>906</v>
+        <v>874</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="N293" s="2"/>
+        <v>875</v>
+      </c>
+      <c r="N293" t="s" s="2">
+        <v>876</v>
+      </c>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
         <v>70</v>
@@ -33325,63 +33361,61 @@
         <v>70</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>105</v>
+        <v>877</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>89</v>
+        <v>878</v>
       </c>
       <c r="AJ293" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>908</v>
+        <v>879</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>908</v>
+        <v>879</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
-        <v>909</v>
+        <v>70</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G294" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J294" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>911</v>
+        <v>881</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O294" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
         <v>70</v>
       </c>
@@ -33405,13 +33439,13 @@
         <v>70</v>
       </c>
       <c r="X294" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>70</v>
+        <v>883</v>
       </c>
       <c r="Z294" t="s" s="2">
-        <v>70</v>
+        <v>554</v>
       </c>
       <c r="AA294" t="s" s="2">
         <v>70</v>
@@ -33429,27 +33463,27 @@
         <v>70</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH294" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI294" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33469,23 +33503,21 @@
         <v>70</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="O295" t="s" s="2">
-        <v>917</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
         <v>70</v>
       </c>
@@ -33509,11 +33541,13 @@
         <v>70</v>
       </c>
       <c r="X295" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y295" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z295" t="s" s="2">
-        <v>918</v>
+        <v>70</v>
       </c>
       <c r="AA295" t="s" s="2">
         <v>70</v>
@@ -33531,7 +33565,7 @@
         <v>70</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>71</v>
@@ -33548,10 +33582,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>919</v>
+        <v>890</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>919</v>
+        <v>890</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -33571,23 +33605,21 @@
         <v>70</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>920</v>
+        <v>92</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>922</v>
+        <v>892</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>924</v>
-      </c>
+        <v>893</v>
+      </c>
+      <c r="O296" s="2"/>
       <c r="P296" t="s" s="2">
         <v>70</v>
       </c>
@@ -33635,7 +33667,7 @@
         <v>70</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>71</v>
@@ -33652,10 +33684,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33678,17 +33710,19 @@
         <v>70</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>635</v>
+        <v>896</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>926</v>
+        <v>897</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N297" s="2"/>
+        <v>898</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>899</v>
+      </c>
       <c r="O297" t="s" s="2">
-        <v>927</v>
+        <v>900</v>
       </c>
       <c r="P297" t="s" s="2">
         <v>70</v>
@@ -33737,7 +33771,7 @@
         <v>70</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>71</v>
@@ -33749,15 +33783,15 @@
         <v>89</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>928</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33854,18 +33888,18 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="G299" t="s" s="2">
         <v>72</v>
@@ -33883,12 +33917,14 @@
         <v>98</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N299" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N299" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
         <v>70</v>
@@ -33954,16 +33990,16 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>645</v>
+        <v>904</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
@@ -33982,17 +34018,15 @@
         <v>70</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>646</v>
+        <v>905</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>647</v>
+        <v>906</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="N300" s="2"/>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
         <v>70</v>
@@ -34058,20 +34092,20 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>659</v>
+        <v>909</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G301" t="s" s="2">
         <v>77</v>
@@ -34086,13 +34120,13 @@
         <v>70</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>660</v>
+        <v>910</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>661</v>
+        <v>911</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>662</v>
+        <v>912</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -34160,13 +34194,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>654</v>
+        <v>914</v>
       </c>
       <c r="D302" t="s" s="2">
         <v>70</v>
@@ -34188,13 +34222,13 @@
         <v>70</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>655</v>
+        <v>915</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>657</v>
+        <v>917</v>
       </c>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
@@ -34262,44 +34296,46 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="C303" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
-        <v>70</v>
+        <v>919</v>
       </c>
       <c r="E303" s="2"/>
       <c r="F303" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G303" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H303" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I303" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N303" s="2"/>
-      <c r="O303" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="N303" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O303" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P303" t="s" s="2">
         <v>70</v>
       </c>
@@ -34347,7 +34383,7 @@
         <v>70</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>105</v>
+        <v>922</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>71</v>
@@ -34364,10 +34400,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34375,7 +34411,7 @@
       </c>
       <c r="E304" s="2"/>
       <c r="F304" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G304" t="s" s="2">
         <v>77</v>
@@ -34387,21 +34423,23 @@
         <v>70</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>664</v>
+        <v>924</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>665</v>
+        <v>925</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O304" s="2"/>
+        <v>926</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>927</v>
+      </c>
       <c r="P304" t="s" s="2">
         <v>70</v>
       </c>
@@ -34427,11 +34465,9 @@
       <c r="X304" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y304" t="s" s="2">
-        <v>666</v>
-      </c>
+      <c r="Y304" s="2"/>
       <c r="Z304" t="s" s="2">
-        <v>667</v>
+        <v>928</v>
       </c>
       <c r="AA304" t="s" s="2">
         <v>70</v>
@@ -34449,7 +34485,7 @@
         <v>70</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>668</v>
+        <v>923</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>71</v>
@@ -34458,7 +34494,7 @@
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>669</v>
+        <v>89</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>90</v>
@@ -34466,10 +34502,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34477,7 +34513,7 @@
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>77</v>
@@ -34489,22 +34525,22 @@
         <v>70</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>92</v>
+        <v>930</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>671</v>
+        <v>931</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>672</v>
+        <v>932</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>673</v>
+        <v>933</v>
       </c>
       <c r="O305" t="s" s="2">
-        <v>674</v>
+        <v>934</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>70</v>
@@ -34553,7 +34589,7 @@
         <v>70</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>675</v>
+        <v>929</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>71</v>
@@ -34570,10 +34606,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -34584,31 +34620,29 @@
         <v>71</v>
       </c>
       <c r="G306" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H306" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I306" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>158</v>
+        <v>645</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>677</v>
+        <v>936</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>679</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
-        <v>680</v>
+        <v>937</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>70</v>
@@ -34633,13 +34667,13 @@
         <v>70</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>681</v>
+        <v>70</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>682</v>
+        <v>70</v>
       </c>
       <c r="AA306" t="s" s="2">
         <v>70</v>
@@ -34657,27 +34691,27 @@
         <v>70</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>683</v>
+        <v>935</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI306" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>90</v>
+        <v>938</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34697,20 +34731,18 @@
         <v>70</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>685</v>
+        <v>92</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>686</v>
+        <v>93</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N307" t="s" s="2">
-        <v>688</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N307" s="2"/>
       <c r="O307" s="2"/>
       <c r="P307" t="s" s="2">
         <v>70</v>
@@ -34759,7 +34791,7 @@
         <v>70</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>689</v>
+        <v>95</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>71</v>
@@ -34768,18 +34800,18 @@
         <v>77</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -34787,10 +34819,10 @@
       </c>
       <c r="E308" s="2"/>
       <c r="F308" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="G308" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H308" t="s" s="2">
         <v>70</v>
@@ -34799,20 +34831,18 @@
         <v>70</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>691</v>
+        <v>182</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>693</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N308" s="2"/>
       <c r="O308" s="2"/>
       <c r="P308" t="s" s="2">
         <v>70</v>
@@ -34849,43 +34879,45 @@
         <v>70</v>
       </c>
       <c r="AB308" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC308" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD308" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>694</v>
+        <v>105</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH308" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI308" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>318</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="C309" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="D309" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" t="s" s="2">
@@ -34904,20 +34936,18 @@
         <v>70</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>943</v>
+        <v>657</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>698</v>
+        <v>189</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>944</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O309" s="2"/>
       <c r="P309" t="s" s="2">
         <v>70</v>
       </c>
@@ -34965,38 +34995,40 @@
         <v>70</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>942</v>
+        <v>105</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH309" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI309" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ309" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="C310" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="D310" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G310" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>70</v>
@@ -35008,20 +35040,16 @@
         <v>70</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>946</v>
+        <v>670</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>947</v>
+        <v>671</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="O310" t="s" s="2">
-        <v>949</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="N310" s="2"/>
+      <c r="O310" s="2"/>
       <c r="P310" t="s" s="2">
         <v>70</v>
       </c>
@@ -35069,7 +35097,7 @@
         <v>70</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>945</v>
+        <v>105</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>71</v>
@@ -35081,6 +35109,932 @@
         <v>89</v>
       </c>
       <c r="AJ310" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="D311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E311" s="2"/>
+      <c r="F311" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G311" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K311" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="M311" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N311" s="2"/>
+      <c r="O311" s="2"/>
+      <c r="P311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q311" s="2"/>
+      <c r="R311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE311" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF311" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG311" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH311" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI311" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ311" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="D312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E312" s="2"/>
+      <c r="F312" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G312" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K312" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N312" s="2"/>
+      <c r="O312" s="2"/>
+      <c r="P312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q312" s="2"/>
+      <c r="R312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE312" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF312" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG312" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH312" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI312" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ312" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="C313" s="2"/>
+      <c r="D313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E313" s="2"/>
+      <c r="F313" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G313" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K313" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L313" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M313" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N313" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O313" s="2"/>
+      <c r="P313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q313" s="2"/>
+      <c r="R313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X313" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y313" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z313" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AA313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE313" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF313" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AG313" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH313" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI313" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AJ313" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C314" s="2"/>
+      <c r="D314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E314" s="2"/>
+      <c r="F314" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G314" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K314" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L314" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M314" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N314" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="O314" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="P314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q314" s="2"/>
+      <c r="R314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE314" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF314" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AG314" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH314" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI314" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ314" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="C315" s="2"/>
+      <c r="D315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E315" s="2"/>
+      <c r="F315" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G315" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L315" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M315" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="P315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q315" s="2"/>
+      <c r="R315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X315" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y315" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="Z315" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AA315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE315" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF315" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AG315" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH315" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI315" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ315" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="C316" s="2"/>
+      <c r="D316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E316" s="2"/>
+      <c r="F316" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G316" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O316" s="2"/>
+      <c r="P316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q316" s="2"/>
+      <c r="R316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE316" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AG316" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH316" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI316" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ316" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="C317" s="2"/>
+      <c r="D317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E317" s="2"/>
+      <c r="F317" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="O317" s="2"/>
+      <c r="P317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q317" s="2"/>
+      <c r="R317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="C318" s="2"/>
+      <c r="D318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E318" s="2"/>
+      <c r="F318" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G318" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N318" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="O318" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="P318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q318" s="2"/>
+      <c r="R318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="C319" s="2"/>
+      <c r="D319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E319" s="2"/>
+      <c r="F319" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G319" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K319" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L319" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="M319" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="N319" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="O319" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="P319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q319" s="2"/>
+      <c r="R319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
         <v>325</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10326" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10035" uniqueCount="950">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1646,36 +1646,6 @@
   </si>
   <si>
     <t>Organization.identifier:numADELI.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG</t>
-  </si>
-  <si>
-    <t>identifierEG</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifierEG.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -3286,7 +3256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ319"/>
+  <dimension ref="A1:AJ310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -22417,11 +22387,9 @@
         <v>528</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
         <v>70</v>
       </c>
@@ -22436,28 +22404,32 @@
         <v>70</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>274</v>
+        <v>377</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>275</v>
+        <v>529</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N187" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O187" t="s" s="2">
-        <v>277</v>
+        <v>532</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="Q187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="R187" t="s" s="2">
         <v>70</v>
       </c>
@@ -22501,16 +22473,16 @@
         <v>70</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>273</v>
+        <v>528</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>90</v>
@@ -22518,10 +22490,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>280</v>
+        <v>534</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -22529,10 +22501,10 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>71</v>
+        <v>476</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>70</v>
@@ -22541,19 +22513,23 @@
         <v>70</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>93</v>
+        <v>535</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P188" t="s" s="2">
         <v>70</v>
       </c>
@@ -22577,62 +22553,62 @@
         <v>70</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>70</v>
+        <v>539</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>70</v>
+        <v>540</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="AC188" s="2"/>
       <c r="AD188" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>95</v>
+        <v>534</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="D189" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>70</v>
@@ -22641,21 +22617,23 @@
         <v>70</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>99</v>
+        <v>535</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>100</v>
+        <v>536</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O189" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P189" t="s" s="2">
         <v>70</v>
       </c>
@@ -22679,31 +22657,31 @@
         <v>70</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>70</v>
+        <v>539</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB189" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC189" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD189" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>105</v>
+        <v>534</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>71</v>
@@ -22715,15 +22693,15 @@
         <v>89</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>282</v>
+        <v>546</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22740,26 +22718,22 @@
         <v>70</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
         <v>70</v>
       </c>
@@ -22783,13 +22757,13 @@
         <v>70</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="AA190" t="s" s="2">
         <v>70</v>
@@ -22807,7 +22781,7 @@
         <v>70</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>71</v>
@@ -22816,29 +22790,29 @@
         <v>77</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>290</v>
+        <v>548</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>70</v>
@@ -22847,23 +22821,21 @@
         <v>70</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>70</v>
       </c>
@@ -22887,51 +22859,51 @@
         <v>70</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB191" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC191" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD191" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI191" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>299</v>
+        <v>550</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22954,19 +22926,19 @@
         <v>78</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>70</v>
@@ -22979,7 +22951,7 @@
         <v>70</v>
       </c>
       <c r="T192" t="s" s="2">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="U192" t="s" s="2">
         <v>70</v>
@@ -23015,13 +22987,13 @@
         <v>70</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI192" t="s" s="2">
         <v>89</v>
@@ -23032,10 +23004,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>306</v>
+        <v>552</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23043,7 +23015,7 @@
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>77</v>
@@ -23055,20 +23027,18 @@
         <v>70</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>307</v>
+        <v>93</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>70</v>
@@ -23081,7 +23051,7 @@
         <v>70</v>
       </c>
       <c r="T193" t="s" s="2">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="U193" t="s" s="2">
         <v>70</v>
@@ -23117,7 +23087,7 @@
         <v>70</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>71</v>
@@ -23126,29 +23096,29 @@
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>312</v>
+        <v>554</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>70</v>
@@ -23157,19 +23127,19 @@
         <v>70</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -23207,39 +23177,39 @@
         <v>70</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC194" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD194" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI194" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>318</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>319</v>
+        <v>556</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23247,7 +23217,7 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>77</v>
@@ -23262,30 +23232,32 @@
         <v>78</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O195" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P195" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T195" t="s" s="2">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="U195" t="s" s="2">
         <v>70</v>
@@ -23321,7 +23293,7 @@
         <v>70</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>71</v>
@@ -23333,15 +23305,15 @@
         <v>89</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>325</v>
+        <v>90</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23358,32 +23330,28 @@
         <v>70</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>539</v>
+        <v>357</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>540</v>
+        <v>358</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="Q196" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
         <v>70</v>
       </c>
@@ -23427,7 +23395,7 @@
         <v>70</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>538</v>
+        <v>360</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>71</v>
@@ -23444,10 +23412,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23455,10 +23423,10 @@
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
-        <v>476</v>
+        <v>71</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>70</v>
@@ -23470,19 +23438,19 @@
         <v>78</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>545</v>
+        <v>363</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>546</v>
+        <v>364</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>547</v>
+        <v>365</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>548</v>
+        <v>366</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>70</v>
@@ -23507,35 +23475,37 @@
         <v>70</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AC197" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD197" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>89</v>
@@ -23546,14 +23516,12 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C198" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
         <v>70</v>
       </c>
@@ -23574,19 +23542,19 @@
         <v>78</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>546</v>
+        <v>372</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>547</v>
+        <v>365</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>548</v>
+        <v>373</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>70</v>
@@ -23611,13 +23579,13 @@
         <v>70</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>554</v>
+        <v>70</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>70</v>
@@ -23635,13 +23603,13 @@
         <v>70</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>544</v>
+        <v>374</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>89</v>
@@ -23652,10 +23620,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23675,19 +23643,23 @@
         <v>70</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P199" t="s" s="2">
         <v>70</v>
       </c>
@@ -23735,7 +23707,7 @@
         <v>70</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>95</v>
+        <v>382</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>71</v>
@@ -23744,29 +23716,29 @@
         <v>77</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>70</v>
@@ -23775,21 +23747,23 @@
         <v>70</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O200" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P200" t="s" s="2">
         <v>70</v>
       </c>
@@ -23825,47 +23799,49 @@
         <v>70</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC200" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD200" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C201" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="D201" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>77</v>
@@ -23880,19 +23856,19 @@
         <v>78</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>339</v>
+        <v>535</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>340</v>
+        <v>536</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>341</v>
+        <v>537</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>342</v>
+        <v>538</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>70</v>
@@ -23917,13 +23893,13 @@
         <v>70</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>70</v>
+        <v>570</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>70</v>
+        <v>571</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>70</v>
@@ -23941,7 +23917,7 @@
         <v>70</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>343</v>
+        <v>534</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>71</v>
@@ -23958,10 +23934,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24058,10 +24034,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -24160,10 +24136,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24186,32 +24162,32 @@
         <v>78</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>567</v>
+        <v>70</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T204" t="s" s="2">
-        <v>567</v>
+        <v>70</v>
       </c>
       <c r="U204" t="s" s="2">
         <v>70</v>
@@ -24247,13 +24223,13 @@
         <v>70</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>89</v>
@@ -24264,10 +24240,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24287,20 +24263,18 @@
         <v>70</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>70</v>
@@ -24349,7 +24323,7 @@
         <v>70</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>71</v>
@@ -24358,29 +24332,29 @@
         <v>77</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>70</v>
@@ -24389,23 +24363,21 @@
         <v>70</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>70</v>
       </c>
@@ -24441,39 +24413,39 @@
         <v>70</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD206" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24481,7 +24453,7 @@
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>77</v>
@@ -24496,32 +24468,32 @@
         <v>78</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>371</v>
+        <v>578</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>372</v>
+        <v>578</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>70</v>
+        <v>579</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T207" t="s" s="2">
-        <v>70</v>
+        <v>579</v>
       </c>
       <c r="U207" t="s" s="2">
         <v>70</v>
@@ -24557,7 +24529,7 @@
         <v>70</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>71</v>
@@ -24574,10 +24546,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24600,20 +24572,18 @@
         <v>78</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>70</v>
       </c>
@@ -24661,7 +24631,7 @@
         <v>70</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>71</v>
@@ -24678,10 +24648,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24704,19 +24674,19 @@
         <v>78</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>70</v>
@@ -24765,7 +24735,7 @@
         <v>70</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>71</v>
@@ -24782,14 +24752,12 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C210" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
         <v>70</v>
       </c>
@@ -24810,19 +24778,19 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>546</v>
+        <v>372</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>547</v>
+        <v>365</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>548</v>
+        <v>373</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>70</v>
@@ -24847,13 +24815,13 @@
         <v>70</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>581</v>
+        <v>70</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>70</v>
@@ -24871,13 +24839,13 @@
         <v>70</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>544</v>
+        <v>374</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>89</v>
@@ -24888,10 +24856,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24911,19 +24879,23 @@
         <v>70</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P211" t="s" s="2">
         <v>70</v>
       </c>
@@ -24971,7 +24943,7 @@
         <v>70</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>95</v>
+        <v>382</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>71</v>
@@ -24980,29 +24952,29 @@
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>70</v>
@@ -25011,21 +24983,23 @@
         <v>70</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O212" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P212" t="s" s="2">
         <v>70</v>
       </c>
@@ -25061,47 +25035,49 @@
         <v>70</v>
       </c>
       <c r="AB212" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD212" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C213" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D213" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>77</v>
@@ -25116,19 +25092,19 @@
         <v>78</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>339</v>
+        <v>535</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>340</v>
+        <v>536</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>341</v>
+        <v>537</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>342</v>
+        <v>538</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>70</v>
@@ -25153,13 +25129,13 @@
         <v>70</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>70</v>
+        <v>587</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>70</v>
+        <v>588</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>70</v>
@@ -25177,7 +25153,7 @@
         <v>70</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>343</v>
+        <v>534</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>71</v>
@@ -25194,10 +25170,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25294,10 +25270,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25396,10 +25372,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25422,32 +25398,32 @@
         <v>78</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>588</v>
+        <v>339</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>588</v>
+        <v>340</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>589</v>
+        <v>70</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>589</v>
+        <v>70</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>70</v>
@@ -25483,13 +25459,13 @@
         <v>70</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>89</v>
@@ -25500,10 +25476,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25523,20 +25499,18 @@
         <v>70</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K217" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N217" s="2"/>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
         <v>70</v>
@@ -25585,7 +25559,7 @@
         <v>70</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>71</v>
@@ -25594,29 +25568,29 @@
         <v>77</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>70</v>
@@ -25625,23 +25599,21 @@
         <v>70</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>70</v>
       </c>
@@ -25677,39 +25649,39 @@
         <v>70</v>
       </c>
       <c r="AB218" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC218" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD218" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25717,7 +25689,7 @@
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G219" t="s" s="2">
         <v>77</v>
@@ -25732,26 +25704,26 @@
         <v>78</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>371</v>
+        <v>595</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>372</v>
+        <v>595</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>70</v>
@@ -25793,7 +25765,7 @@
         <v>70</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>71</v>
@@ -25810,10 +25782,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25836,20 +25808,18 @@
         <v>78</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>70</v>
       </c>
@@ -25897,7 +25867,7 @@
         <v>70</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>71</v>
@@ -25914,10 +25884,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25940,19 +25910,19 @@
         <v>78</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>70</v>
@@ -26001,7 +25971,7 @@
         <v>70</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>71</v>
@@ -26018,14 +25988,12 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C222" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
         <v>70</v>
       </c>
@@ -26046,19 +26014,19 @@
         <v>78</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>546</v>
+        <v>372</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>547</v>
+        <v>365</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>548</v>
+        <v>373</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>70</v>
@@ -26083,13 +26051,13 @@
         <v>70</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>597</v>
+        <v>70</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>598</v>
+        <v>70</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>70</v>
@@ -26107,13 +26075,13 @@
         <v>70</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>544</v>
+        <v>374</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>89</v>
@@ -26124,10 +26092,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26147,19 +26115,23 @@
         <v>70</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>93</v>
+        <v>378</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P223" t="s" s="2">
         <v>70</v>
       </c>
@@ -26207,7 +26179,7 @@
         <v>70</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>95</v>
+        <v>382</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>71</v>
@@ -26216,29 +26188,29 @@
         <v>77</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>70</v>
@@ -26247,21 +26219,23 @@
         <v>70</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O224" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P224" t="s" s="2">
         <v>70</v>
       </c>
@@ -26297,41 +26271,43 @@
         <v>70</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD224" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C225" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="D225" t="s" s="2">
         <v>70</v>
       </c>
@@ -26352,19 +26328,19 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>339</v>
+        <v>604</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>340</v>
+        <v>536</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>341</v>
+        <v>537</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>342</v>
+        <v>538</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>70</v>
@@ -26389,13 +26365,11 @@
         <v>70</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y225" s="2"/>
       <c r="Z225" t="s" s="2">
-        <v>70</v>
+        <v>605</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>70</v>
@@ -26413,7 +26387,7 @@
         <v>70</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>343</v>
+        <v>534</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>71</v>
@@ -26430,12 +26404,14 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C226" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="D226" t="s" s="2">
         <v>70</v>
       </c>
@@ -26453,19 +26429,23 @@
         <v>70</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>93</v>
+        <v>608</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P226" t="s" s="2">
         <v>70</v>
       </c>
@@ -26489,13 +26469,11 @@
         <v>70</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y226" s="2"/>
       <c r="Z226" t="s" s="2">
-        <v>70</v>
+        <v>609</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>70</v>
@@ -26513,38 +26491,40 @@
         <v>70</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>95</v>
+        <v>534</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C227" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="D227" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>70</v>
@@ -26553,21 +26533,23 @@
         <v>70</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>99</v>
+        <v>612</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>100</v>
+        <v>536</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O227" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P227" t="s" s="2">
         <v>70</v>
       </c>
@@ -26591,31 +26573,29 @@
         <v>70</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y227" s="2"/>
       <c r="Z227" t="s" s="2">
-        <v>70</v>
+        <v>613</v>
       </c>
       <c r="AA227" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB227" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD227" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>105</v>
+        <v>534</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>71</v>
@@ -26627,23 +26607,25 @@
         <v>89</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C228" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="D228" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>77</v>
@@ -26658,26 +26640,26 @@
         <v>78</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>352</v>
+        <v>537</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>606</v>
+        <v>70</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>70</v>
@@ -26695,13 +26677,11 @@
         <v>70</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y228" s="2"/>
       <c r="Z228" t="s" s="2">
-        <v>70</v>
+        <v>617</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>70</v>
@@ -26719,13 +26699,13 @@
         <v>70</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>354</v>
+        <v>534</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>89</v>
@@ -26736,18 +26716,20 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C229" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="D229" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>77</v>
@@ -26762,18 +26744,20 @@
         <v>78</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>357</v>
+        <v>620</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>358</v>
+        <v>536</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O229" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P229" t="s" s="2">
         <v>70</v>
       </c>
@@ -26797,13 +26781,11 @@
         <v>70</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y229" s="2"/>
       <c r="Z229" t="s" s="2">
-        <v>70</v>
+        <v>621</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>70</v>
@@ -26821,13 +26803,13 @@
         <v>70</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>360</v>
+        <v>534</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI229" t="s" s="2">
         <v>89</v>
@@ -26838,12 +26820,14 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C230" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="D230" t="s" s="2">
         <v>70</v>
       </c>
@@ -26864,19 +26848,19 @@
         <v>78</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>363</v>
+        <v>535</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>364</v>
+        <v>536</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>365</v>
+        <v>537</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>366</v>
+        <v>538</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>70</v>
@@ -26901,13 +26885,13 @@
         <v>70</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>70</v>
+        <v>539</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>70</v>
+        <v>540</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>70</v>
@@ -26925,13 +26909,13 @@
         <v>70</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>368</v>
+        <v>534</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI230" t="s" s="2">
         <v>89</v>
@@ -26942,10 +26926,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26953,7 +26937,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>77</v>
@@ -26971,16 +26955,16 @@
         <v>92</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>371</v>
+        <v>625</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>372</v>
+        <v>626</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>365</v>
+        <v>627</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>373</v>
+        <v>628</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>70</v>
@@ -27029,7 +27013,7 @@
         <v>70</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>374</v>
+        <v>624</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>71</v>
@@ -27038,7 +27022,7 @@
         <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>90</v>
@@ -27046,10 +27030,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>575</v>
+        <v>629</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27069,22 +27053,22 @@
         <v>70</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>378</v>
+        <v>630</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>379</v>
+        <v>631</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>380</v>
+        <v>632</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>381</v>
+        <v>633</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>70</v>
@@ -27133,13 +27117,13 @@
         <v>70</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>382</v>
+        <v>629</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>89</v>
@@ -27150,10 +27134,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27164,7 +27148,7 @@
         <v>71</v>
       </c>
       <c r="G233" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>70</v>
@@ -27173,22 +27157,22 @@
         <v>70</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>92</v>
+        <v>635</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>385</v>
+        <v>636</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>386</v>
+        <v>637</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>387</v>
+        <v>638</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>388</v>
+        <v>639</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>70</v>
@@ -27237,37 +27221,35 @@
         <v>70</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>389</v>
+        <v>634</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>89</v>
+        <v>640</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>90</v>
+        <v>641</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C234" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>77</v>
@@ -27279,23 +27261,19 @@
         <v>70</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>614</v>
+        <v>93</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
         <v>70</v>
       </c>
@@ -27319,11 +27297,13 @@
         <v>70</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y234" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z234" t="s" s="2">
-        <v>615</v>
+        <v>70</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>70</v>
@@ -27341,40 +27321,38 @@
         <v>70</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>544</v>
+        <v>95</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C235" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>70</v>
@@ -27383,23 +27361,19 @@
         <v>70</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>618</v>
+        <v>182</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
         <v>70</v>
       </c>
@@ -27423,29 +27397,31 @@
         <v>70</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y235" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z235" t="s" s="2">
-        <v>619</v>
+        <v>70</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB235" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD235" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>71</v>
@@ -27457,25 +27433,25 @@
         <v>89</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="D236" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>77</v>
@@ -27487,23 +27463,21 @@
         <v>70</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>291</v>
+        <v>646</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>546</v>
+        <v>189</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
         <v>70</v>
       </c>
@@ -27527,11 +27501,13 @@
         <v>70</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y236" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z236" t="s" s="2">
-        <v>623</v>
+        <v>70</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>70</v>
@@ -27549,7 +27525,7 @@
         <v>70</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>71</v>
@@ -27561,25 +27537,25 @@
         <v>89</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>77</v>
@@ -27591,23 +27567,19 @@
         <v>70</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>291</v>
+        <v>650</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
         <v>70</v>
       </c>
@@ -27631,11 +27603,13 @@
         <v>70</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y237" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z237" t="s" s="2">
-        <v>627</v>
+        <v>70</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>70</v>
@@ -27653,7 +27627,7 @@
         <v>70</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>71</v>
@@ -27665,25 +27639,25 @@
         <v>89</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G238" t="s" s="2">
         <v>77</v>
@@ -27695,23 +27669,19 @@
         <v>70</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>291</v>
+        <v>655</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
         <v>70</v>
       </c>
@@ -27735,11 +27705,13 @@
         <v>70</v>
       </c>
       <c r="X238" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y238" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z238" t="s" s="2">
-        <v>631</v>
+        <v>70</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>70</v>
@@ -27757,7 +27729,7 @@
         <v>70</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>71</v>
@@ -27769,25 +27741,25 @@
         <v>89</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="D239" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>77</v>
@@ -27799,23 +27771,19 @@
         <v>70</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>291</v>
+        <v>660</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>545</v>
+        <v>661</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O239" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
         <v>70</v>
       </c>
@@ -27839,13 +27807,13 @@
         <v>70</v>
       </c>
       <c r="X239" t="s" s="2">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>70</v>
@@ -27863,7 +27831,7 @@
         <v>70</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>71</v>
@@ -27875,15 +27843,15 @@
         <v>89</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27906,20 +27874,18 @@
         <v>78</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>70</v>
       </c>
@@ -27943,13 +27909,13 @@
         <v>70</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>70</v>
+        <v>666</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>70</v>
+        <v>667</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>70</v>
@@ -27967,7 +27933,7 @@
         <v>70</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>71</v>
@@ -27976,7 +27942,7 @@
         <v>77</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>279</v>
+        <v>669</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>90</v>
@@ -27984,10 +27950,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27995,7 +27961,7 @@
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>77</v>
@@ -28007,22 +27973,22 @@
         <v>70</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>70</v>
@@ -28071,13 +28037,13 @@
         <v>70</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>89</v>
@@ -28088,10 +28054,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28102,31 +28068,31 @@
         <v>71</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I242" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>645</v>
+        <v>158</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="P242" t="s" s="2">
         <v>70</v>
@@ -28151,13 +28117,13 @@
         <v>70</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>70</v>
+        <v>681</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>70</v>
+        <v>682</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>70</v>
@@ -28175,27 +28141,27 @@
         <v>70</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>650</v>
+        <v>89</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>651</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28215,18 +28181,20 @@
         <v>70</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>92</v>
+        <v>685</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>93</v>
+        <v>686</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N243" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
         <v>70</v>
@@ -28275,7 +28243,7 @@
         <v>70</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>95</v>
+        <v>689</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>71</v>
@@ -28284,18 +28252,18 @@
         <v>77</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ243" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28303,10 +28271,10 @@
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>70</v>
@@ -28315,18 +28283,20 @@
         <v>70</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>182</v>
+        <v>691</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N244" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
         <v>70</v>
@@ -28363,52 +28333,50 @@
         <v>70</v>
       </c>
       <c r="AB244" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC244" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD244" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>105</v>
+        <v>694</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>106</v>
+        <v>318</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>654</v>
+        <v>695</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C245" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>70</v>
@@ -28420,18 +28388,20 @@
         <v>70</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>189</v>
+        <v>698</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O245" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="P245" t="s" s="2">
         <v>70</v>
       </c>
@@ -28479,7 +28449,7 @@
         <v>70</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>105</v>
+        <v>695</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>71</v>
@@ -28488,28 +28458,26 @@
         <v>72</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>89</v>
+        <v>701</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>106</v>
+        <v>702</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C246" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>77</v>
@@ -28524,13 +28492,13 @@
         <v>70</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>660</v>
+        <v>92</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>661</v>
+        <v>93</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>662</v>
+        <v>94</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -28581,40 +28549,38 @@
         <v>70</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>663</v>
+        <v>704</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C247" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>70</v>
@@ -28626,15 +28592,17 @@
         <v>70</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>665</v>
+        <v>98</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>666</v>
+        <v>99</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N247" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
         <v>70</v>
@@ -28671,16 +28639,16 @@
         <v>70</v>
       </c>
       <c r="AB247" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC247" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD247" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>105</v>
@@ -28700,20 +28668,20 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>77</v>
@@ -28728,13 +28696,13 @@
         <v>70</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>670</v>
+        <v>707</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>671</v>
+        <v>188</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>672</v>
+        <v>189</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -28802,10 +28770,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28813,7 +28781,7 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>77</v>
@@ -28825,20 +28793,18 @@
         <v>70</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>674</v>
+        <v>93</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N249" s="2"/>
       <c r="O249" s="2"/>
       <c r="P249" t="s" s="2">
         <v>70</v>
@@ -28863,13 +28829,13 @@
         <v>70</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>676</v>
+        <v>70</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>677</v>
+        <v>70</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>70</v>
@@ -28887,7 +28853,7 @@
         <v>70</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>678</v>
+        <v>95</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>71</v>
@@ -28896,18 +28862,18 @@
         <v>77</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>679</v>
+        <v>70</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28915,10 +28881,10 @@
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G250" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H250" t="s" s="2">
         <v>70</v>
@@ -28927,23 +28893,19 @@
         <v>70</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>681</v>
+        <v>182</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O250" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
       <c r="P250" t="s" s="2">
         <v>70</v>
       </c>
@@ -28979,39 +28941,39 @@
         <v>70</v>
       </c>
       <c r="AB250" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC250" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD250" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>685</v>
+        <v>105</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -29019,7 +28981,7 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>77</v>
@@ -29028,32 +28990,30 @@
         <v>70</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>70</v>
+        <v>717</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>70</v>
@@ -29071,13 +29031,13 @@
         <v>70</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>691</v>
+        <v>70</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>692</v>
+        <v>70</v>
       </c>
       <c r="AA251" t="s" s="2">
         <v>70</v>
@@ -29095,27 +29055,27 @@
         <v>70</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29135,20 +29095,18 @@
         <v>70</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>695</v>
+        <v>131</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>698</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="N252" s="2"/>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
         <v>70</v>
@@ -29173,31 +29131,27 @@
         <v>70</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y252" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y252" s="2"/>
       <c r="Z252" t="s" s="2">
-        <v>70</v>
+        <v>723</v>
       </c>
       <c r="AA252" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB252" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC252" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="AC252" s="2"/>
       <c r="AD252" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>70</v>
+        <v>725</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>71</v>
@@ -29214,12 +29168,14 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="C253" s="2"/>
+        <v>720</v>
+      </c>
+      <c r="C253" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="D253" t="s" s="2">
         <v>70</v>
       </c>
@@ -29237,20 +29193,18 @@
         <v>70</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="N253" s="2"/>
       <c r="O253" s="2"/>
       <c r="P253" t="s" s="2">
         <v>70</v>
@@ -29275,13 +29229,11 @@
         <v>70</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y253" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y253" s="2"/>
       <c r="Z253" t="s" s="2">
-        <v>70</v>
+        <v>729</v>
       </c>
       <c r="AA253" t="s" s="2">
         <v>70</v>
@@ -29299,7 +29251,7 @@
         <v>70</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>71</v>
@@ -29311,17 +29263,19 @@
         <v>89</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>318</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="C254" s="2"/>
+        <v>704</v>
+      </c>
+      <c r="C254" t="s" s="2">
+        <v>731</v>
+      </c>
       <c r="D254" t="s" s="2">
         <v>70</v>
       </c>
@@ -29330,7 +29284,7 @@
         <v>71</v>
       </c>
       <c r="G254" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H254" t="s" s="2">
         <v>70</v>
@@ -29342,20 +29296,16 @@
         <v>70</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="O254" t="s" s="2">
-        <v>710</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
       <c r="P254" t="s" s="2">
         <v>70</v>
       </c>
@@ -29403,7 +29353,7 @@
         <v>70</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>705</v>
+        <v>105</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>71</v>
@@ -29412,18 +29362,18 @@
         <v>72</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>711</v>
+        <v>89</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>712</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29440,22 +29390,26 @@
         <v>70</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>93</v>
+        <v>736</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
+        <v>737</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="O255" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="P255" t="s" s="2">
         <v>70</v>
       </c>
@@ -29467,7 +29421,7 @@
         <v>70</v>
       </c>
       <c r="T255" t="s" s="2">
-        <v>70</v>
+        <v>740</v>
       </c>
       <c r="U255" t="s" s="2">
         <v>70</v>
@@ -29479,13 +29433,13 @@
         <v>70</v>
       </c>
       <c r="X255" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>70</v>
+        <v>741</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>70</v>
+        <v>742</v>
       </c>
       <c r="AA255" t="s" s="2">
         <v>70</v>
@@ -29503,7 +29457,7 @@
         <v>70</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>95</v>
+        <v>743</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>71</v>
@@ -29512,29 +29466,29 @@
         <v>77</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>70</v>
@@ -29543,19 +29497,19 @@
         <v>70</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>99</v>
+        <v>745</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>100</v>
+        <v>746</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>101</v>
+        <v>747</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" t="s" s="2">
@@ -29569,7 +29523,7 @@
         <v>70</v>
       </c>
       <c r="T256" t="s" s="2">
-        <v>70</v>
+        <v>748</v>
       </c>
       <c r="U256" t="s" s="2">
         <v>70</v>
@@ -29581,55 +29535,53 @@
         <v>70</v>
       </c>
       <c r="X256" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>70</v>
+        <v>749</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>70</v>
+        <v>750</v>
       </c>
       <c r="AA256" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC256" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD256" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>105</v>
+        <v>751</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH256" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C257" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
         <v>70</v>
       </c>
@@ -29647,19 +29599,23 @@
         <v>70</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>717</v>
+        <v>92</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>188</v>
+        <v>753</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="N257" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="O257" t="s" s="2">
+        <v>756</v>
+      </c>
       <c r="P257" t="s" s="2">
         <v>70</v>
       </c>
@@ -29671,7 +29627,7 @@
         <v>70</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>70</v>
@@ -29707,27 +29663,27 @@
         <v>70</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>105</v>
+        <v>758</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH257" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI257" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29738,7 +29694,7 @@
         <v>71</v>
       </c>
       <c r="G258" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H258" t="s" s="2">
         <v>70</v>
@@ -29747,18 +29703,20 @@
         <v>70</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K258" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>93</v>
+        <v>760</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N258" s="2"/>
+        <v>761</v>
+      </c>
+      <c r="N258" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O258" s="2"/>
       <c r="P258" t="s" s="2">
         <v>70</v>
@@ -29771,7 +29729,7 @@
         <v>70</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>70</v>
+        <v>762</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>70</v>
@@ -29807,27 +29765,27 @@
         <v>70</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>95</v>
+        <v>763</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH258" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>720</v>
+        <v>764</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29838,7 +29796,7 @@
         <v>71</v>
       </c>
       <c r="G259" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
         <v>70</v>
@@ -29850,13 +29808,13 @@
         <v>70</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -29895,50 +29853,50 @@
         <v>70</v>
       </c>
       <c r="AB259" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC259" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD259" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH259" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H260" t="s" s="2">
         <v>70</v>
@@ -29950,16 +29908,16 @@
         <v>70</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>724</v>
+        <v>99</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>725</v>
+        <v>100</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>726</v>
+        <v>101</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
@@ -29967,7 +29925,7 @@
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="S260" t="s" s="2">
         <v>70</v>
@@ -29997,41 +29955,43 @@
         <v>70</v>
       </c>
       <c r="AB260" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC260" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD260" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>728</v>
+        <v>105</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="C261" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="D261" t="s" s="2">
         <v>70</v>
       </c>
@@ -30052,13 +30012,13 @@
         <v>70</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>131</v>
+        <v>768</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>731</v>
+        <v>769</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>732</v>
+        <v>770</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -30085,50 +30045,54 @@
         <v>70</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y261" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y261" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z261" t="s" s="2">
-        <v>733</v>
+        <v>70</v>
       </c>
       <c r="AA261" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB261" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="AC261" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC261" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD261" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>735</v>
+        <v>70</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>736</v>
+        <v>105</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="D262" t="s" s="2">
         <v>70</v>
@@ -30150,13 +30114,13 @@
         <v>70</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>131</v>
+        <v>773</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -30183,11 +30147,13 @@
         <v>70</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y262" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y262" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z262" t="s" s="2">
-        <v>739</v>
+        <v>70</v>
       </c>
       <c r="AA262" t="s" s="2">
         <v>70</v>
@@ -30205,30 +30171,30 @@
         <v>70</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>736</v>
+        <v>105</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI262" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="D263" t="s" s="2">
         <v>70</v>
@@ -30250,13 +30216,13 @@
         <v>70</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -30324,12 +30290,14 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="C264" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="C264" t="s" s="2">
+        <v>782</v>
+      </c>
       <c r="D264" t="s" s="2">
         <v>70</v>
       </c>
@@ -30344,26 +30312,22 @@
         <v>70</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>158</v>
+        <v>783</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="O264" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="N264" s="2"/>
+      <c r="O264" s="2"/>
       <c r="P264" t="s" s="2">
         <v>70</v>
       </c>
@@ -30375,7 +30339,7 @@
         <v>70</v>
       </c>
       <c r="T264" t="s" s="2">
-        <v>750</v>
+        <v>70</v>
       </c>
       <c r="U264" t="s" s="2">
         <v>70</v>
@@ -30387,13 +30351,13 @@
         <v>70</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>751</v>
+        <v>70</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>752</v>
+        <v>70</v>
       </c>
       <c r="AA264" t="s" s="2">
         <v>70</v>
@@ -30411,29 +30375,31 @@
         <v>70</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>753</v>
+        <v>105</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH264" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI264" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ264" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="C265" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="C265" t="s" s="2">
+        <v>787</v>
+      </c>
       <c r="D265" t="s" s="2">
         <v>70</v>
       </c>
@@ -30451,20 +30417,18 @@
         <v>70</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>158</v>
+        <v>788</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>755</v>
+        <v>789</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>757</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="N265" s="2"/>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
         <v>70</v>
@@ -30477,7 +30441,7 @@
         <v>70</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>758</v>
+        <v>70</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>70</v>
@@ -30489,13 +30453,13 @@
         <v>70</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>759</v>
+        <v>70</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>760</v>
+        <v>70</v>
       </c>
       <c r="AA265" t="s" s="2">
         <v>70</v>
@@ -30513,27 +30477,27 @@
         <v>70</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>761</v>
+        <v>105</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH265" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI265" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30553,23 +30517,19 @@
         <v>70</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K266" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>763</v>
+        <v>93</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="O266" t="s" s="2">
-        <v>766</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N266" s="2"/>
+      <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
         <v>70</v>
       </c>
@@ -30581,7 +30541,7 @@
         <v>70</v>
       </c>
       <c r="T266" t="s" s="2">
-        <v>767</v>
+        <v>70</v>
       </c>
       <c r="U266" t="s" s="2">
         <v>70</v>
@@ -30617,7 +30577,7 @@
         <v>70</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>768</v>
+        <v>95</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>71</v>
@@ -30626,22 +30586,22 @@
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" t="s" s="2">
@@ -30657,19 +30617,19 @@
         <v>70</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>770</v>
+        <v>99</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>771</v>
+        <v>100</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>365</v>
+        <v>101</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
@@ -30683,7 +30643,7 @@
         <v>70</v>
       </c>
       <c r="T267" t="s" s="2">
-        <v>772</v>
+        <v>70</v>
       </c>
       <c r="U267" t="s" s="2">
         <v>70</v>
@@ -30707,19 +30667,19 @@
         <v>70</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC267" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD267" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>773</v>
+        <v>105</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>71</v>
@@ -30731,15 +30691,15 @@
         <v>89</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30747,7 +30707,7 @@
       </c>
       <c r="E268" s="2"/>
       <c r="F268" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G268" t="s" s="2">
         <v>77</v>
@@ -30762,22 +30722,24 @@
         <v>70</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>93</v>
+        <v>714</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N268" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="N268" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q268" s="2"/>
       <c r="R268" t="s" s="2">
-        <v>70</v>
+        <v>797</v>
       </c>
       <c r="S268" t="s" s="2">
         <v>70</v>
@@ -30819,10 +30781,10 @@
         <v>70</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>95</v>
+        <v>718</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
@@ -30836,21 +30798,21 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G269" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H269" t="s" s="2">
         <v>70</v>
@@ -30862,17 +30824,15 @@
         <v>70</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>99</v>
+        <v>721</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
         <v>70</v>
@@ -30909,49 +30869,47 @@
         <v>70</v>
       </c>
       <c r="AB269" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AC269" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="AC269" s="2"/>
       <c r="AD269" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>104</v>
+        <v>725</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>105</v>
+        <v>726</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH269" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI269" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="D270" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G270" t="s" s="2">
         <v>77</v>
@@ -30966,13 +30924,13 @@
         <v>70</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>778</v>
+        <v>92</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>779</v>
+        <v>721</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>780</v>
+        <v>722</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -30999,13 +30957,11 @@
         <v>70</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y270" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y270" s="2"/>
       <c r="Z270" t="s" s="2">
-        <v>70</v>
+        <v>802</v>
       </c>
       <c r="AA270" t="s" s="2">
         <v>70</v>
@@ -31023,30 +30979,30 @@
         <v>70</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>105</v>
+        <v>726</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH270" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI270" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>70</v>
@@ -31068,13 +31024,13 @@
         <v>70</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -31142,13 +31098,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>70</v>
@@ -31170,13 +31126,13 @@
         <v>70</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -31244,13 +31200,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>70</v>
@@ -31272,13 +31228,13 @@
         <v>70</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -31346,14 +31302,12 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="C274" t="s" s="2">
-        <v>797</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
         <v>70</v>
       </c>
@@ -31374,13 +31328,13 @@
         <v>70</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>798</v>
+        <v>92</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
@@ -31404,7 +31358,7 @@
         <v>70</v>
       </c>
       <c r="W274" t="s" s="2">
-        <v>70</v>
+        <v>818</v>
       </c>
       <c r="X274" t="s" s="2">
         <v>70</v>
@@ -31431,31 +31385,31 @@
         <v>70</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>105</v>
+        <v>819</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH274" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
-        <v>70</v>
+        <v>821</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" t="s" s="2">
@@ -31471,18 +31425,20 @@
         <v>70</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K275" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>93</v>
+        <v>822</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N275" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="N275" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O275" s="2"/>
       <c r="P275" t="s" s="2">
         <v>70</v>
@@ -31495,7 +31451,7 @@
         <v>70</v>
       </c>
       <c r="T275" t="s" s="2">
-        <v>70</v>
+        <v>824</v>
       </c>
       <c r="U275" t="s" s="2">
         <v>70</v>
@@ -31531,7 +31487,7 @@
         <v>70</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>71</v>
@@ -31540,29 +31496,29 @@
         <v>77</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ275" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
-        <v>97</v>
+        <v>827</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G276" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H276" t="s" s="2">
         <v>70</v>
@@ -31571,19 +31527,19 @@
         <v>70</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>99</v>
+        <v>828</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>100</v>
+        <v>829</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>101</v>
+        <v>830</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" t="s" s="2">
@@ -31597,7 +31553,7 @@
         <v>70</v>
       </c>
       <c r="T276" t="s" s="2">
-        <v>70</v>
+        <v>831</v>
       </c>
       <c r="U276" t="s" s="2">
         <v>70</v>
@@ -31621,47 +31577,47 @@
         <v>70</v>
       </c>
       <c r="AB276" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC276" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD276" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>105</v>
+        <v>832</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>805</v>
+        <v>833</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
-        <v>70</v>
+        <v>834</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G277" t="s" s="2">
         <v>77</v>
@@ -31673,19 +31629,19 @@
         <v>70</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>725</v>
+        <v>836</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>726</v>
+        <v>365</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" t="s" s="2">
@@ -31693,7 +31649,7 @@
       </c>
       <c r="Q277" s="2"/>
       <c r="R277" t="s" s="2">
-        <v>807</v>
+        <v>70</v>
       </c>
       <c r="S277" t="s" s="2">
         <v>70</v>
@@ -31735,31 +31691,31 @@
         <v>70</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>728</v>
+        <v>837</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ277" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
-        <v>70</v>
+        <v>839</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" t="s" s="2">
@@ -31775,18 +31731,20 @@
         <v>70</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K278" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>731</v>
+        <v>840</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N278" s="2"/>
+        <v>841</v>
+      </c>
+      <c r="N278" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
         <v>70</v>
@@ -31799,7 +31757,7 @@
         <v>70</v>
       </c>
       <c r="T278" t="s" s="2">
-        <v>70</v>
+        <v>842</v>
       </c>
       <c r="U278" t="s" s="2">
         <v>70</v>
@@ -31823,17 +31781,19 @@
         <v>70</v>
       </c>
       <c r="AB278" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="AC278" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC278" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD278" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>735</v>
+        <v>70</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>736</v>
+        <v>843</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>71</v>
@@ -31850,20 +31810,18 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="C279" t="s" s="2">
-        <v>811</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G279" t="s" s="2">
         <v>77</v>
@@ -31875,18 +31833,20 @@
         <v>70</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>731</v>
+        <v>845</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N279" s="2"/>
+        <v>846</v>
+      </c>
+      <c r="N279" t="s" s="2">
+        <v>847</v>
+      </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
         <v>70</v>
@@ -31911,11 +31871,13 @@
         <v>70</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y279" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y279" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z279" t="s" s="2">
-        <v>812</v>
+        <v>70</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>70</v>
@@ -31933,7 +31895,7 @@
         <v>70</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>736</v>
+        <v>848</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>71</v>
@@ -31950,14 +31912,12 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="C280" t="s" s="2">
-        <v>814</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
         <v>70</v>
       </c>
@@ -31975,19 +31935,23 @@
         <v>70</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>815</v>
+        <v>313</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>816</v>
+        <v>850</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="N280" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="O280" t="s" s="2">
+        <v>852</v>
+      </c>
       <c r="P280" t="s" s="2">
         <v>70</v>
       </c>
@@ -31999,7 +31963,7 @@
         <v>70</v>
       </c>
       <c r="T280" t="s" s="2">
-        <v>70</v>
+        <v>853</v>
       </c>
       <c r="U280" t="s" s="2">
         <v>70</v>
@@ -32035,31 +31999,29 @@
         <v>70</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>105</v>
+        <v>854</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH280" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI280" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ280" t="s" s="2">
-        <v>106</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="C281" t="s" s="2">
-        <v>819</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
         <v>70</v>
       </c>
@@ -32077,19 +32039,23 @@
         <v>70</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>815</v>
+        <v>856</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="N281" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>860</v>
+      </c>
       <c r="P281" t="s" s="2">
         <v>70</v>
       </c>
@@ -32137,31 +32103,29 @@
         <v>70</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>105</v>
+        <v>855</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ281" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>821</v>
+        <v>861</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="C282" t="s" s="2">
-        <v>822</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
         <v>70</v>
       </c>
@@ -32182,13 +32146,13 @@
         <v>70</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>823</v>
+        <v>92</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>824</v>
+        <v>93</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>825</v>
+        <v>94</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -32239,38 +32203,38 @@
         <v>70</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G283" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H283" t="s" s="2">
         <v>70</v>
@@ -32282,15 +32246,17 @@
         <v>70</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>827</v>
+        <v>99</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="N283" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N283" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
         <v>70</v>
@@ -32312,7 +32278,7 @@
         <v>70</v>
       </c>
       <c r="W283" t="s" s="2">
-        <v>828</v>
+        <v>70</v>
       </c>
       <c r="X283" t="s" s="2">
         <v>70</v>
@@ -32327,43 +32293,43 @@
         <v>70</v>
       </c>
       <c r="AB283" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC283" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD283" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>829</v>
+        <v>105</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH283" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ283" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
-        <v>831</v>
+        <v>70</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" t="s" s="2">
@@ -32385,13 +32351,13 @@
         <v>92</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>365</v>
+        <v>866</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
@@ -32405,7 +32371,7 @@
         <v>70</v>
       </c>
       <c r="T284" t="s" s="2">
-        <v>834</v>
+        <v>70</v>
       </c>
       <c r="U284" t="s" s="2">
         <v>70</v>
@@ -32441,7 +32407,7 @@
         <v>70</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>71</v>
@@ -32450,7 +32416,7 @@
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>89</v>
+        <v>868</v>
       </c>
       <c r="AJ284" t="s" s="2">
         <v>90</v>
@@ -32458,14 +32424,14 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>837</v>
+        <v>70</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -32484,16 +32450,16 @@
         <v>78</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" t="s" s="2">
@@ -32507,7 +32473,7 @@
         <v>70</v>
       </c>
       <c r="T285" t="s" s="2">
-        <v>841</v>
+        <v>70</v>
       </c>
       <c r="U285" t="s" s="2">
         <v>70</v>
@@ -32519,13 +32485,13 @@
         <v>70</v>
       </c>
       <c r="X285" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>70</v>
+        <v>873</v>
       </c>
       <c r="Z285" t="s" s="2">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="AA285" t="s" s="2">
         <v>70</v>
@@ -32543,7 +32509,7 @@
         <v>70</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>71</v>
@@ -32560,14 +32526,14 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
-        <v>844</v>
+        <v>70</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
@@ -32586,16 +32552,16 @@
         <v>78</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>365</v>
+        <v>878</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -32645,7 +32611,7 @@
         <v>70</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>71</v>
@@ -32662,14 +32628,14 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>849</v>
+        <v>70</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -32691,13 +32657,13 @@
         <v>92</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>850</v>
+        <v>881</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>365</v>
+        <v>883</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" t="s" s="2">
@@ -32711,7 +32677,7 @@
         <v>70</v>
       </c>
       <c r="T287" t="s" s="2">
-        <v>852</v>
+        <v>70</v>
       </c>
       <c r="U287" t="s" s="2">
         <v>70</v>
@@ -32747,7 +32713,7 @@
         <v>70</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>853</v>
+        <v>884</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>71</v>
@@ -32764,10 +32730,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>854</v>
+        <v>885</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>854</v>
+        <v>885</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32778,7 +32744,7 @@
         <v>71</v>
       </c>
       <c r="G288" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H288" t="s" s="2">
         <v>70</v>
@@ -32787,21 +32753,23 @@
         <v>70</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>92</v>
+        <v>886</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="O288" s="2"/>
+        <v>889</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>890</v>
+      </c>
       <c r="P288" t="s" s="2">
         <v>70</v>
       </c>
@@ -32849,13 +32817,13 @@
         <v>70</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH288" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI288" t="s" s="2">
         <v>89</v>
@@ -32866,10 +32834,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32889,23 +32857,19 @@
         <v>70</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>860</v>
+        <v>93</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>862</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N289" s="2"/>
+      <c r="O289" s="2"/>
       <c r="P289" t="s" s="2">
         <v>70</v>
       </c>
@@ -32917,7 +32881,7 @@
         <v>70</v>
       </c>
       <c r="T289" t="s" s="2">
-        <v>863</v>
+        <v>70</v>
       </c>
       <c r="U289" t="s" s="2">
         <v>70</v>
@@ -32953,7 +32917,7 @@
         <v>70</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>864</v>
+        <v>95</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>71</v>
@@ -32962,29 +32926,29 @@
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>318</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G290" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H290" t="s" s="2">
         <v>70</v>
@@ -32993,23 +32957,21 @@
         <v>70</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>866</v>
+        <v>98</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>867</v>
+        <v>99</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>868</v>
+        <v>100</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="O290" t="s" s="2">
-        <v>870</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O290" s="2"/>
       <c r="P290" t="s" s="2">
         <v>70</v>
       </c>
@@ -33045,41 +33007,43 @@
         <v>70</v>
       </c>
       <c r="AB290" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC290" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD290" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>865</v>
+        <v>105</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>325</v>
+        <v>106</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>871</v>
+        <v>893</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="C291" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>894</v>
+      </c>
       <c r="D291" t="s" s="2">
         <v>70</v>
       </c>
@@ -33100,13 +33064,13 @@
         <v>70</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>92</v>
+        <v>895</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>93</v>
+        <v>896</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>94</v>
+        <v>897</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -33157,38 +33121,40 @@
         <v>70</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH291" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI291" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="C292" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>899</v>
+      </c>
       <c r="D292" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G292" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
         <v>70</v>
@@ -33200,17 +33166,15 @@
         <v>70</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>98</v>
+        <v>900</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>99</v>
+        <v>901</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="N292" s="2"/>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
         <v>70</v>
@@ -33247,16 +33211,16 @@
         <v>70</v>
       </c>
       <c r="AB292" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC292" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD292" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>105</v>
@@ -33276,12 +33240,14 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="C293" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>904</v>
+      </c>
       <c r="D293" t="s" s="2">
         <v>70</v>
       </c>
@@ -33299,20 +33265,18 @@
         <v>70</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>92</v>
+        <v>905</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>876</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="N293" s="2"/>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
         <v>70</v>
@@ -33361,61 +33325,63 @@
         <v>70</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>877</v>
+        <v>105</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>878</v>
+        <v>89</v>
       </c>
       <c r="AJ293" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
-        <v>70</v>
+        <v>909</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G294" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H294" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J294" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="O294" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="O294" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P294" t="s" s="2">
         <v>70</v>
       </c>
@@ -33439,13 +33405,13 @@
         <v>70</v>
       </c>
       <c r="X294" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>883</v>
+        <v>70</v>
       </c>
       <c r="Z294" t="s" s="2">
-        <v>554</v>
+        <v>70</v>
       </c>
       <c r="AA294" t="s" s="2">
         <v>70</v>
@@ -33463,27 +33429,27 @@
         <v>70</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH294" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI294" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33503,21 +33469,23 @@
         <v>70</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="O295" s="2"/>
+        <v>916</v>
+      </c>
+      <c r="O295" t="s" s="2">
+        <v>917</v>
+      </c>
       <c r="P295" t="s" s="2">
         <v>70</v>
       </c>
@@ -33541,13 +33509,11 @@
         <v>70</v>
       </c>
       <c r="X295" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y295" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y295" s="2"/>
       <c r="Z295" t="s" s="2">
-        <v>70</v>
+        <v>918</v>
       </c>
       <c r="AA295" t="s" s="2">
         <v>70</v>
@@ -33565,7 +33531,7 @@
         <v>70</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>889</v>
+        <v>913</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>71</v>
@@ -33582,10 +33548,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -33605,21 +33571,23 @@
         <v>70</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>92</v>
+        <v>920</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="O296" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="O296" t="s" s="2">
+        <v>924</v>
+      </c>
       <c r="P296" t="s" s="2">
         <v>70</v>
       </c>
@@ -33667,7 +33635,7 @@
         <v>70</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>71</v>
@@ -33684,10 +33652,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33710,19 +33678,17 @@
         <v>70</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>896</v>
+        <v>635</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>899</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="N297" s="2"/>
       <c r="O297" t="s" s="2">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="P297" t="s" s="2">
         <v>70</v>
@@ -33771,7 +33737,7 @@
         <v>70</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>71</v>
@@ -33783,15 +33749,15 @@
         <v>89</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>90</v>
+        <v>928</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33888,18 +33854,18 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="G299" t="s" s="2">
         <v>72</v>
@@ -33917,14 +33883,12 @@
         <v>98</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N299" s="2"/>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
         <v>70</v>
@@ -33990,16 +33954,16 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>904</v>
+        <v>645</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
@@ -34018,15 +33982,17 @@
         <v>70</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>905</v>
+        <v>646</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>906</v>
+        <v>647</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="N300" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N300" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
         <v>70</v>
@@ -34092,20 +34058,20 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>909</v>
+        <v>659</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G301" t="s" s="2">
         <v>77</v>
@@ -34120,13 +34086,13 @@
         <v>70</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>910</v>
+        <v>660</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>911</v>
+        <v>661</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>912</v>
+        <v>662</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -34194,13 +34160,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>914</v>
+        <v>654</v>
       </c>
       <c r="D302" t="s" s="2">
         <v>70</v>
@@ -34222,13 +34188,13 @@
         <v>70</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>915</v>
+        <v>655</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>917</v>
+        <v>657</v>
       </c>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
@@ -34296,46 +34262,44 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>918</v>
+        <v>935</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="C303" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="D303" t="s" s="2">
-        <v>919</v>
+        <v>70</v>
       </c>
       <c r="E303" s="2"/>
       <c r="F303" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G303" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I303" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>98</v>
+        <v>650</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O303" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="N303" s="2"/>
+      <c r="O303" s="2"/>
       <c r="P303" t="s" s="2">
         <v>70</v>
       </c>
@@ -34383,7 +34347,7 @@
         <v>70</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>922</v>
+        <v>105</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>71</v>
@@ -34400,10 +34364,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34411,7 +34375,7 @@
       </c>
       <c r="E304" s="2"/>
       <c r="F304" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G304" t="s" s="2">
         <v>77</v>
@@ -34423,23 +34387,21 @@
         <v>70</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>924</v>
+        <v>664</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>925</v>
+        <v>665</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="O304" t="s" s="2">
-        <v>927</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O304" s="2"/>
       <c r="P304" t="s" s="2">
         <v>70</v>
       </c>
@@ -34465,9 +34427,11 @@
       <c r="X304" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y304" s="2"/>
+      <c r="Y304" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="Z304" t="s" s="2">
-        <v>928</v>
+        <v>667</v>
       </c>
       <c r="AA304" t="s" s="2">
         <v>70</v>
@@ -34485,7 +34449,7 @@
         <v>70</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>923</v>
+        <v>668</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>71</v>
@@ -34494,7 +34458,7 @@
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>89</v>
+        <v>669</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>90</v>
@@ -34502,10 +34466,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34513,7 +34477,7 @@
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>77</v>
@@ -34525,22 +34489,22 @@
         <v>70</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>930</v>
+        <v>92</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>931</v>
+        <v>671</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>932</v>
+        <v>672</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>933</v>
+        <v>673</v>
       </c>
       <c r="O305" t="s" s="2">
-        <v>934</v>
+        <v>674</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>70</v>
@@ -34589,7 +34553,7 @@
         <v>70</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>929</v>
+        <v>675</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>71</v>
@@ -34606,10 +34570,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -34620,29 +34584,31 @@
         <v>71</v>
       </c>
       <c r="G306" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H306" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I306" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>645</v>
+        <v>158</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>936</v>
+        <v>677</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N306" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="N306" t="s" s="2">
+        <v>679</v>
+      </c>
       <c r="O306" t="s" s="2">
-        <v>937</v>
+        <v>680</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>70</v>
@@ -34667,13 +34633,13 @@
         <v>70</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>70</v>
+        <v>681</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>70</v>
+        <v>682</v>
       </c>
       <c r="AA306" t="s" s="2">
         <v>70</v>
@@ -34691,27 +34657,27 @@
         <v>70</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>935</v>
+        <v>683</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI306" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>938</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34731,18 +34697,20 @@
         <v>70</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>92</v>
+        <v>685</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>93</v>
+        <v>686</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N307" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="N307" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="O307" s="2"/>
       <c r="P307" t="s" s="2">
         <v>70</v>
@@ -34791,7 +34759,7 @@
         <v>70</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>95</v>
+        <v>689</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>71</v>
@@ -34800,18 +34768,18 @@
         <v>77</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -34819,10 +34787,10 @@
       </c>
       <c r="E308" s="2"/>
       <c r="F308" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="G308" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
         <v>70</v>
@@ -34831,18 +34799,20 @@
         <v>70</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>182</v>
+        <v>691</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N308" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="O308" s="2"/>
       <c r="P308" t="s" s="2">
         <v>70</v>
@@ -34879,45 +34849,43 @@
         <v>70</v>
       </c>
       <c r="AB308" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC308" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD308" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>105</v>
+        <v>694</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH308" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>106</v>
+        <v>318</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="C309" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" t="s" s="2">
@@ -34936,18 +34904,20 @@
         <v>70</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>657</v>
+        <v>943</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>189</v>
+        <v>698</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O309" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="O309" t="s" s="2">
+        <v>944</v>
+      </c>
       <c r="P309" t="s" s="2">
         <v>70</v>
       </c>
@@ -34995,40 +34965,38 @@
         <v>70</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>105</v>
+        <v>942</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH309" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ309" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="C310" t="s" s="2">
-        <v>669</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G310" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>70</v>
@@ -35040,16 +35008,20 @@
         <v>70</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>670</v>
+        <v>946</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>671</v>
+        <v>947</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N310" s="2"/>
-      <c r="O310" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>949</v>
+      </c>
       <c r="P310" t="s" s="2">
         <v>70</v>
       </c>
@@ -35097,7 +35069,7 @@
         <v>70</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>105</v>
+        <v>945</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>71</v>
@@ -35109,932 +35081,6 @@
         <v>89</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="B311" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="C311" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="D311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E311" s="2"/>
-      <c r="F311" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G311" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K311" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N311" s="2"/>
-      <c r="O311" s="2"/>
-      <c r="P311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q311" s="2"/>
-      <c r="R311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE311" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF311" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG311" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH311" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI311" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ311" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="B312" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="C312" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="D312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E312" s="2"/>
-      <c r="F312" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G312" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K312" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N312" s="2"/>
-      <c r="O312" s="2"/>
-      <c r="P312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q312" s="2"/>
-      <c r="R312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE312" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF312" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG312" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH312" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI312" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ312" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s" s="2">
-        <v>947</v>
-      </c>
-      <c r="B313" t="s" s="2">
-        <v>947</v>
-      </c>
-      <c r="C313" s="2"/>
-      <c r="D313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E313" s="2"/>
-      <c r="F313" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G313" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J313" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K313" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M313" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O313" s="2"/>
-      <c r="P313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q313" s="2"/>
-      <c r="R313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X313" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y313" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="Z313" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AA313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE313" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF313" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AG313" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH313" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI313" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AJ313" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="B314" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="C314" s="2"/>
-      <c r="D314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E314" s="2"/>
-      <c r="F314" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G314" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J314" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K314" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M314" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="P314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q314" s="2"/>
-      <c r="R314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE314" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF314" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AG314" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH314" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI314" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ314" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="B315" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="C315" s="2"/>
-      <c r="D315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E315" s="2"/>
-      <c r="F315" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G315" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I315" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J315" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K315" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M315" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="P315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q315" s="2"/>
-      <c r="R315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X315" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y315" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="Z315" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AA315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE315" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF315" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AG315" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH315" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI315" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ315" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="B316" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C316" s="2"/>
-      <c r="D316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E316" s="2"/>
-      <c r="F316" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G316" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J316" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K316" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="L316" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O316" s="2"/>
-      <c r="P316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q316" s="2"/>
-      <c r="R316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE316" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF316" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AG316" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH316" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI316" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ316" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="B317" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="C317" s="2"/>
-      <c r="D317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E317" s="2"/>
-      <c r="F317" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G317" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J317" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K317" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L317" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M317" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N317" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="O317" s="2"/>
-      <c r="P317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q317" s="2"/>
-      <c r="R317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE317" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF317" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AG317" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH317" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI317" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ317" t="s" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="B318" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="C318" s="2"/>
-      <c r="D318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E318" s="2"/>
-      <c r="F318" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G318" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K318" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="L318" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="M318" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="O318" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="P318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q318" s="2"/>
-      <c r="R318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE318" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF318" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="AG318" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH318" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI318" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ318" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s" s="2">
-        <v>955</v>
-      </c>
-      <c r="B319" t="s" s="2">
-        <v>955</v>
-      </c>
-      <c r="C319" s="2"/>
-      <c r="D319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E319" s="2"/>
-      <c r="F319" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G319" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K319" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="P319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q319" s="2"/>
-      <c r="R319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE319" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF319" t="s" s="2">
-        <v>955</v>
-      </c>
-      <c r="AG319" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH319" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI319" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ319" t="s" s="2">
         <v>325</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,7 +635,7 @@
     <t>ror-organization-price</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-price}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-price}
 </t>
   </si>
   <si>
@@ -651,7 +651,7 @@
     <t>ror-territorial-division</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-territorial-division}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-territorial-division}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>ror-organization-financial-help-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-financial-help-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-financial-help-type}
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
     <t>ror-organization-accomodation-family</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-accomodation-family}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-accomodation-family}
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <t>ror-organization-nb-permanent-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-nb-permanent-social-help-place}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-nb-permanent-social-help-place}
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>ror-organization-nb-temporary-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-nb-temporary-social-help-place}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-nb-temporary-social-help-place}
 </t>
   </si>
   <si>
@@ -732,7 +732,7 @@
     <t>ror-organization-accessibility-location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-accessibility-location}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-accessibility-location}
 </t>
   </si>
   <si>
@@ -748,7 +748,7 @@
     <t>ror-organization-level-recourse-orsan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-level-recours-orsan}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-level-recours-orsan}
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>ror-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-commune-cog}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-commune-cog}
 </t>
   </si>
   <si>
@@ -777,7 +777,7 @@
     <t>ror-organization-drop-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-drop-zone}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-drop-zone}
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>ror-organization-period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-period}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-period}
 </t>
   </si>
   <si>
@@ -818,7 +818,7 @@
     <t>ror-organization-eg-location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-eg-location}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-eg-location}
 </t>
   </si>
   <si>
@@ -831,7 +831,7 @@
     <t>ror-organization-eg-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-eg-name}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-eg-name}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>ror-organization-oi-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-oi-name}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-oi-name}
 </t>
   </si>
   <si>
@@ -863,7 +863,7 @@
     <t>ror-meta-comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-comment}
 </t>
   </si>
   <si>
@@ -879,14 +879,14 @@
     <t>ror-meta-creation-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
 </t>
   </si>
   <si>
     <t>dateCreation (Metadonnee)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -2055,7 +2055,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -2071,7 +2071,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -2087,7 +2087,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2312,7 +2312,7 @@
     <t>ror-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-calculated-distance}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-calculated-distance}
 </t>
   </si>
   <si>
@@ -2699,7 +2699,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization)
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -2823,7 +2823,7 @@
     <t>ror-contact-function-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-function-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-function-contact}
 </t>
   </si>
   <si>
@@ -2839,7 +2839,7 @@
     <t>ror-contact-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-description}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-description}
 </t>
   </si>
   <si>
@@ -2855,7 +2855,7 @@
     <t>ror-contact-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-contact-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-confidentiality-level}
 </t>
   </si>
   <si>
@@ -3307,7 +3307,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="141.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10225" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10736" uniqueCount="998">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2030,7 +2030,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>nomOI (OI) : Nom de l'organisation interne</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
@@ -2041,6 +2041,91 @@
   <si>
     <t>Over time locations and organizations go through many changes and can be known by different names.
 For searching knowing previous names that the organization was known by can be very useful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:id}
+</t>
+  </si>
+  <si>
+    <t>Organization.alias:OIName</t>
+  </si>
+  <si>
+    <t>OIName</t>
+  </si>
+  <si>
+    <t>nomOI (OI) : Nom de l'organisation interne</t>
+  </si>
+  <si>
+    <t>Organization.alias:OIName.id</t>
+  </si>
+  <si>
+    <t>Organization.alias.id</t>
+  </si>
+  <si>
+    <t>Organization.alias:OIName.extension</t>
+  </si>
+  <si>
+    <t>Organization.alias.extension</t>
+  </si>
+  <si>
+    <t>Organization.alias:OIName.value</t>
+  </si>
+  <si>
+    <t>Organization.alias.value</t>
+  </si>
+  <si>
+    <t>Organization.alias:denomination</t>
+  </si>
+  <si>
+    <t>denomination</t>
+  </si>
+  <si>
+    <t>denominationEG (EG) : Nom sous lequel l'entité géographique exerce son activité</t>
+  </si>
+  <si>
+    <t>Organization.alias:denomination.id</t>
+  </si>
+  <si>
+    <t>Organization.alias:denomination.extension</t>
+  </si>
+  <si>
+    <t>Organization.alias:denomination.value</t>
+  </si>
+  <si>
+    <t>Organization.alias:additionalDenomination</t>
+  </si>
+  <si>
+    <t>additionalDenomination</t>
+  </si>
+  <si>
+    <t>complementDenominationEG (EG) : Suite de la dénomination de l'entité géographique, si elle existe</t>
+  </si>
+  <si>
+    <t>Organization.alias:additionalDenomination.id</t>
+  </si>
+  <si>
+    <t>Organization.alias:additionalDenomination.extension</t>
+  </si>
+  <si>
+    <t>Organization.alias:additionalDenomination.value</t>
+  </si>
+  <si>
+    <t>Organization.alias:operationalName</t>
+  </si>
+  <si>
+    <t>operationalName</t>
+  </si>
+  <si>
+    <t>nomOperationnel (EG) : Appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
+  </si>
+  <si>
+    <t>Organization.alias:operationalName.id</t>
+  </si>
+  <si>
+    <t>Organization.alias:operationalName.extension</t>
+  </si>
+  <si>
+    <t>Organization.alias:operationalName.value</t>
   </si>
   <si>
     <t>Organization.telecom</t>
@@ -3319,7 +3404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ316"/>
+  <dimension ref="A1:AJ332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -27776,16 +27861,14 @@
         <v>70</v>
       </c>
       <c r="AB238" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="AC238" s="2"/>
       <c r="AD238" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>652</v>
@@ -27805,12 +27888,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C239" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="D239" t="s" s="2">
         <v>70</v>
       </c>
@@ -27819,7 +27904,7 @@
         <v>71</v>
       </c>
       <c r="G239" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H239" t="s" s="2">
         <v>70</v>
@@ -27831,19 +27916,19 @@
         <v>70</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>658</v>
+        <v>92</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="P239" t="s" s="2">
         <v>70</v>
@@ -27892,7 +27977,7 @@
         <v>70</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>71</v>
@@ -27901,18 +27986,18 @@
         <v>72</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>663</v>
+        <v>89</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>664</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27920,7 +28005,7 @@
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>77</v>
@@ -27953,7 +28038,7 @@
         <v>70</v>
       </c>
       <c r="S240" t="s" s="2">
-        <v>70</v>
+        <v>659</v>
       </c>
       <c r="T240" t="s" s="2">
         <v>70</v>
@@ -28009,18 +28094,18 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>442</v>
+        <v>71</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>72</v>
@@ -28038,12 +28123,14 @@
         <v>98</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N241" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>70</v>
@@ -28109,16 +28196,14 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
@@ -28137,17 +28222,15 @@
         <v>70</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>669</v>
+        <v>92</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N242" s="2"/>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
         <v>70</v>
@@ -28169,7 +28252,7 @@
         <v>70</v>
       </c>
       <c r="W242" t="s" s="2">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="X242" t="s" s="2">
         <v>70</v>
@@ -28196,37 +28279,37 @@
         <v>70</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>105</v>
+        <v>651</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G243" t="s" s="2">
         <v>77</v>
@@ -28241,16 +28324,20 @@
         <v>70</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>673</v>
+        <v>92</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="P243" t="s" s="2">
         <v>70</v>
       </c>
@@ -28298,7 +28385,7 @@
         <v>70</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>105</v>
+        <v>652</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>71</v>
@@ -28310,25 +28397,23 @@
         <v>89</v>
       </c>
       <c r="AJ243" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="C244" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G244" t="s" s="2">
         <v>77</v>
@@ -28343,13 +28428,13 @@
         <v>70</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>678</v>
+        <v>92</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>679</v>
+        <v>93</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>680</v>
+        <v>94</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -28361,7 +28446,7 @@
         <v>70</v>
       </c>
       <c r="S244" t="s" s="2">
-        <v>70</v>
+        <v>668</v>
       </c>
       <c r="T244" t="s" s="2">
         <v>70</v>
@@ -28400,40 +28485,38 @@
         <v>70</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="C245" t="s" s="2">
-        <v>682</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>70</v>
@@ -28445,15 +28528,17 @@
         <v>70</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>683</v>
+        <v>98</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>684</v>
+        <v>99</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N245" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
         <v>70</v>
@@ -28490,16 +28575,16 @@
         <v>70</v>
       </c>
       <c r="AB245" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC245" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD245" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>105</v>
@@ -28519,10 +28604,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28530,7 +28615,7 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>77</v>
@@ -28542,20 +28627,18 @@
         <v>70</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N246" s="2"/>
       <c r="O246" s="2"/>
       <c r="P246" t="s" s="2">
         <v>70</v>
@@ -28577,16 +28660,16 @@
         <v>70</v>
       </c>
       <c r="W246" t="s" s="2">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="X246" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>689</v>
+        <v>70</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>690</v>
+        <v>70</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>70</v>
@@ -28604,7 +28687,7 @@
         <v>70</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>71</v>
@@ -28613,26 +28696,28 @@
         <v>77</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>692</v>
+        <v>70</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C247" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="D247" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>77</v>
@@ -28644,22 +28729,22 @@
         <v>70</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K247" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>695</v>
+        <v>654</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="P247" t="s" s="2">
         <v>70</v>
@@ -28708,13 +28793,13 @@
         <v>70</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH247" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI247" t="s" s="2">
         <v>89</v>
@@ -28725,10 +28810,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28736,7 +28821,7 @@
       </c>
       <c r="E248" s="2"/>
       <c r="F248" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>77</v>
@@ -28745,26 +28830,22 @@
         <v>70</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>700</v>
+        <v>93</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="O248" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
         <v>70</v>
       </c>
@@ -28773,7 +28854,7 @@
         <v>70</v>
       </c>
       <c r="S248" t="s" s="2">
-        <v>70</v>
+        <v>674</v>
       </c>
       <c r="T248" t="s" s="2">
         <v>70</v>
@@ -28788,13 +28869,13 @@
         <v>70</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>704</v>
+        <v>70</v>
       </c>
       <c r="Z248" t="s" s="2">
-        <v>705</v>
+        <v>70</v>
       </c>
       <c r="AA248" t="s" s="2">
         <v>70</v>
@@ -28812,7 +28893,7 @@
         <v>70</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>706</v>
+        <v>95</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>71</v>
@@ -28821,29 +28902,29 @@
         <v>77</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ248" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H249" t="s" s="2">
         <v>70</v>
@@ -28852,19 +28933,19 @@
         <v>70</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>708</v>
+        <v>98</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>709</v>
+        <v>99</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>710</v>
+        <v>100</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>711</v>
+        <v>101</v>
       </c>
       <c r="O249" s="2"/>
       <c r="P249" t="s" s="2">
@@ -28902,39 +28983,39 @@
         <v>70</v>
       </c>
       <c r="AB249" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC249" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD249" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>712</v>
+        <v>105</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH249" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI249" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28954,20 +29035,18 @@
         <v>70</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>714</v>
+        <v>649</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N250" s="2"/>
       <c r="O250" s="2"/>
       <c r="P250" t="s" s="2">
         <v>70</v>
@@ -28989,7 +29068,7 @@
         <v>70</v>
       </c>
       <c r="W250" t="s" s="2">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="X250" t="s" s="2">
         <v>70</v>
@@ -29016,7 +29095,7 @@
         <v>70</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>717</v>
+        <v>651</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>71</v>
@@ -29025,20 +29104,22 @@
         <v>77</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>329</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>718</v>
+        <v>679</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="C251" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>680</v>
+      </c>
       <c r="D251" t="s" s="2">
         <v>70</v>
       </c>
@@ -29047,7 +29128,7 @@
         <v>71</v>
       </c>
       <c r="G251" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>70</v>
@@ -29059,19 +29140,19 @@
         <v>70</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>719</v>
+        <v>92</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>720</v>
+        <v>681</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>723</v>
+        <v>656</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>70</v>
@@ -29120,7 +29201,7 @@
         <v>70</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>718</v>
+        <v>652</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>71</v>
@@ -29129,18 +29210,18 @@
         <v>72</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>724</v>
+        <v>89</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>725</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29148,7 +29229,7 @@
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G252" t="s" s="2">
         <v>77</v>
@@ -29181,7 +29262,7 @@
         <v>70</v>
       </c>
       <c r="S252" t="s" s="2">
-        <v>70</v>
+        <v>680</v>
       </c>
       <c r="T252" t="s" s="2">
         <v>70</v>
@@ -29237,10 +29318,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>727</v>
+        <v>664</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -29339,14 +29420,12 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="C254" t="s" s="2">
-        <v>729</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
         <v>70</v>
       </c>
@@ -29367,13 +29446,13 @@
         <v>70</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>730</v>
+        <v>92</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>187</v>
+        <v>649</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>188</v>
+        <v>649</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -29397,7 +29476,7 @@
         <v>70</v>
       </c>
       <c r="W254" t="s" s="2">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="X254" t="s" s="2">
         <v>70</v>
@@ -29424,27 +29503,27 @@
         <v>70</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>105</v>
+        <v>651</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH254" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>732</v>
+        <v>685</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29455,7 +29534,7 @@
         <v>71</v>
       </c>
       <c r="G255" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H255" t="s" s="2">
         <v>70</v>
@@ -29467,16 +29546,20 @@
         <v>70</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>92</v>
+        <v>686</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>93</v>
+        <v>687</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O255" t="s" s="2">
+        <v>690</v>
+      </c>
       <c r="P255" t="s" s="2">
         <v>70</v>
       </c>
@@ -29524,27 +29607,27 @@
         <v>70</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>95</v>
+        <v>685</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH255" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>70</v>
+        <v>691</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>70</v>
+        <v>692</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>734</v>
+        <v>693</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -29555,7 +29638,7 @@
         <v>71</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>70</v>
@@ -29567,13 +29650,13 @@
         <v>70</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -29612,39 +29695,39 @@
         <v>70</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC256" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD256" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH256" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>735</v>
+        <v>694</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>736</v>
+        <v>694</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29652,10 +29735,10 @@
       </c>
       <c r="E257" s="2"/>
       <c r="F257" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="G257" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H257" t="s" s="2">
         <v>70</v>
@@ -29667,24 +29750,22 @@
         <v>70</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>737</v>
+        <v>181</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N257" s="2"/>
       <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q257" s="2"/>
       <c r="R257" t="s" s="2">
-        <v>740</v>
+        <v>70</v>
       </c>
       <c r="S257" t="s" s="2">
         <v>70</v>
@@ -29714,43 +29795,45 @@
         <v>70</v>
       </c>
       <c r="AB257" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD257" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>741</v>
+        <v>105</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH257" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>742</v>
+        <v>695</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="C258" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="D258" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" t="s" s="2">
@@ -29769,15 +29852,17 @@
         <v>70</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>131</v>
+        <v>697</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="N258" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N258" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O258" s="2"/>
       <c r="P258" t="s" s="2">
         <v>70</v>
@@ -29802,57 +29887,61 @@
         <v>70</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y258" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y258" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z258" t="s" s="2">
-        <v>746</v>
+        <v>70</v>
       </c>
       <c r="AA258" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB258" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AC258" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC258" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD258" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>748</v>
+        <v>70</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>749</v>
+        <v>105</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH258" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI258" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="D259" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G259" t="s" s="2">
         <v>77</v>
@@ -29867,13 +29956,13 @@
         <v>70</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>131</v>
+        <v>701</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>744</v>
+        <v>702</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -29900,11 +29989,13 @@
         <v>70</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y259" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y259" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z259" t="s" s="2">
-        <v>752</v>
+        <v>70</v>
       </c>
       <c r="AA259" t="s" s="2">
         <v>70</v>
@@ -29922,30 +30013,30 @@
         <v>70</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>749</v>
+        <v>105</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH259" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI259" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>70</v>
@@ -29967,13 +30058,13 @@
         <v>70</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -30041,18 +30132,20 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="C261" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>710</v>
+      </c>
       <c r="D261" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G261" t="s" s="2">
         <v>77</v>
@@ -30061,26 +30154,22 @@
         <v>70</v>
       </c>
       <c r="I261" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>158</v>
+        <v>711</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>759</v>
+        <v>712</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="O261" t="s" s="2">
-        <v>762</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
       <c r="P261" t="s" s="2">
         <v>70</v>
       </c>
@@ -30092,7 +30181,7 @@
         <v>70</v>
       </c>
       <c r="T261" t="s" s="2">
-        <v>763</v>
+        <v>70</v>
       </c>
       <c r="U261" t="s" s="2">
         <v>70</v>
@@ -30104,13 +30193,13 @@
         <v>70</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>764</v>
+        <v>70</v>
       </c>
       <c r="Z261" t="s" s="2">
-        <v>765</v>
+        <v>70</v>
       </c>
       <c r="AA261" t="s" s="2">
         <v>70</v>
@@ -30128,27 +30217,27 @@
         <v>70</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>766</v>
+        <v>105</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>767</v>
+        <v>714</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>767</v>
+        <v>714</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -30156,7 +30245,7 @@
       </c>
       <c r="E262" s="2"/>
       <c r="F262" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G262" t="s" s="2">
         <v>77</v>
@@ -30174,13 +30263,13 @@
         <v>158</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>768</v>
+        <v>715</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>769</v>
+        <v>716</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>770</v>
+        <v>376</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
@@ -30194,7 +30283,7 @@
         <v>70</v>
       </c>
       <c r="T262" t="s" s="2">
-        <v>771</v>
+        <v>70</v>
       </c>
       <c r="U262" t="s" s="2">
         <v>70</v>
@@ -30209,10 +30298,10 @@
         <v>150</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="AA262" t="s" s="2">
         <v>70</v>
@@ -30230,7 +30319,7 @@
         <v>70</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>774</v>
+        <v>719</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>71</v>
@@ -30239,7 +30328,7 @@
         <v>77</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>89</v>
+        <v>720</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>90</v>
@@ -30247,10 +30336,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>775</v>
+        <v>721</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>775</v>
+        <v>721</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -30258,7 +30347,7 @@
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G263" t="s" s="2">
         <v>77</v>
@@ -30276,16 +30365,16 @@
         <v>92</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>776</v>
+        <v>722</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>777</v>
+        <v>723</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>778</v>
+        <v>724</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="P263" t="s" s="2">
         <v>70</v>
@@ -30298,7 +30387,7 @@
         <v>70</v>
       </c>
       <c r="T263" t="s" s="2">
-        <v>780</v>
+        <v>70</v>
       </c>
       <c r="U263" t="s" s="2">
         <v>70</v>
@@ -30334,7 +30423,7 @@
         <v>70</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>71</v>
@@ -30351,10 +30440,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -30365,30 +30454,32 @@
         <v>71</v>
       </c>
       <c r="G264" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>783</v>
+        <v>728</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>784</v>
+        <v>729</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O264" s="2"/>
+        <v>730</v>
+      </c>
+      <c r="O264" t="s" s="2">
+        <v>731</v>
+      </c>
       <c r="P264" t="s" s="2">
         <v>70</v>
       </c>
@@ -30400,7 +30491,7 @@
         <v>70</v>
       </c>
       <c r="T264" t="s" s="2">
-        <v>785</v>
+        <v>70</v>
       </c>
       <c r="U264" t="s" s="2">
         <v>70</v>
@@ -30412,13 +30503,13 @@
         <v>70</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>70</v>
+        <v>732</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>70</v>
+        <v>733</v>
       </c>
       <c r="AA264" t="s" s="2">
         <v>70</v>
@@ -30436,13 +30527,13 @@
         <v>70</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>786</v>
+        <v>734</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH264" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
         <v>89</v>
@@ -30453,10 +30544,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>787</v>
+        <v>735</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>787</v>
+        <v>735</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30476,18 +30567,20 @@
         <v>70</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>92</v>
+        <v>736</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>93</v>
+        <v>737</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N265" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="N265" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
         <v>70</v>
@@ -30536,7 +30629,7 @@
         <v>70</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>95</v>
+        <v>740</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>71</v>
@@ -30545,29 +30638,29 @@
         <v>77</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G266" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
         <v>70</v>
@@ -30576,19 +30669,19 @@
         <v>70</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>99</v>
+        <v>742</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>100</v>
+        <v>743</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>101</v>
+        <v>744</v>
       </c>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
@@ -30626,43 +30719,41 @@
         <v>70</v>
       </c>
       <c r="AB266" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD266" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>105</v>
+        <v>745</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH266" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>106</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>789</v>
+        <v>746</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C267" t="s" s="2">
-        <v>790</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
         <v>70</v>
       </c>
@@ -30671,7 +30762,7 @@
         <v>71</v>
       </c>
       <c r="G267" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H267" t="s" s="2">
         <v>70</v>
@@ -30683,16 +30774,20 @@
         <v>70</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
+        <v>749</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="O267" t="s" s="2">
+        <v>751</v>
+      </c>
       <c r="P267" t="s" s="2">
         <v>70</v>
       </c>
@@ -30740,7 +30835,7 @@
         <v>70</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>105</v>
+        <v>746</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>71</v>
@@ -30749,22 +30844,20 @@
         <v>72</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>89</v>
+        <v>752</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>106</v>
+        <v>753</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C268" t="s" s="2">
-        <v>795</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
         <v>70</v>
       </c>
@@ -30785,13 +30878,13 @@
         <v>70</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>796</v>
+        <v>92</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>797</v>
+        <v>93</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>798</v>
+        <v>94</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -30842,40 +30935,38 @@
         <v>70</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ268" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>799</v>
+        <v>755</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C269" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G269" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H269" t="s" s="2">
         <v>70</v>
@@ -30887,15 +30978,17 @@
         <v>70</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>801</v>
+        <v>98</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>802</v>
+        <v>99</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="N269" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N269" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
         <v>70</v>
@@ -30932,16 +31025,16 @@
         <v>70</v>
       </c>
       <c r="AB269" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC269" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD269" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>105</v>
@@ -30961,13 +31054,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>788</v>
+        <v>755</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>805</v>
+        <v>757</v>
       </c>
       <c r="D270" t="s" s="2">
         <v>70</v>
@@ -30989,13 +31082,13 @@
         <v>70</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>806</v>
+        <v>758</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>807</v>
+        <v>187</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>808</v>
+        <v>188</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -31063,14 +31156,12 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C271" t="s" s="2">
-        <v>810</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
         <v>70</v>
       </c>
@@ -31091,13 +31182,13 @@
         <v>70</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>811</v>
+        <v>92</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>812</v>
+        <v>93</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>813</v>
+        <v>94</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -31148,27 +31239,27 @@
         <v>70</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH271" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI271" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ271" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>814</v>
+        <v>761</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>815</v>
+        <v>762</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -31179,7 +31270,7 @@
         <v>71</v>
       </c>
       <c r="G272" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>70</v>
@@ -31191,13 +31282,13 @@
         <v>70</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -31236,50 +31327,50 @@
         <v>70</v>
       </c>
       <c r="AB272" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC272" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD272" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF272" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG272" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH272" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ272" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>816</v>
+        <v>763</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>817</v>
+        <v>764</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G273" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>70</v>
@@ -31291,16 +31382,16 @@
         <v>70</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>99</v>
+        <v>765</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>100</v>
+        <v>766</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>101</v>
+        <v>767</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" t="s" s="2">
@@ -31308,7 +31399,7 @@
       </c>
       <c r="Q273" s="2"/>
       <c r="R273" t="s" s="2">
-        <v>70</v>
+        <v>768</v>
       </c>
       <c r="S273" t="s" s="2">
         <v>70</v>
@@ -31338,39 +31429,39 @@
         <v>70</v>
       </c>
       <c r="AB273" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC273" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD273" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>105</v>
+        <v>769</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH273" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ273" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>818</v>
+        <v>770</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>819</v>
+        <v>771</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31378,7 +31469,7 @@
       </c>
       <c r="E274" s="2"/>
       <c r="F274" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G274" t="s" s="2">
         <v>77</v>
@@ -31393,24 +31484,22 @@
         <v>70</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="N274" s="2"/>
       <c r="O274" s="2"/>
       <c r="P274" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>820</v>
+        <v>70</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>70</v>
@@ -31428,53 +31517,51 @@
         <v>70</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y274" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y274" s="2"/>
       <c r="Z274" t="s" s="2">
-        <v>70</v>
+        <v>774</v>
       </c>
       <c r="AA274" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB274" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC274" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="AC274" s="2"/>
       <c r="AD274" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>70</v>
+        <v>776</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>821</v>
+        <v>778</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="C275" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>779</v>
+      </c>
       <c r="D275" t="s" s="2">
         <v>70</v>
       </c>
@@ -31495,13 +31582,13 @@
         <v>70</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -31528,29 +31615,29 @@
         <v>70</v>
       </c>
       <c r="X275" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y275" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y275" s="2"/>
       <c r="Z275" t="s" s="2">
-        <v>70</v>
+        <v>780</v>
       </c>
       <c r="AA275" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB275" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AC275" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AC275" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AD275" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>748</v>
+        <v>70</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>71</v>
@@ -31567,20 +31654,20 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>823</v>
+        <v>781</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>822</v>
+        <v>755</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>824</v>
+        <v>782</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G276" t="s" s="2">
         <v>77</v>
@@ -31595,13 +31682,13 @@
         <v>70</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>92</v>
+        <v>783</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>744</v>
+        <v>784</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
@@ -31628,11 +31715,13 @@
         <v>70</v>
       </c>
       <c r="X276" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y276" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y276" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z276" t="s" s="2">
-        <v>825</v>
+        <v>70</v>
       </c>
       <c r="AA276" t="s" s="2">
         <v>70</v>
@@ -31650,31 +31739,29 @@
         <v>70</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>749</v>
+        <v>105</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C277" t="s" s="2">
-        <v>827</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
         <v>70</v>
       </c>
@@ -31689,22 +31776,26 @@
         <v>70</v>
       </c>
       <c r="I277" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>828</v>
+        <v>158</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>829</v>
+        <v>787</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
+        <v>788</v>
+      </c>
+      <c r="N277" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="O277" t="s" s="2">
+        <v>790</v>
+      </c>
       <c r="P277" t="s" s="2">
         <v>70</v>
       </c>
@@ -31716,7 +31807,7 @@
         <v>70</v>
       </c>
       <c r="T277" t="s" s="2">
-        <v>70</v>
+        <v>791</v>
       </c>
       <c r="U277" t="s" s="2">
         <v>70</v>
@@ -31728,13 +31819,13 @@
         <v>70</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>70</v>
+        <v>792</v>
       </c>
       <c r="Z277" t="s" s="2">
-        <v>70</v>
+        <v>793</v>
       </c>
       <c r="AA277" t="s" s="2">
         <v>70</v>
@@ -31752,31 +31843,29 @@
         <v>70</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>105</v>
+        <v>794</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH277" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI277" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ277" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C278" t="s" s="2">
-        <v>832</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
         <v>70</v>
       </c>
@@ -31794,18 +31883,20 @@
         <v>70</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>828</v>
+        <v>158</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>833</v>
+        <v>796</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="N278" s="2"/>
+        <v>797</v>
+      </c>
+      <c r="N278" t="s" s="2">
+        <v>798</v>
+      </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
         <v>70</v>
@@ -31818,7 +31909,7 @@
         <v>70</v>
       </c>
       <c r="T278" t="s" s="2">
-        <v>70</v>
+        <v>799</v>
       </c>
       <c r="U278" t="s" s="2">
         <v>70</v>
@@ -31830,13 +31921,13 @@
         <v>70</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>70</v>
+        <v>800</v>
       </c>
       <c r="Z278" t="s" s="2">
-        <v>70</v>
+        <v>801</v>
       </c>
       <c r="AA278" t="s" s="2">
         <v>70</v>
@@ -31854,31 +31945,29 @@
         <v>70</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>105</v>
+        <v>802</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH278" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI278" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ278" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="C279" t="s" s="2">
-        <v>835</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
         <v>70</v>
       </c>
@@ -31896,19 +31985,23 @@
         <v>70</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>836</v>
+        <v>92</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
+        <v>805</v>
+      </c>
+      <c r="N279" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>807</v>
+      </c>
       <c r="P279" t="s" s="2">
         <v>70</v>
       </c>
@@ -31920,7 +32013,7 @@
         <v>70</v>
       </c>
       <c r="T279" t="s" s="2">
-        <v>70</v>
+        <v>808</v>
       </c>
       <c r="U279" t="s" s="2">
         <v>70</v>
@@ -31956,27 +32049,27 @@
         <v>70</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>105</v>
+        <v>809</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH279" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI279" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -31987,7 +32080,7 @@
         <v>71</v>
       </c>
       <c r="G280" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H280" t="s" s="2">
         <v>70</v>
@@ -31996,18 +32089,20 @@
         <v>70</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K280" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>649</v>
+        <v>811</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N280" s="2"/>
+        <v>812</v>
+      </c>
+      <c r="N280" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
         <v>70</v>
@@ -32020,7 +32115,7 @@
         <v>70</v>
       </c>
       <c r="T280" t="s" s="2">
-        <v>70</v>
+        <v>813</v>
       </c>
       <c r="U280" t="s" s="2">
         <v>70</v>
@@ -32029,7 +32124,7 @@
         <v>70</v>
       </c>
       <c r="W280" t="s" s="2">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="X280" t="s" s="2">
         <v>70</v>
@@ -32056,31 +32151,31 @@
         <v>70</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>651</v>
+        <v>814</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH280" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ280" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
-        <v>841</v>
+        <v>70</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" t="s" s="2">
@@ -32096,20 +32191,18 @@
         <v>70</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K281" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>842</v>
+        <v>93</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N281" s="2"/>
       <c r="O281" s="2"/>
       <c r="P281" t="s" s="2">
         <v>70</v>
@@ -32122,7 +32215,7 @@
         <v>70</v>
       </c>
       <c r="T281" t="s" s="2">
-        <v>844</v>
+        <v>70</v>
       </c>
       <c r="U281" t="s" s="2">
         <v>70</v>
@@ -32158,7 +32251,7 @@
         <v>70</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>845</v>
+        <v>95</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>71</v>
@@ -32167,29 +32260,29 @@
         <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ281" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
-        <v>847</v>
+        <v>97</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G282" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H282" t="s" s="2">
         <v>70</v>
@@ -32198,19 +32291,19 @@
         <v>70</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>848</v>
+        <v>99</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>849</v>
+        <v>100</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>850</v>
+        <v>101</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" t="s" s="2">
@@ -32224,7 +32317,7 @@
         <v>70</v>
       </c>
       <c r="T282" t="s" s="2">
-        <v>851</v>
+        <v>70</v>
       </c>
       <c r="U282" t="s" s="2">
         <v>70</v>
@@ -32248,43 +32341,45 @@
         <v>70</v>
       </c>
       <c r="AB282" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC282" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD282" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>852</v>
+        <v>105</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="C283" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>818</v>
+      </c>
       <c r="D283" t="s" s="2">
-        <v>854</v>
+        <v>70</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" t="s" s="2">
@@ -32300,20 +32395,18 @@
         <v>70</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>92</v>
+        <v>819</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="N283" s="2"/>
       <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
         <v>70</v>
@@ -32362,31 +32455,33 @@
         <v>70</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>857</v>
+        <v>105</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH283" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI283" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ283" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>858</v>
+        <v>822</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="C284" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>823</v>
+      </c>
       <c r="D284" t="s" s="2">
-        <v>859</v>
+        <v>70</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" t="s" s="2">
@@ -32402,20 +32497,18 @@
         <v>70</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>92</v>
+        <v>824</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>860</v>
+        <v>825</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="N284" s="2"/>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
         <v>70</v>
@@ -32428,7 +32521,7 @@
         <v>70</v>
       </c>
       <c r="T284" t="s" s="2">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="U284" t="s" s="2">
         <v>70</v>
@@ -32464,29 +32557,31 @@
         <v>70</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>863</v>
+        <v>105</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH284" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI284" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="C285" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>828</v>
+      </c>
       <c r="D285" t="s" s="2">
         <v>70</v>
       </c>
@@ -32504,20 +32599,18 @@
         <v>70</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>92</v>
+        <v>829</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>867</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="N285" s="2"/>
       <c r="O285" s="2"/>
       <c r="P285" t="s" s="2">
         <v>70</v>
@@ -32566,29 +32659,31 @@
         <v>70</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>868</v>
+        <v>105</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH285" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI285" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ285" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>869</v>
+        <v>832</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="C286" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>833</v>
+      </c>
       <c r="D286" t="s" s="2">
         <v>70</v>
       </c>
@@ -32606,23 +32701,19 @@
         <v>70</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>324</v>
+        <v>834</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="O286" t="s" s="2">
-        <v>872</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="N286" s="2"/>
+      <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
         <v>70</v>
       </c>
@@ -32634,7 +32725,7 @@
         <v>70</v>
       </c>
       <c r="T286" t="s" s="2">
-        <v>873</v>
+        <v>70</v>
       </c>
       <c r="U286" t="s" s="2">
         <v>70</v>
@@ -32670,29 +32761,31 @@
         <v>70</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>874</v>
+        <v>105</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH286" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI286" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>329</v>
+        <v>106</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>875</v>
+        <v>837</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="C287" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>838</v>
+      </c>
       <c r="D287" t="s" s="2">
         <v>70</v>
       </c>
@@ -32710,23 +32803,19 @@
         <v>70</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>876</v>
+        <v>839</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>877</v>
+        <v>840</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>878</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>879</v>
-      </c>
-      <c r="O287" t="s" s="2">
-        <v>880</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="N287" s="2"/>
+      <c r="O287" s="2"/>
       <c r="P287" t="s" s="2">
         <v>70</v>
       </c>
@@ -32774,27 +32863,27 @@
         <v>70</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>875</v>
+        <v>105</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH287" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI287" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>336</v>
+        <v>106</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>881</v>
+        <v>842</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>881</v>
+        <v>843</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32891,10 +32980,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>882</v>
+        <v>845</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32993,10 +33082,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>883</v>
+        <v>846</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -33004,7 +33093,7 @@
       </c>
       <c r="E290" s="2"/>
       <c r="F290" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G290" t="s" s="2">
         <v>77</v>
@@ -33016,19 +33105,19 @@
         <v>70</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>884</v>
+        <v>765</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>885</v>
+        <v>766</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>886</v>
+        <v>767</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" t="s" s="2">
@@ -33036,7 +33125,7 @@
       </c>
       <c r="Q290" s="2"/>
       <c r="R290" t="s" s="2">
-        <v>70</v>
+        <v>848</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>70</v>
@@ -33078,27 +33167,27 @@
         <v>70</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>887</v>
+        <v>769</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>888</v>
+        <v>70</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>889</v>
+        <v>850</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -33118,20 +33207,18 @@
         <v>70</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>890</v>
+        <v>772</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>892</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="N291" s="2"/>
       <c r="O291" s="2"/>
       <c r="P291" t="s" s="2">
         <v>70</v>
@@ -33156,31 +33243,29 @@
         <v>70</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>893</v>
+        <v>70</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>556</v>
+        <v>70</v>
       </c>
       <c r="AA291" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB291" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC291" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="AC291" s="2"/>
       <c r="AD291" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>70</v>
+        <v>776</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>894</v>
+        <v>777</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>71</v>
@@ -33197,18 +33282,20 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>895</v>
+        <v>851</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="C292" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>852</v>
+      </c>
       <c r="D292" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G292" t="s" s="2">
         <v>77</v>
@@ -33220,20 +33307,18 @@
         <v>70</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>896</v>
+        <v>772</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>898</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="N292" s="2"/>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
         <v>70</v>
@@ -33258,13 +33343,11 @@
         <v>70</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y292" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y292" s="2"/>
       <c r="Z292" t="s" s="2">
-        <v>70</v>
+        <v>853</v>
       </c>
       <c r="AA292" t="s" s="2">
         <v>70</v>
@@ -33282,7 +33365,7 @@
         <v>70</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>899</v>
+        <v>777</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>71</v>
@@ -33299,12 +33382,14 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>900</v>
+        <v>854</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C293" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>855</v>
+      </c>
       <c r="D293" t="s" s="2">
         <v>70</v>
       </c>
@@ -33322,20 +33407,18 @@
         <v>70</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>92</v>
+        <v>856</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>901</v>
+        <v>857</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>903</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="N293" s="2"/>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
         <v>70</v>
@@ -33384,29 +33467,31 @@
         <v>70</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>904</v>
+        <v>105</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI293" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ293" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="C294" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>860</v>
+      </c>
       <c r="D294" t="s" s="2">
         <v>70</v>
       </c>
@@ -33415,7 +33500,7 @@
         <v>71</v>
       </c>
       <c r="G294" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
         <v>70</v>
@@ -33427,20 +33512,16 @@
         <v>70</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>907</v>
+        <v>861</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O294" t="s" s="2">
-        <v>910</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="N294" s="2"/>
+      <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
         <v>70</v>
       </c>
@@ -33488,7 +33569,7 @@
         <v>70</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>905</v>
+        <v>105</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>71</v>
@@ -33500,17 +33581,19 @@
         <v>89</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>911</v>
+        <v>862</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="C295" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>863</v>
+      </c>
       <c r="D295" t="s" s="2">
         <v>70</v>
       </c>
@@ -33531,13 +33614,13 @@
         <v>70</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>92</v>
+        <v>864</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>93</v>
+        <v>865</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>94</v>
+        <v>866</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -33588,38 +33671,38 @@
         <v>70</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH295" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E296" s="2"/>
       <c r="F296" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G296" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H296" t="s" s="2">
         <v>70</v>
@@ -33631,17 +33714,15 @@
         <v>70</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N296" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N296" s="2"/>
       <c r="O296" s="2"/>
       <c r="P296" t="s" s="2">
         <v>70</v>
@@ -33663,7 +33744,7 @@
         <v>70</v>
       </c>
       <c r="W296" t="s" s="2">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="X296" t="s" s="2">
         <v>70</v>
@@ -33678,45 +33759,43 @@
         <v>70</v>
       </c>
       <c r="AB296" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AC296" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AD296" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>105</v>
+        <v>651</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH296" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI296" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ296" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="C297" t="s" s="2">
-        <v>914</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
-        <v>70</v>
+        <v>869</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" t="s" s="2">
@@ -33732,18 +33811,20 @@
         <v>70</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>915</v>
+        <v>92</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>916</v>
+        <v>870</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="N297" s="2"/>
+        <v>871</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O297" s="2"/>
       <c r="P297" t="s" s="2">
         <v>70</v>
@@ -33756,7 +33837,7 @@
         <v>70</v>
       </c>
       <c r="T297" t="s" s="2">
-        <v>70</v>
+        <v>872</v>
       </c>
       <c r="U297" t="s" s="2">
         <v>70</v>
@@ -33792,33 +33873,31 @@
         <v>70</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>105</v>
+        <v>873</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH297" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI297" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>918</v>
+        <v>874</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="C298" t="s" s="2">
-        <v>919</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
-        <v>70</v>
+        <v>875</v>
       </c>
       <c r="E298" s="2"/>
       <c r="F298" t="s" s="2">
@@ -33834,18 +33913,20 @@
         <v>70</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>920</v>
+        <v>92</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="N298" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>878</v>
+      </c>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
         <v>70</v>
@@ -33858,7 +33939,7 @@
         <v>70</v>
       </c>
       <c r="T298" t="s" s="2">
-        <v>70</v>
+        <v>879</v>
       </c>
       <c r="U298" t="s" s="2">
         <v>70</v>
@@ -33894,33 +33975,31 @@
         <v>70</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>105</v>
+        <v>880</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>923</v>
+        <v>881</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="C299" t="s" s="2">
-        <v>924</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
-        <v>70</v>
+        <v>882</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" t="s" s="2">
@@ -33936,18 +34015,20 @@
         <v>70</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>925</v>
+        <v>92</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>926</v>
+        <v>883</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="N299" s="2"/>
+        <v>884</v>
+      </c>
+      <c r="N299" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
         <v>70</v>
@@ -33996,63 +34077,61 @@
         <v>70</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>105</v>
+        <v>885</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH299" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI299" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ299" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>928</v>
+        <v>886</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>928</v>
+        <v>886</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
-        <v>929</v>
+        <v>887</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G300" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J300" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>930</v>
+        <v>888</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>931</v>
+        <v>889</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O300" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
         <v>70</v>
       </c>
@@ -34064,7 +34143,7 @@
         <v>70</v>
       </c>
       <c r="T300" t="s" s="2">
-        <v>70</v>
+        <v>890</v>
       </c>
       <c r="U300" t="s" s="2">
         <v>70</v>
@@ -34100,27 +34179,27 @@
         <v>70</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>932</v>
+        <v>891</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH300" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ300" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>933</v>
+        <v>892</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>933</v>
+        <v>892</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -34140,23 +34219,21 @@
         <v>70</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="O301" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="O301" s="2"/>
       <c r="P301" t="s" s="2">
         <v>70</v>
       </c>
@@ -34180,11 +34257,13 @@
         <v>70</v>
       </c>
       <c r="X301" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y301" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y301" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z301" t="s" s="2">
-        <v>938</v>
+        <v>70</v>
       </c>
       <c r="AA301" t="s" s="2">
         <v>70</v>
@@ -34202,7 +34281,7 @@
         <v>70</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>71</v>
@@ -34219,10 +34298,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -34242,22 +34321,22 @@
         <v>70</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>940</v>
+        <v>324</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>941</v>
+        <v>898</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>942</v>
+        <v>899</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>943</v>
+        <v>744</v>
       </c>
       <c r="O302" t="s" s="2">
-        <v>944</v>
+        <v>900</v>
       </c>
       <c r="P302" t="s" s="2">
         <v>70</v>
@@ -34270,7 +34349,7 @@
         <v>70</v>
       </c>
       <c r="T302" t="s" s="2">
-        <v>70</v>
+        <v>901</v>
       </c>
       <c r="U302" t="s" s="2">
         <v>70</v>
@@ -34306,7 +34385,7 @@
         <v>70</v>
       </c>
       <c r="AF302" t="s" s="2">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="AG302" t="s" s="2">
         <v>71</v>
@@ -34318,15 +34397,15 @@
         <v>89</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>90</v>
+        <v>329</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34337,7 +34416,7 @@
         <v>71</v>
       </c>
       <c r="G303" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
         <v>70</v>
@@ -34346,20 +34425,22 @@
         <v>70</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>658</v>
+        <v>904</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>946</v>
+        <v>905</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N303" s="2"/>
+        <v>906</v>
+      </c>
+      <c r="N303" t="s" s="2">
+        <v>907</v>
+      </c>
       <c r="O303" t="s" s="2">
-        <v>947</v>
+        <v>908</v>
       </c>
       <c r="P303" t="s" s="2">
         <v>70</v>
@@ -34408,27 +34489,27 @@
         <v>70</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI303" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ303" t="s" s="2">
-        <v>948</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34525,18 +34606,18 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s" s="2">
-        <v>442</v>
+        <v>71</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>72</v>
@@ -34554,12 +34635,14 @@
         <v>98</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N305" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N305" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O305" s="2"/>
       <c r="P305" t="s" s="2">
         <v>70</v>
@@ -34625,16 +34708,14 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>951</v>
+        <v>911</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C306" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E306" s="2"/>
       <c r="F306" t="s" s="2">
@@ -34650,19 +34731,19 @@
         <v>70</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>669</v>
+        <v>92</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>670</v>
+        <v>912</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>188</v>
+        <v>913</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>101</v>
+        <v>914</v>
       </c>
       <c r="O306" s="2"/>
       <c r="P306" t="s" s="2">
@@ -34712,37 +34793,35 @@
         <v>70</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>105</v>
+        <v>915</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>89</v>
+        <v>916</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C307" t="s" s="2">
-        <v>682</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E307" s="2"/>
       <c r="F307" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G307" t="s" s="2">
         <v>77</v>
@@ -34754,18 +34833,20 @@
         <v>70</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>683</v>
+        <v>119</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>684</v>
+        <v>918</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N307" s="2"/>
+        <v>919</v>
+      </c>
+      <c r="N307" t="s" s="2">
+        <v>920</v>
+      </c>
       <c r="O307" s="2"/>
       <c r="P307" t="s" s="2">
         <v>70</v>
@@ -34790,13 +34871,13 @@
         <v>70</v>
       </c>
       <c r="X307" t="s" s="2">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="Y307" t="s" s="2">
-        <v>70</v>
+        <v>921</v>
       </c>
       <c r="Z307" t="s" s="2">
-        <v>70</v>
+        <v>556</v>
       </c>
       <c r="AA307" t="s" s="2">
         <v>70</v>
@@ -34814,31 +34895,29 @@
         <v>70</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>105</v>
+        <v>922</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH307" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI307" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C308" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
         <v>70</v>
       </c>
@@ -34856,18 +34935,20 @@
         <v>70</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>678</v>
+        <v>285</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N308" s="2"/>
+        <v>925</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>926</v>
+      </c>
       <c r="O308" s="2"/>
       <c r="P308" t="s" s="2">
         <v>70</v>
@@ -34916,37 +34997,35 @@
         <v>70</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>105</v>
+        <v>927</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH308" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>955</v>
+        <v>928</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="C309" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
         <v>70</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G309" t="s" s="2">
         <v>77</v>
@@ -34958,18 +35037,20 @@
         <v>70</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>673</v>
+        <v>92</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N309" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="N309" t="s" s="2">
+        <v>931</v>
+      </c>
       <c r="O309" s="2"/>
       <c r="P309" t="s" s="2">
         <v>70</v>
@@ -35018,27 +35099,27 @@
         <v>70</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>105</v>
+        <v>932</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH309" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ309" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -35046,10 +35127,10 @@
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G310" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>70</v>
@@ -35058,21 +35139,23 @@
         <v>70</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>158</v>
+        <v>934</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>687</v>
+        <v>935</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>688</v>
+        <v>936</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O310" s="2"/>
+        <v>937</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>938</v>
+      </c>
       <c r="P310" t="s" s="2">
         <v>70</v>
       </c>
@@ -35096,13 +35179,13 @@
         <v>70</v>
       </c>
       <c r="X310" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>689</v>
+        <v>70</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>690</v>
+        <v>70</v>
       </c>
       <c r="AA310" t="s" s="2">
         <v>70</v>
@@ -35120,16 +35203,16 @@
         <v>70</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>691</v>
+        <v>933</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI310" t="s" s="2">
-        <v>692</v>
+        <v>89</v>
       </c>
       <c r="AJ310" t="s" s="2">
         <v>90</v>
@@ -35137,10 +35220,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -35148,7 +35231,7 @@
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G311" t="s" s="2">
         <v>77</v>
@@ -35160,23 +35243,19 @@
         <v>70</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K311" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>694</v>
+        <v>93</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N311" s="2"/>
+      <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
         <v>70</v>
       </c>
@@ -35224,7 +35303,7 @@
         <v>70</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>698</v>
+        <v>95</v>
       </c>
       <c r="AG311" t="s" s="2">
         <v>71</v>
@@ -35233,54 +35312,52 @@
         <v>77</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E312" s="2"/>
       <c r="F312" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G312" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I312" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>700</v>
+        <v>99</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>701</v>
+        <v>100</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="O312" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O312" s="2"/>
       <c r="P312" t="s" s="2">
         <v>70</v>
       </c>
@@ -35304,53 +35381,55 @@
         <v>70</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>704</v>
+        <v>70</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>705</v>
+        <v>70</v>
       </c>
       <c r="AA312" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB312" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AC312" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AD312" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>706</v>
+        <v>105</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH312" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI312" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>960</v>
-      </c>
-      <c r="C313" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="C313" t="s" s="2">
+        <v>942</v>
+      </c>
       <c r="D313" t="s" s="2">
         <v>70</v>
       </c>
@@ -35368,20 +35447,18 @@
         <v>70</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>708</v>
+        <v>943</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>709</v>
+        <v>944</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="N313" s="2"/>
       <c r="O313" s="2"/>
       <c r="P313" t="s" s="2">
         <v>70</v>
@@ -35430,29 +35507,31 @@
         <v>70</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>712</v>
+        <v>105</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH313" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI313" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>961</v>
-      </c>
-      <c r="C314" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>947</v>
+      </c>
       <c r="D314" t="s" s="2">
         <v>70</v>
       </c>
@@ -35470,20 +35549,18 @@
         <v>70</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>324</v>
+        <v>948</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>714</v>
+        <v>949</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="N314" s="2"/>
       <c r="O314" s="2"/>
       <c r="P314" t="s" s="2">
         <v>70</v>
@@ -35532,29 +35609,31 @@
         <v>70</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>717</v>
+        <v>105</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH314" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI314" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>329</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="C315" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>952</v>
+      </c>
       <c r="D315" t="s" s="2">
         <v>70</v>
       </c>
@@ -35575,20 +35654,16 @@
         <v>70</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>719</v>
+        <v>953</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>964</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="N315" s="2"/>
+      <c r="O315" s="2"/>
       <c r="P315" t="s" s="2">
         <v>70</v>
       </c>
@@ -35636,31 +35711,31 @@
         <v>70</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>962</v>
+        <v>105</v>
       </c>
       <c r="AG315" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
-        <v>70</v>
+        <v>957</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" t="s" s="2">
@@ -35673,25 +35748,25 @@
         <v>70</v>
       </c>
       <c r="I316" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>966</v>
+        <v>98</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>879</v>
+        <v>101</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>969</v>
+        <v>282</v>
       </c>
       <c r="P316" t="s" s="2">
         <v>70</v>
@@ -35740,7 +35815,7 @@
         <v>70</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AG316" t="s" s="2">
         <v>71</v>
@@ -35752,6 +35827,1646 @@
         <v>89</v>
       </c>
       <c r="AJ316" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="C317" s="2"/>
+      <c r="D317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E317" s="2"/>
+      <c r="F317" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="P317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q317" s="2"/>
+      <c r="R317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y317" s="2"/>
+      <c r="Z317" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="C318" s="2"/>
+      <c r="D318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E318" s="2"/>
+      <c r="F318" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G318" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N318" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="O318" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="P318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q318" s="2"/>
+      <c r="R318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="C319" s="2"/>
+      <c r="D319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E319" s="2"/>
+      <c r="F319" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G319" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K319" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L319" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="M319" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N319" s="2"/>
+      <c r="O319" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="P319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q319" s="2"/>
+      <c r="R319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="C320" s="2"/>
+      <c r="D320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E320" s="2"/>
+      <c r="F320" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G320" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N320" s="2"/>
+      <c r="O320" s="2"/>
+      <c r="P320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q320" s="2"/>
+      <c r="R320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF320" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG320" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH320" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI320" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ320" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="C321" s="2"/>
+      <c r="D321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E321" s="2"/>
+      <c r="F321" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="G321" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K321" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L321" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M321" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N321" s="2"/>
+      <c r="O321" s="2"/>
+      <c r="P321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q321" s="2"/>
+      <c r="R321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB321" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AC321" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AD321" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE321" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF321" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG321" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH321" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI321" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ321" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="D322" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E322" s="2"/>
+      <c r="F322" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O322" s="2"/>
+      <c r="P322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q322" s="2"/>
+      <c r="R322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE322" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF322" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG322" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH322" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI322" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ322" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="D323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E323" s="2"/>
+      <c r="F323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M323" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N323" s="2"/>
+      <c r="O323" s="2"/>
+      <c r="P323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q323" s="2"/>
+      <c r="R323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG323" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH323" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI323" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ323" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="D324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E324" s="2"/>
+      <c r="F324" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N324" s="2"/>
+      <c r="O324" s="2"/>
+      <c r="P324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q324" s="2"/>
+      <c r="R324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG324" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH324" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI324" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ324" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="D325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E325" s="2"/>
+      <c r="F325" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G325" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K325" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="M325" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N325" s="2"/>
+      <c r="O325" s="2"/>
+      <c r="P325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q325" s="2"/>
+      <c r="R325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE325" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF325" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG325" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH325" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI325" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ325" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="C326" s="2"/>
+      <c r="D326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E326" s="2"/>
+      <c r="F326" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G326" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K326" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L326" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="M326" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N326" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O326" s="2"/>
+      <c r="P326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q326" s="2"/>
+      <c r="R326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X326" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y326" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="Z326" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AA326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE326" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF326" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AG326" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH326" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI326" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AJ326" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="C327" s="2"/>
+      <c r="D327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E327" s="2"/>
+      <c r="F327" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G327" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K327" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L327" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M327" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N327" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="O327" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="P327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q327" s="2"/>
+      <c r="R327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE327" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF327" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AG327" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH327" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI327" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ327" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="C328" s="2"/>
+      <c r="D328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E328" s="2"/>
+      <c r="F328" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G328" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K328" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M328" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="N328" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="P328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q328" s="2"/>
+      <c r="R328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X328" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y328" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="Z328" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="AA328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE328" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF328" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AG328" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH328" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI328" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ328" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="C329" s="2"/>
+      <c r="D329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E329" s="2"/>
+      <c r="F329" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G329" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K329" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L329" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M329" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="O329" s="2"/>
+      <c r="P329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q329" s="2"/>
+      <c r="R329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE329" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF329" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AG329" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH329" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI329" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ329" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="C330" s="2"/>
+      <c r="D330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E330" s="2"/>
+      <c r="F330" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G330" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K330" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L330" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M330" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="N330" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="O330" s="2"/>
+      <c r="P330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q330" s="2"/>
+      <c r="R330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE330" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF330" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AG330" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH330" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI330" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ330" t="s" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="C331" s="2"/>
+      <c r="D331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E331" s="2"/>
+      <c r="F331" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G331" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K331" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="L331" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="M331" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="N331" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="P331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q331" s="2"/>
+      <c r="R331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE331" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF331" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="AG331" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH331" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI331" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ331" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="C332" s="2"/>
+      <c r="D332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E332" s="2"/>
+      <c r="F332" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G332" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K332" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="L332" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="M332" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="N332" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="O332" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="P332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q332" s="2"/>
+      <c r="R332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE332" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF332" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="AG332" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH332" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI332" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AJ332" t="s" s="2">
         <v>336</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>488</v>
+        <v>71</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>72</v>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10736" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10736" uniqueCount="997">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -781,7 +781,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">datePrevisionnelleReouverture (OI) : </t>
+    <t>datePrevisionnelleReouverture (OI)</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour définir la date prévisionnelle de réouverture de l'organisation interne.</t>
@@ -1422,7 +1422,7 @@
     <t>numero_cabinet_RPPS</t>
   </si>
   <si>
-    <t xml:space="preserve">numEJ_RPPS_ADELI_Rang ou numEG_RPPS_ADELI_Rang </t>
+    <t>numEJ_RPPS_ADELI_Rang ou numEG_RPPS_ADELI_Rang</t>
   </si>
   <si>
     <t>Organization.identifier:numero_cabinet_RPPS.id</t>
@@ -2200,7 +2200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
   </si>
   <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
@@ -3061,9 +3061,6 @@
   </si>
   <si>
     <t>Organization.contact.telecom.extension:ror-telecom-usage</t>
-  </si>
-  <si>
-    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
   </si>
   <si>
     <t>Organization.contact.telecom.extension:ror-telecom-communication-channel</t>
@@ -36577,7 +36574,7 @@
         <v>706</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>982</v>
+        <v>707</v>
       </c>
       <c r="M324" t="s" s="2">
         <v>708</v>
@@ -36648,7 +36645,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>978</v>
@@ -36679,7 +36676,7 @@
         <v>701</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M325" t="s" s="2">
         <v>703</v>
@@ -36750,10 +36747,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -36852,10 +36849,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -36956,10 +36953,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -37060,10 +37057,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -37162,10 +37159,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -37264,10 +37261,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -37293,7 +37290,7 @@
         <v>747</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M331" t="s" s="2">
         <v>749</v>
@@ -37302,7 +37299,7 @@
         <v>750</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P331" t="s" s="2">
         <v>70</v>
@@ -37351,7 +37348,7 @@
         <v>70</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>71</v>
@@ -37368,10 +37365,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -37394,19 +37391,19 @@
         <v>70</v>
       </c>
       <c r="K332" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="L332" t="s" s="2">
+      <c r="M332" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="M332" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="N332" t="s" s="2">
         <v>907</v>
       </c>
       <c r="O332" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P332" t="s" s="2">
         <v>70</v>
@@ -37455,7 +37452,7 @@
         <v>70</v>
       </c>
       <c r="AF332" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AG332" t="s" s="2">
         <v>71</v>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
